--- a/Documentação/Migração Servidores/Cosmos003/Mapeamento ETL.xlsx
+++ b/Documentação/Migração Servidores/Cosmos003/Mapeamento ETL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10427" uniqueCount="3417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10469" uniqueCount="3427">
   <si>
     <t>Job</t>
   </si>
@@ -10270,6 +10270,36 @@
   </si>
   <si>
     <t>Existe um "Script Task" que envia e-mail. Precisa ser revisto. A variável "xSQLConnection" está configurada como "SERVER=CORP_PRD.dc.nova,1310;Initial Catalog=db_prd_corp;UID=us_webstore_bi;PASSWORD=intwebbi!@#;'. Essa configuração está correta?</t>
+  </si>
+  <si>
+    <t>Precisamos adaptar a configuração do Excel para 32 bits. Existe um procedimento "Send Mail Task" que precisa ser revisto</t>
+  </si>
+  <si>
+    <t>O dtsx trabalha com o arquivo salvo em ""D:\localfile.png". Eu não criei o arquivo neste diretório. Vai ficar aqui mesmo?</t>
+  </si>
+  <si>
+    <t>Existe um "Script Task" que envia e-mail. Precisa ser revisto. Precisamos adaptar a configuração do Excel para 32 bits</t>
+  </si>
+  <si>
+    <t>Verificar Connection Manager LOJA e LOJAEX e também as variáveis xSQLConnection e xSQLConnectionEX</t>
+  </si>
+  <si>
+    <t>As variáveis  xFile, xhtml, xMIS_RELATORIO, xSmtpAdress, xSmtpHost, xSQLConnection não encontrei onde são utilizadas, mas não retirei por receio</t>
+  </si>
+  <si>
+    <t>A variável xSQLConnection não encontrei onde é utilizada, mas não retirei por receio</t>
+  </si>
+  <si>
+    <t>As variáveis  arquivo, unineg,  rs e xSQLConnection aparentemente não são utilizadas, porém não as retirei por receio</t>
+  </si>
+  <si>
+    <t>Será necessário revisar se todas as variáveis definidas são realmente utilizadas</t>
+  </si>
+  <si>
+    <t>Esse DTS tem os controles de auditoria de Cancelamento, inicio e fim</t>
+  </si>
+  <si>
+    <t>Precisamos adaptar a configuração do Excel para 32 bits e rever as conexões com a saída dos dados para Excel</t>
   </si>
 </sst>
 </file>
@@ -10323,7 +10353,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10345,6 +10375,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFABA86"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10405,7 +10441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -10445,24 +10481,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -10635,6 +10664,19 @@
         <color rgb="FF000000"/>
         <name val="Calibri"/>
         <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
     </dxf>
     <dxf>
@@ -10864,14 +10906,14 @@
     <tableColumn id="4" name="Revisado" dataDxfId="14"/>
     <tableColumn id="6" name="Alterado" dataDxfId="13"/>
     <tableColumn id="5" name="Observação" dataDxfId="12"/>
-    <tableColumn id="7" name="Alteração após 18/09" dataDxfId="0"/>
+    <tableColumn id="7" name="Alteração após 18/09" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela14" displayName="Tabela14" ref="A6:C329" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela14" displayName="Tabela14" ref="A6:C329" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A6:C329">
     <filterColumn colId="1">
       <filters>
@@ -10885,25 +10927,25 @@
     <sortCondition ref="B7:B848"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Job" dataDxfId="9"/>
-    <tableColumn id="3" name="Diretorio" dataDxfId="8"/>
-    <tableColumn id="4" name="Revisado" dataDxfId="7"/>
+    <tableColumn id="1" name="Job" dataDxfId="8"/>
+    <tableColumn id="3" name="Diretorio" dataDxfId="7"/>
+    <tableColumn id="4" name="Revisado" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A6:D837" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A6:D837" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A6:D837"/>
   <sortState ref="A7:D837">
     <sortCondition ref="A7:A837"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="6" name="Solução" dataDxfId="4"/>
-    <tableColumn id="1" name="Job" dataDxfId="3"/>
-    <tableColumn id="2" name="step_name" dataDxfId="2"/>
-    <tableColumn id="7" name="Dtsx" dataDxfId="1"/>
+    <tableColumn id="6" name="Solução" dataDxfId="3"/>
+    <tableColumn id="1" name="Job" dataDxfId="2"/>
+    <tableColumn id="2" name="step_name" dataDxfId="1"/>
+    <tableColumn id="7" name="Dtsx" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12872,9 +12914,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D100" sqref="D100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A1129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1126" sqref="C1126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="11.25"/>
@@ -14344,18 +14386,24 @@
       </c>
       <c r="G90" s="20"/>
     </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="2" t="s">
+    <row r="91" spans="1:7" ht="22.5">
+      <c r="A91" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="18" t="s">
         <v>623</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="18" t="s">
         <v>2194</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>2247</v>
+      <c r="D91" s="18" t="s">
+        <v>2247</v>
+      </c>
+      <c r="E91" s="19" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F91" s="17" t="s">
+        <v>3417</v>
       </c>
       <c r="G91" s="20"/>
     </row>
@@ -14387,6 +14435,12 @@
       <c r="D93" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E93" s="3" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>3412</v>
+      </c>
       <c r="G93" s="20"/>
     </row>
     <row r="94" spans="1:7">
@@ -14404,18 +14458,22 @@
       </c>
       <c r="G94" s="20"/>
     </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="2" t="s">
+    <row r="95" spans="1:7" ht="22.5">
+      <c r="A95" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="18" t="s">
         <v>625</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="18" t="s">
         <v>1500</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>2247</v>
+      <c r="D95" s="18" t="s">
+        <v>2247</v>
+      </c>
+      <c r="E95" s="19"/>
+      <c r="F95" s="17" t="s">
+        <v>3418</v>
       </c>
       <c r="G95" s="20"/>
     </row>
@@ -14447,6 +14505,12 @@
       <c r="D97" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E97" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>3412</v>
+      </c>
       <c r="G97" s="20"/>
     </row>
     <row r="98" spans="1:7">
@@ -14477,6 +14541,12 @@
       <c r="D99" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E99" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>3412</v>
+      </c>
       <c r="G99" s="20"/>
     </row>
     <row r="100" spans="1:7">
@@ -14524,18 +14594,24 @@
       </c>
       <c r="G102" s="20"/>
     </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="2" t="s">
+    <row r="103" spans="1:7" ht="22.5">
+      <c r="A103" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="18" t="s">
         <v>608</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="18" t="s">
         <v>2196</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>2247</v>
+      <c r="D103" s="18" t="s">
+        <v>2247</v>
+      </c>
+      <c r="E103" s="19" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F103" s="17" t="s">
+        <v>3419</v>
       </c>
       <c r="G103" s="20"/>
     </row>
@@ -14554,33 +14630,45 @@
       </c>
       <c r="G104" s="20"/>
     </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="2" t="s">
+    <row r="105" spans="1:7" ht="22.5">
+      <c r="A105" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="18" t="s">
         <v>628</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="23" t="s">
         <v>1503</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>2247</v>
+      <c r="D105" s="23" t="s">
+        <v>2247</v>
+      </c>
+      <c r="E105" s="19" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F105" s="17" t="s">
+        <v>3420</v>
       </c>
       <c r="G105" s="20"/>
     </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="2" t="s">
+    <row r="106" spans="1:7" ht="22.5">
+      <c r="A106" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="18" t="s">
         <v>629</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="23" t="s">
         <v>1504</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>2247</v>
+      <c r="D106" s="23" t="s">
+        <v>2247</v>
+      </c>
+      <c r="E106" s="19" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F106" s="17" t="s">
+        <v>3420</v>
       </c>
       <c r="G106" s="20"/>
     </row>
@@ -14612,6 +14700,12 @@
       <c r="D108" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E108" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F108" s="17" t="s">
+        <v>3412</v>
+      </c>
       <c r="G108" s="20"/>
     </row>
     <row r="109" spans="1:7">
@@ -14642,6 +14736,12 @@
       <c r="D110" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E110" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F110" s="17" t="s">
+        <v>3412</v>
+      </c>
       <c r="G110" s="20"/>
     </row>
     <row r="111" spans="1:7">
@@ -14672,6 +14772,12 @@
       <c r="D112" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E112" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F112" s="17" t="s">
+        <v>3412</v>
+      </c>
       <c r="G112" s="20"/>
     </row>
     <row r="113" spans="1:7">
@@ -14702,6 +14808,12 @@
       <c r="D114" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E114" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F114" s="17" t="s">
+        <v>3412</v>
+      </c>
       <c r="G114" s="20"/>
     </row>
     <row r="115" spans="1:7">
@@ -14732,6 +14844,12 @@
       <c r="D116" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E116" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F116" s="17" t="s">
+        <v>3412</v>
+      </c>
       <c r="G116" s="20"/>
     </row>
     <row r="117" spans="1:7">
@@ -14747,6 +14865,12 @@
       <c r="D117" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E117" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F117" s="17" t="s">
+        <v>3412</v>
+      </c>
       <c r="G117" s="20"/>
     </row>
     <row r="118" spans="1:7">
@@ -14762,20 +14886,28 @@
       <c r="D118" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E118" s="20"/>
+      <c r="F118" s="20"/>
       <c r="G118" s="20"/>
     </row>
-    <row r="119" spans="1:7">
-      <c r="A119" s="2" t="s">
+    <row r="119" spans="1:7" ht="22.5">
+      <c r="A119" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="18" t="s">
         <v>632</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="18" t="s">
         <v>1511</v>
       </c>
-      <c r="D119" s="2" t="s">
-        <v>2247</v>
+      <c r="D119" s="18" t="s">
+        <v>2247</v>
+      </c>
+      <c r="E119" s="19" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F119" s="17" t="s">
+        <v>3421</v>
       </c>
       <c r="G119" s="20"/>
     </row>
@@ -14792,6 +14924,12 @@
       <c r="D120" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E120" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>3422</v>
+      </c>
       <c r="G120" s="20"/>
     </row>
     <row r="121" spans="1:7">
@@ -16172,6 +16310,9 @@
       <c r="D212" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E212" s="1" t="s">
+        <v>2247</v>
+      </c>
       <c r="G212" s="20"/>
     </row>
     <row r="213" spans="1:7">
@@ -16279,18 +16420,24 @@
       </c>
       <c r="G219" s="20"/>
     </row>
-    <row r="220" spans="1:7">
-      <c r="A220" s="2" t="s">
+    <row r="220" spans="1:7" ht="22.5">
+      <c r="A220" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B220" s="18" t="s">
         <v>670</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="C220" s="18" t="s">
         <v>1567</v>
       </c>
-      <c r="D220" s="2" t="s">
-        <v>2247</v>
+      <c r="D220" s="18" t="s">
+        <v>2247</v>
+      </c>
+      <c r="E220" s="19" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F220" s="17" t="s">
+        <v>3423</v>
       </c>
       <c r="G220" s="20"/>
     </row>
@@ -16322,6 +16469,9 @@
       <c r="D222" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E222" s="1" t="s">
+        <v>2247</v>
+      </c>
       <c r="G222" s="20"/>
     </row>
     <row r="223" spans="1:7">
@@ -16367,6 +16517,12 @@
       <c r="D225" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E225" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>3424</v>
+      </c>
       <c r="G225" s="20"/>
     </row>
     <row r="226" spans="1:7">
@@ -28312,6 +28468,12 @@
       <c r="D1010" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E1010" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F1010" s="1" t="s">
+        <v>3425</v>
+      </c>
       <c r="G1010" s="20"/>
     </row>
     <row r="1011" spans="1:7">
@@ -28612,6 +28774,9 @@
       <c r="D1030" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E1030" s="1" t="s">
+        <v>2247</v>
+      </c>
       <c r="G1030" s="20"/>
     </row>
     <row r="1031" spans="1:7">
@@ -30204,18 +30369,24 @@
       </c>
       <c r="G1136" s="20"/>
     </row>
-    <row r="1137" spans="1:7">
-      <c r="A1137" s="2" t="s">
+    <row r="1137" spans="1:7" ht="22.5">
+      <c r="A1137" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="B1137" s="2" t="s">
+      <c r="B1137" s="24" t="s">
         <v>1291</v>
       </c>
-      <c r="C1137" s="2" t="s">
+      <c r="C1137" s="24" t="s">
         <v>2231</v>
       </c>
-      <c r="D1137" s="2" t="s">
-        <v>2247</v>
+      <c r="D1137" s="24" t="s">
+        <v>2247</v>
+      </c>
+      <c r="E1137" s="19" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F1137" s="17" t="s">
+        <v>3426</v>
       </c>
       <c r="G1137" s="20"/>
     </row>

--- a/Documentação/Migração Servidores/Cosmos003/Mapeamento ETL.xlsx
+++ b/Documentação/Migração Servidores/Cosmos003/Mapeamento ETL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10469" uniqueCount="3427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10513" uniqueCount="3436">
   <si>
     <t>Job</t>
   </si>
@@ -10300,6 +10300,33 @@
   </si>
   <si>
     <t>Precisamos adaptar a configuração do Excel para 32 bits e rever as conexões com a saída dos dados para Excel</t>
+  </si>
+  <si>
+    <t>Existe um "Script Task" que envia e-mail. Precisa ser revisto. Precisamos revisar também se todas as variáveis definidas são realmente utilizadas</t>
+  </si>
+  <si>
+    <t>verificar as variáveis de conexão.</t>
+  </si>
+  <si>
+    <t>O Banco MIS_LN não existe neste diretorio</t>
+  </si>
+  <si>
+    <t>O banco DM_MARKETING não existe no servidor. Precisamos adaptar a configuração do Excel para 32 bits</t>
+  </si>
+  <si>
+    <t>Existe um "Script Task" que envia e-mails.</t>
+  </si>
+  <si>
+    <t>Revisado?</t>
+  </si>
+  <si>
+    <t>Precisamos configurar o "SharePoint List Source"</t>
+  </si>
+  <si>
+    <t>precisamos reconfigurar na tabela adm.ssis_conexoes o OLAP</t>
+  </si>
+  <si>
+    <t>Em Package Configuration existe a leitura "Config FTP", porém não encontrei onde a mesma é utilizada. Em connection manager existe "File to Send" que também não encontrei onde é utilizado.</t>
   </si>
 </sst>
 </file>
@@ -10441,7 +10468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -10484,14 +10511,41 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -10884,36 +10938,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:C183" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="A1:C183">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:D183" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A1:D183">
     <filterColumn colId="2"/>
+    <filterColumn colId="3"/>
   </autoFilter>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Diretorio " dataDxfId="22"/>
-    <tableColumn id="2" name="Job associado?" dataDxfId="21"/>
-    <tableColumn id="3" name="Observação" dataDxfId="20"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Diretorio " dataDxfId="23"/>
+    <tableColumn id="2" name="Job associado?" dataDxfId="22"/>
+    <tableColumn id="4" name="Revisado?" dataDxfId="0"/>
+    <tableColumn id="3" name="Observação" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A6:G1404" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A6:G1404" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <tableColumns count="7">
-    <tableColumn id="1" name="Job" dataDxfId="17"/>
-    <tableColumn id="2" name="step_name" dataDxfId="16"/>
-    <tableColumn id="3" name="Comando" dataDxfId="15"/>
-    <tableColumn id="4" name="Revisado" dataDxfId="14"/>
-    <tableColumn id="6" name="Alterado" dataDxfId="13"/>
-    <tableColumn id="5" name="Observação" dataDxfId="12"/>
-    <tableColumn id="7" name="Alteração após 18/09" dataDxfId="11"/>
+    <tableColumn id="1" name="Job" dataDxfId="18"/>
+    <tableColumn id="2" name="step_name" dataDxfId="17"/>
+    <tableColumn id="3" name="Comando" dataDxfId="16"/>
+    <tableColumn id="4" name="Revisado" dataDxfId="15"/>
+    <tableColumn id="6" name="Alterado" dataDxfId="14"/>
+    <tableColumn id="5" name="Observação" dataDxfId="13"/>
+    <tableColumn id="7" name="Alteração após 18/09" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela14" displayName="Tabela14" ref="A6:C329" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela14" displayName="Tabela14" ref="A6:C329" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A6:C329">
     <filterColumn colId="1">
       <filters>
@@ -10927,25 +10983,25 @@
     <sortCondition ref="B7:B848"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Job" dataDxfId="8"/>
-    <tableColumn id="3" name="Diretorio" dataDxfId="7"/>
-    <tableColumn id="4" name="Revisado" dataDxfId="6"/>
+    <tableColumn id="1" name="Job" dataDxfId="9"/>
+    <tableColumn id="3" name="Diretorio" dataDxfId="8"/>
+    <tableColumn id="4" name="Revisado" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A6:D837" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A6:D837" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A6:D837"/>
   <sortState ref="A7:D837">
     <sortCondition ref="A7:A837"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="6" name="Solução" dataDxfId="3"/>
-    <tableColumn id="1" name="Job" dataDxfId="2"/>
-    <tableColumn id="2" name="step_name" dataDxfId="1"/>
-    <tableColumn id="7" name="Dtsx" dataDxfId="0"/>
+    <tableColumn id="6" name="Solução" dataDxfId="4"/>
+    <tableColumn id="1" name="Job" dataDxfId="3"/>
+    <tableColumn id="2" name="step_name" dataDxfId="2"/>
+    <tableColumn id="7" name="Dtsx" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11236,1670 +11292,1692 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C183"/>
+  <dimension ref="A1:D183"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="45" style="8" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="16" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="8"/>
+    <col min="2" max="2" width="18.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" ht="15">
+    <row r="1" spans="1:4" s="10" customFormat="1" ht="15">
       <c r="A1" s="9" t="s">
         <v>2623</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>2626</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="6" t="s">
+        <v>3432</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>3393</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
         <v>2444</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C2" s="11"/>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="7" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
         <v>2246</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C3" s="11"/>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="7" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
         <v>2445</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="7" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
         <v>2446</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C5" s="11"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="7" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
         <v>2447</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="7" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
         <v>2448</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>2625</v>
       </c>
-      <c r="C7" s="11"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
         <v>2449</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>2625</v>
       </c>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
         <v>2450</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C9" s="11"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="7" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
         <v>2451</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
         <v>2452</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C11" s="11"/>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
         <v>2453</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>2625</v>
       </c>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
         <v>2454</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C13" s="11"/>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
         <v>2455</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
         <v>2456</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="8" t="s">
         <v>2457</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
         <v>2458</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C17" s="11"/>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
         <v>2459</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C18" s="11"/>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
         <v>2460</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C19" s="11"/>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
         <v>2461</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C20" s="11"/>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
         <v>2462</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C21" s="11"/>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
         <v>2463</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C22" s="11"/>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
         <v>2464</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C23" s="11"/>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
         <v>2465</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C24" s="11"/>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
         <v>2466</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>2625</v>
       </c>
-      <c r="C25" s="11"/>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="8" t="s">
         <v>2467</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C26" s="11"/>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
         <v>2468</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C27" s="11"/>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="8" t="s">
         <v>2469</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C28" s="11"/>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
         <v>2470</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C29" s="11"/>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="8" t="s">
         <v>2471</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C30" s="11"/>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
         <v>2472</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>2625</v>
       </c>
-      <c r="C31" s="11"/>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="8" t="s">
         <v>2473</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>2625</v>
       </c>
-      <c r="C32" s="11"/>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="8" t="s">
         <v>2474</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>2625</v>
       </c>
-      <c r="C33" s="11"/>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="8" t="s">
         <v>2475</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>2625</v>
       </c>
-      <c r="C34" s="11"/>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="8" t="s">
         <v>2476</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C35" s="11"/>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="8" t="s">
         <v>2477</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C36" s="11"/>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="8" t="s">
         <v>2478</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>2625</v>
       </c>
-      <c r="C37" s="11"/>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="8" t="s">
         <v>2479</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>2625</v>
       </c>
-      <c r="C38" s="11"/>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="8" t="s">
         <v>2480</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C39" s="11"/>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="8" t="s">
         <v>2481</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C40" s="11"/>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="11"/>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="8" t="s">
         <v>2482</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>2625</v>
       </c>
-      <c r="C41" s="11"/>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="8" t="s">
         <v>2483</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C42" s="11"/>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="8" t="s">
         <v>2484</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C43" s="11"/>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" s="11"/>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="8" t="s">
         <v>2485</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C44" s="11"/>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" s="11"/>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="8" t="s">
         <v>2486</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C45" s="11"/>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" s="11"/>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="8" t="s">
         <v>2487</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C46" s="11"/>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" s="11"/>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="8" t="s">
         <v>2488</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>2625</v>
       </c>
-      <c r="C47" s="11"/>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" s="11"/>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="8" t="s">
         <v>2489</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C48" s="11"/>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" s="11"/>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="8" t="s">
         <v>2490</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C49" s="11"/>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" s="11"/>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="8" t="s">
         <v>2491</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C50" s="11"/>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" s="11"/>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="8" t="s">
         <v>2492</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C51" s="11"/>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" s="11"/>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="8" t="s">
         <v>2493</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C52" s="11"/>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" s="11"/>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="8" t="s">
         <v>2494</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C53" s="11"/>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" s="11"/>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="8" t="s">
         <v>2495</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C54" s="11"/>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" s="11"/>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="8" t="s">
         <v>2496</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C55" s="11"/>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" s="11"/>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="8" t="s">
         <v>2497</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C56" s="11"/>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" s="11"/>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="8" t="s">
         <v>2498</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C57" s="11"/>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" s="11"/>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="8" t="s">
         <v>2499</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C58" s="11"/>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" s="11"/>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="8" t="s">
         <v>2500</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C59" s="11"/>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" s="11"/>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="8" t="s">
         <v>2501</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C60" s="11"/>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" s="11"/>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="8" t="s">
         <v>2502</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>2625</v>
       </c>
-      <c r="C61" s="11"/>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" s="11"/>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="8" t="s">
         <v>2503</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>2625</v>
       </c>
-      <c r="C62" s="11"/>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" s="11"/>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="8" t="s">
         <v>2504</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>2625</v>
       </c>
-      <c r="C63" s="11"/>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" s="11"/>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="8" t="s">
         <v>2505</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C64" s="11"/>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" s="11"/>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="8" t="s">
         <v>2506</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C65" s="11"/>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" s="11"/>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="8" t="s">
         <v>2507</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C66" s="11"/>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" s="11"/>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="8" t="s">
         <v>2508</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C67" s="11"/>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" s="11"/>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="8" t="s">
         <v>2509</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C68" s="11"/>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68" s="11"/>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="8" t="s">
         <v>2510</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C69" s="11"/>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69" s="11"/>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="8" t="s">
         <v>2511</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C70" s="11"/>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70" s="11"/>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="8" t="s">
         <v>2512</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C71" s="11"/>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71" s="11"/>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="8" t="s">
         <v>2513</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>2625</v>
       </c>
-      <c r="C72" s="11"/>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72" s="11"/>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="8" t="s">
         <v>2514</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C73" s="11"/>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73" s="11"/>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="8" t="s">
         <v>2515</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C74" s="11"/>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74" s="11"/>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="8" t="s">
         <v>2516</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C75" s="11"/>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75" s="11"/>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="8" t="s">
         <v>2517</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C76" s="11"/>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76" s="11"/>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="8" t="s">
         <v>2518</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>2625</v>
       </c>
-      <c r="C77" s="11"/>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77" s="11"/>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="8" t="s">
         <v>2519</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C78" s="11"/>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78" s="11"/>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="8" t="s">
         <v>2520</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C79" s="11"/>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79" s="11"/>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="8" t="s">
         <v>2521</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C80" s="11"/>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80" s="11"/>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="8" t="s">
         <v>2522</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C81" s="11"/>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81" s="11"/>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="8" t="s">
         <v>2523</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C82" s="11"/>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82" s="11"/>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="8" t="s">
         <v>2524</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C83" s="11"/>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83" s="11"/>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="8" t="s">
         <v>2525</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>2625</v>
       </c>
-      <c r="C84" s="11"/>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84" s="11"/>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="8" t="s">
         <v>2526</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C85" s="11"/>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85" s="11"/>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="8" t="s">
         <v>2527</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C86" s="11"/>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86" s="11"/>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="8" t="s">
         <v>2528</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C87" s="11"/>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87" s="11"/>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="8" t="s">
         <v>2529</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C88" s="11"/>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88" s="11"/>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="8" t="s">
         <v>2530</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C89" s="11"/>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89" s="11"/>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="8" t="s">
         <v>2531</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>2625</v>
       </c>
-      <c r="C90" s="11"/>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90" s="11"/>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="8" t="s">
         <v>2532</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C91" s="11"/>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91" s="11"/>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="8" t="s">
         <v>2533</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>2625</v>
       </c>
-      <c r="C92" s="11"/>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92" s="11"/>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="8" t="s">
         <v>2534</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>2625</v>
       </c>
-      <c r="C93" s="11"/>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93" s="11"/>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="8" t="s">
         <v>2535</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C94" s="11"/>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94" s="11"/>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="8" t="s">
         <v>2536</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C95" s="11"/>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95" s="11"/>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="8" t="s">
         <v>2537</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C96" s="11"/>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96" s="11"/>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="8" t="s">
         <v>2538</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>2625</v>
       </c>
-      <c r="C97" s="11"/>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97" s="11"/>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="8" t="s">
         <v>2539</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C98" s="11"/>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98" s="11"/>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="8" t="s">
         <v>2540</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C99" s="11"/>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99" s="11"/>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="8" t="s">
         <v>2541</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C100" s="11"/>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100" s="11"/>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="8" t="s">
         <v>2542</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C101" s="11"/>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101" s="11"/>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="8" t="s">
         <v>2543</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C102" s="11"/>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102" s="11"/>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="8" t="s">
         <v>2544</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>2625</v>
       </c>
-      <c r="C103" s="11"/>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103" s="11"/>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="8" t="s">
         <v>2545</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>2625</v>
       </c>
-      <c r="C104" s="11"/>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104" s="11"/>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" s="8" t="s">
         <v>2546</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C105" s="11"/>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105" s="11"/>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" s="8" t="s">
         <v>2547</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C106" s="11"/>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106" s="11"/>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" s="8" t="s">
         <v>2548</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>2625</v>
       </c>
-      <c r="C107" s="11"/>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107" s="11"/>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" s="8" t="s">
         <v>2549</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C108" s="11"/>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108" s="11"/>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" s="8" t="s">
         <v>1356</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C109" s="11"/>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109" s="11"/>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" s="8" t="s">
         <v>2550</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C110" s="11" t="s">
+      <c r="D110" s="11" t="s">
         <v>3390</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:4">
       <c r="A111" s="8" t="s">
         <v>2551</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>2625</v>
       </c>
-      <c r="C111" s="11"/>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111" s="11"/>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" s="8" t="s">
         <v>2552</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C112" s="11"/>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="D112" s="11"/>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" s="8" t="s">
         <v>2553</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C113" s="11"/>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="D113" s="11"/>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" s="8" t="s">
         <v>2554</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C114" s="11"/>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114" s="11"/>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" s="8" t="s">
         <v>2555</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C115" s="11"/>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115" s="11"/>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="8" t="s">
         <v>2556</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C116" s="11"/>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="D116" s="11"/>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" s="8" t="s">
         <v>2557</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C117" s="11"/>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="D117" s="11"/>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" s="8" t="s">
         <v>2558</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C118" s="11"/>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="D118" s="11"/>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" s="8" t="s">
         <v>2559</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C119" s="11"/>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="D119" s="11"/>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" s="8" t="s">
         <v>2560</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>2625</v>
       </c>
-      <c r="C120" s="11"/>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="D120" s="11"/>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="8" t="s">
         <v>2561</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C121" s="11"/>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="D121" s="11"/>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="8" t="s">
         <v>2562</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C122" s="11"/>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="D122" s="11"/>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" s="8" t="s">
         <v>2563</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C123" s="11"/>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="D123" s="11"/>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" s="8" t="s">
         <v>2564</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C124" s="11"/>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="D124" s="11"/>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" s="8" t="s">
         <v>2565</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C125" s="11"/>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="D125" s="11"/>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" s="8" t="s">
         <v>2566</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C126" s="11"/>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="D126" s="11"/>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" s="8" t="s">
         <v>2567</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C127" s="11"/>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="D127" s="11"/>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" s="8" t="s">
         <v>2568</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C128" s="11"/>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="D128" s="11"/>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" s="8" t="s">
         <v>2569</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C129" s="11"/>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="D129" s="11"/>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" s="8" t="s">
         <v>2570</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C130" s="11"/>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="D130" s="11"/>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" s="8" t="s">
         <v>2571</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C131" s="11"/>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="D131" s="11"/>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" s="8" t="s">
         <v>2572</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C132" s="11"/>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="D132" s="11"/>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" s="8" t="s">
         <v>2573</v>
       </c>
       <c r="B133" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C133" s="11"/>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="D133" s="11"/>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" s="8" t="s">
         <v>2574</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C134" s="11"/>
-    </row>
-    <row r="135" spans="1:3">
+      <c r="D134" s="11"/>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" s="8" t="s">
         <v>2575</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C135" s="11"/>
-    </row>
-    <row r="136" spans="1:3">
+      <c r="D135" s="11"/>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" s="8" t="s">
         <v>2576</v>
       </c>
       <c r="B136" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C136" s="11"/>
-    </row>
-    <row r="137" spans="1:3">
+      <c r="D136" s="11"/>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" s="8" t="s">
         <v>2577</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C137" s="11"/>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="D137" s="11"/>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" s="8" t="s">
         <v>2578</v>
       </c>
       <c r="B138" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C138" s="11"/>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="D138" s="11"/>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" s="8" t="s">
         <v>2579</v>
       </c>
       <c r="B139" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C139" s="11"/>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="D139" s="11"/>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" s="8" t="s">
         <v>2580</v>
       </c>
       <c r="B140" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C140" s="11"/>
-    </row>
-    <row r="141" spans="1:3">
+      <c r="D140" s="11"/>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" s="8" t="s">
         <v>2581</v>
       </c>
       <c r="B141" s="7" t="s">
         <v>2625</v>
       </c>
-      <c r="C141" s="11"/>
-    </row>
-    <row r="142" spans="1:3">
+      <c r="D141" s="11"/>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" s="8" t="s">
         <v>2582</v>
       </c>
       <c r="B142" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C142" s="11"/>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="D142" s="11"/>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" s="8" t="s">
         <v>2583</v>
       </c>
       <c r="B143" s="7" t="s">
         <v>2625</v>
       </c>
-      <c r="C143" s="11"/>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="D143" s="11"/>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" s="8" t="s">
         <v>2584</v>
       </c>
       <c r="B144" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C144" s="11"/>
-    </row>
-    <row r="145" spans="1:3">
+      <c r="D144" s="11"/>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" s="8" t="s">
         <v>2585</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C145" s="11"/>
-    </row>
-    <row r="146" spans="1:3">
+      <c r="D145" s="11"/>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" s="8" t="s">
         <v>2586</v>
       </c>
       <c r="B146" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C146" s="11"/>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="D146" s="11"/>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" s="8" t="s">
         <v>2587</v>
       </c>
       <c r="B147" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C147" s="11"/>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="D147" s="11"/>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" s="8" t="s">
         <v>2588</v>
       </c>
       <c r="B148" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C148" s="11"/>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="D148" s="11"/>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" s="8" t="s">
         <v>2589</v>
       </c>
       <c r="B149" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C149" s="11"/>
-    </row>
-    <row r="150" spans="1:3">
+      <c r="D149" s="11"/>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" s="8" t="s">
         <v>2590</v>
       </c>
       <c r="B150" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C150" s="11"/>
-    </row>
-    <row r="151" spans="1:3">
+      <c r="D150" s="11"/>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" s="8" t="s">
         <v>2591</v>
       </c>
       <c r="B151" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C151" s="11"/>
-    </row>
-    <row r="152" spans="1:3">
+      <c r="D151" s="11"/>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" s="8" t="s">
         <v>2592</v>
       </c>
       <c r="B152" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C152" s="11"/>
-    </row>
-    <row r="153" spans="1:3">
+      <c r="D152" s="11"/>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" s="8" t="s">
         <v>2593</v>
       </c>
       <c r="B153" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C153" s="11"/>
-    </row>
-    <row r="154" spans="1:3">
+      <c r="D153" s="11"/>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" s="8" t="s">
         <v>2594</v>
       </c>
       <c r="B154" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C154" s="11"/>
-    </row>
-    <row r="155" spans="1:3">
+      <c r="D154" s="11"/>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" s="8" t="s">
         <v>2595</v>
       </c>
       <c r="B155" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C155" s="11"/>
-    </row>
-    <row r="156" spans="1:3">
+      <c r="D155" s="11"/>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" s="8" t="s">
         <v>2596</v>
       </c>
       <c r="B156" s="7" t="s">
         <v>2625</v>
       </c>
-      <c r="C156" s="11"/>
-    </row>
-    <row r="157" spans="1:3">
+      <c r="D156" s="11"/>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" s="8" t="s">
         <v>2597</v>
       </c>
       <c r="B157" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C157" s="11"/>
-    </row>
-    <row r="158" spans="1:3">
+      <c r="D157" s="11"/>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" s="8" t="s">
         <v>2598</v>
       </c>
       <c r="B158" s="7" t="s">
         <v>2625</v>
       </c>
-      <c r="C158" s="11"/>
-    </row>
-    <row r="159" spans="1:3">
+      <c r="D158" s="11"/>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159" s="8" t="s">
         <v>2599</v>
       </c>
       <c r="B159" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C159" s="11"/>
-    </row>
-    <row r="160" spans="1:3">
+      <c r="D159" s="11"/>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160" s="8" t="s">
         <v>2600</v>
       </c>
       <c r="B160" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C160" s="11"/>
-    </row>
-    <row r="161" spans="1:3">
+      <c r="D160" s="11"/>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" s="8" t="s">
         <v>2624</v>
       </c>
       <c r="B161" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C161" s="11"/>
-    </row>
-    <row r="162" spans="1:3">
+      <c r="D161" s="11"/>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" s="8" t="s">
         <v>2601</v>
       </c>
       <c r="B162" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C162" s="11"/>
-    </row>
-    <row r="163" spans="1:3">
+      <c r="D162" s="11"/>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" s="8" t="s">
         <v>2602</v>
       </c>
       <c r="B163" s="7" t="s">
         <v>2625</v>
       </c>
-      <c r="C163" s="11"/>
-    </row>
-    <row r="164" spans="1:3">
+      <c r="D163" s="11"/>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" s="8" t="s">
         <v>2603</v>
       </c>
       <c r="B164" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C164" s="11"/>
-    </row>
-    <row r="165" spans="1:3">
+      <c r="D164" s="11"/>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" s="8" t="s">
         <v>2604</v>
       </c>
       <c r="B165" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C165" s="11"/>
-    </row>
-    <row r="166" spans="1:3">
+      <c r="D165" s="11"/>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" s="8" t="s">
         <v>2605</v>
       </c>
       <c r="B166" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C166" s="11"/>
-    </row>
-    <row r="167" spans="1:3">
+      <c r="D166" s="11"/>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" s="8" t="s">
         <v>2606</v>
       </c>
       <c r="B167" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C167" s="11"/>
-    </row>
-    <row r="168" spans="1:3">
+      <c r="D167" s="11"/>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" s="8" t="s">
         <v>2607</v>
       </c>
       <c r="B168" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C168" s="11"/>
-    </row>
-    <row r="169" spans="1:3">
+      <c r="D168" s="11"/>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169" s="8" t="s">
         <v>2608</v>
       </c>
       <c r="B169" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C169" s="11"/>
-    </row>
-    <row r="170" spans="1:3">
+      <c r="D169" s="11"/>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170" s="8" t="s">
         <v>2609</v>
       </c>
       <c r="B170" s="7" t="s">
         <v>2625</v>
       </c>
-      <c r="C170" s="11"/>
-    </row>
-    <row r="171" spans="1:3">
+      <c r="D170" s="11"/>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171" s="8" t="s">
         <v>2610</v>
       </c>
       <c r="B171" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C171" s="11"/>
-    </row>
-    <row r="172" spans="1:3">
+      <c r="D171" s="11"/>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" s="8" t="s">
         <v>2611</v>
       </c>
       <c r="B172" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C172" s="11"/>
-    </row>
-    <row r="173" spans="1:3">
+      <c r="D172" s="11"/>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173" s="8" t="s">
         <v>2612</v>
       </c>
       <c r="B173" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C173" s="11"/>
-    </row>
-    <row r="174" spans="1:3">
+      <c r="D173" s="11"/>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" s="8" t="s">
         <v>2613</v>
       </c>
       <c r="B174" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C174" s="11"/>
-    </row>
-    <row r="175" spans="1:3">
+      <c r="D174" s="11"/>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" s="8" t="s">
         <v>2614</v>
       </c>
       <c r="B175" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C175" s="11"/>
-    </row>
-    <row r="176" spans="1:3">
+      <c r="D175" s="11"/>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176" s="8" t="s">
         <v>2615</v>
       </c>
       <c r="B176" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C176" s="11"/>
-    </row>
-    <row r="177" spans="1:3">
+      <c r="D176" s="11"/>
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177" s="8" t="s">
         <v>2616</v>
       </c>
       <c r="B177" s="7" t="s">
         <v>2625</v>
       </c>
-      <c r="C177" s="11"/>
-    </row>
-    <row r="178" spans="1:3">
+      <c r="D177" s="11"/>
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178" s="8" t="s">
         <v>2617</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C178" s="11"/>
-    </row>
-    <row r="179" spans="1:3">
+      <c r="D178" s="11"/>
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179" s="8" t="s">
         <v>2618</v>
       </c>
       <c r="B179" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C179" s="11"/>
-    </row>
-    <row r="180" spans="1:3">
+      <c r="D179" s="11"/>
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180" s="8" t="s">
         <v>2619</v>
       </c>
       <c r="B180" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C180" s="11"/>
-    </row>
-    <row r="181" spans="1:3">
+      <c r="D180" s="11"/>
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181" s="8" t="s">
         <v>2620</v>
       </c>
       <c r="B181" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C181" s="11"/>
-    </row>
-    <row r="182" spans="1:3">
+      <c r="D181" s="11"/>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182" s="8" t="s">
         <v>2621</v>
       </c>
       <c r="B182" s="7" t="s">
         <v>2247</v>
       </c>
-      <c r="C182" s="11"/>
-    </row>
-    <row r="183" spans="1:3">
+      <c r="D182" s="11"/>
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183" s="8" t="s">
         <v>2622</v>
       </c>
       <c r="B183" s="7" t="s">
         <v>2625</v>
       </c>
-      <c r="C183" s="11"/>
+      <c r="D183" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -12915,8 +12993,8 @@
   <dimension ref="A1:G1404"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A1129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1126" sqref="C1126"/>
+      <pane ySplit="6" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="11.25"/>
@@ -13293,6 +13371,9 @@
       <c r="E26" s="1" t="s">
         <v>2247</v>
       </c>
+      <c r="F26" s="1" t="s">
+        <v>3434</v>
+      </c>
       <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7">
@@ -13311,6 +13392,9 @@
       <c r="E27" s="1" t="s">
         <v>2247</v>
       </c>
+      <c r="F27" s="1" t="s">
+        <v>3434</v>
+      </c>
       <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7">
@@ -13670,6 +13754,9 @@
       <c r="E49" s="1" t="s">
         <v>2247</v>
       </c>
+      <c r="F49" s="1" t="s">
+        <v>3428</v>
+      </c>
       <c r="G49" s="20"/>
     </row>
     <row r="50" spans="1:7">
@@ -13802,6 +13889,9 @@
       <c r="E57" s="1" t="s">
         <v>2247</v>
       </c>
+      <c r="F57" s="1" t="s">
+        <v>3429</v>
+      </c>
       <c r="G57" s="20"/>
     </row>
     <row r="58" spans="1:7">
@@ -13946,6 +14036,9 @@
       <c r="D66" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E66" s="1" t="s">
+        <v>2247</v>
+      </c>
       <c r="G66" s="20"/>
     </row>
     <row r="67" spans="1:7">
@@ -14471,7 +14564,9 @@
       <c r="D95" s="18" t="s">
         <v>2247</v>
       </c>
-      <c r="E95" s="19"/>
+      <c r="E95" s="19" t="s">
+        <v>2247</v>
+      </c>
       <c r="F95" s="17" t="s">
         <v>3418</v>
       </c>
@@ -14528,24 +14623,24 @@
       </c>
       <c r="G98" s="20"/>
     </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="2" t="s">
+    <row r="99" spans="1:7" ht="22.5">
+      <c r="A99" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="18" t="s">
         <v>596</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="18" t="s">
         <v>1502</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>2247</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>2247</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>3412</v>
+      <c r="D99" s="18" t="s">
+        <v>2247</v>
+      </c>
+      <c r="E99" s="19" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F99" s="17" t="s">
+        <v>3427</v>
       </c>
       <c r="G99" s="20"/>
     </row>
@@ -14564,20 +14659,23 @@
       </c>
       <c r="G100" s="20"/>
     </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="2" t="s">
+    <row r="101" spans="1:7" s="22" customFormat="1" ht="22.5">
+      <c r="A101" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="24" t="s">
         <v>627</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="24" t="s">
         <v>2195</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>2247</v>
-      </c>
-      <c r="G101" s="20"/>
+      <c r="D101" s="24" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F101" s="22" t="s">
+        <v>3430</v>
+      </c>
+      <c r="G101" s="25"/>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2" t="s">
@@ -15110,6 +15208,9 @@
       <c r="D132" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E132" s="1" t="s">
+        <v>2247</v>
+      </c>
       <c r="G132" s="20"/>
     </row>
     <row r="133" spans="1:7">
@@ -15140,6 +15241,12 @@
       <c r="D134" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E134" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>3431</v>
+      </c>
       <c r="G134" s="20"/>
     </row>
     <row r="135" spans="1:7">
@@ -15170,6 +15277,12 @@
       <c r="D136" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E136" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>3433</v>
+      </c>
       <c r="G136" s="20"/>
     </row>
     <row r="137" spans="1:7">
@@ -15200,6 +15313,9 @@
       <c r="D138" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E138" s="1" t="s">
+        <v>2247</v>
+      </c>
       <c r="G138" s="20"/>
     </row>
     <row r="139" spans="1:7">
@@ -15215,6 +15331,9 @@
       <c r="D139" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E139" s="1" t="s">
+        <v>2247</v>
+      </c>
       <c r="G139" s="20"/>
     </row>
     <row r="140" spans="1:7">
@@ -15230,6 +15349,12 @@
       <c r="D140" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E140" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>3434</v>
+      </c>
       <c r="G140" s="20"/>
     </row>
     <row r="141" spans="1:7">
@@ -15245,6 +15370,12 @@
       <c r="D141" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E141" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>3434</v>
+      </c>
       <c r="G141" s="20"/>
     </row>
     <row r="142" spans="1:7">
@@ -15275,6 +15406,9 @@
       <c r="D143" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E143" s="1" t="s">
+        <v>2247</v>
+      </c>
       <c r="G143" s="20"/>
     </row>
     <row r="144" spans="1:7">
@@ -15290,6 +15424,9 @@
       <c r="D144" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E144" s="1" t="s">
+        <v>2247</v>
+      </c>
       <c r="G144" s="20"/>
     </row>
     <row r="145" spans="1:7">
@@ -15305,6 +15442,9 @@
       <c r="D145" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E145" s="1" t="s">
+        <v>2247</v>
+      </c>
       <c r="G145" s="20"/>
     </row>
     <row r="146" spans="1:7">
@@ -15320,6 +15460,12 @@
       <c r="D146" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E146" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>3434</v>
+      </c>
       <c r="G146" s="20"/>
     </row>
     <row r="147" spans="1:7">
@@ -15470,6 +15616,9 @@
       <c r="D156" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E156" s="1" t="s">
+        <v>2247</v>
+      </c>
       <c r="G156" s="20"/>
     </row>
     <row r="157" spans="1:7">
@@ -15500,20 +15649,29 @@
       <c r="D158" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E158" s="1" t="s">
+        <v>2247</v>
+      </c>
       <c r="G158" s="20"/>
     </row>
-    <row r="159" spans="1:7">
-      <c r="A159" s="2" t="s">
+    <row r="159" spans="1:7" ht="33.75">
+      <c r="A159" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="27" t="s">
         <v>660</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="27" t="s">
         <v>1536</v>
       </c>
-      <c r="D159" s="2" t="s">
-        <v>2247</v>
+      <c r="D159" s="27" t="s">
+        <v>2247</v>
+      </c>
+      <c r="E159" s="26" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F159" s="17" t="s">
+        <v>3435</v>
       </c>
       <c r="G159" s="20"/>
     </row>
@@ -15530,6 +15688,7 @@
       <c r="D160" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="F160" s="17"/>
       <c r="G160" s="20"/>
     </row>
     <row r="161" spans="1:7">
@@ -16628,6 +16787,9 @@
       <c r="D232" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E232" s="1" t="s">
+        <v>2247</v>
+      </c>
       <c r="G232" s="20"/>
     </row>
     <row r="233" spans="1:7">
@@ -16838,6 +17000,9 @@
       <c r="D246" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E246" s="1" t="s">
+        <v>2247</v>
+      </c>
       <c r="G246" s="20"/>
     </row>
     <row r="247" spans="1:7">
@@ -17243,6 +17408,9 @@
       <c r="D273" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E273" s="1" t="s">
+        <v>2247</v>
+      </c>
       <c r="G273" s="20"/>
     </row>
     <row r="274" spans="1:7">
@@ -18573,6 +18741,9 @@
       <c r="E359" s="1" t="s">
         <v>2247</v>
       </c>
+      <c r="F359" s="1" t="s">
+        <v>3434</v>
+      </c>
       <c r="G359" s="20"/>
     </row>
     <row r="360" spans="1:7">
@@ -30370,16 +30541,16 @@
       <c r="G1136" s="20"/>
     </row>
     <row r="1137" spans="1:7" ht="22.5">
-      <c r="A1137" s="24" t="s">
+      <c r="A1137" s="18" t="s">
         <v>418</v>
       </c>
-      <c r="B1137" s="24" t="s">
+      <c r="B1137" s="18" t="s">
         <v>1291</v>
       </c>
-      <c r="C1137" s="24" t="s">
+      <c r="C1137" s="18" t="s">
         <v>2231</v>
       </c>
-      <c r="D1137" s="24" t="s">
+      <c r="D1137" s="18" t="s">
         <v>2247</v>
       </c>
       <c r="E1137" s="19" t="s">
@@ -31123,6 +31294,9 @@
       <c r="D1186" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E1186" s="1" t="s">
+        <v>2247</v>
+      </c>
       <c r="G1186" s="20"/>
     </row>
     <row r="1187" spans="1:7">
@@ -31858,6 +32032,9 @@
       <c r="D1235" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E1235" s="1" t="s">
+        <v>2247</v>
+      </c>
       <c r="G1235" s="20"/>
     </row>
     <row r="1236" spans="1:7">
@@ -31873,6 +32050,9 @@
       <c r="D1236" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E1236" s="1" t="s">
+        <v>2247</v>
+      </c>
       <c r="G1236" s="20"/>
     </row>
     <row r="1237" spans="1:7">
@@ -31888,6 +32068,9 @@
       <c r="D1237" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E1237" s="1" t="s">
+        <v>2247</v>
+      </c>
       <c r="G1237" s="20"/>
     </row>
     <row r="1238" spans="1:7">
@@ -31918,6 +32101,9 @@
       <c r="D1239" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E1239" s="1" t="s">
+        <v>2247</v>
+      </c>
       <c r="G1239" s="20"/>
     </row>
     <row r="1240" spans="1:7">
@@ -31931,6 +32117,9 @@
         <v>2138</v>
       </c>
       <c r="D1240" s="2" t="s">
+        <v>2247</v>
+      </c>
+      <c r="E1240" s="1" t="s">
         <v>2247</v>
       </c>
       <c r="G1240" s="20"/>

--- a/Documentação/Migração Servidores/Cosmos003/Mapeamento ETL.xlsx
+++ b/Documentação/Migração Servidores/Cosmos003/Mapeamento ETL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10513" uniqueCount="3436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10586" uniqueCount="3450">
   <si>
     <t>Job</t>
   </si>
@@ -10327,6 +10327,48 @@
   </si>
   <si>
     <t>Em Package Configuration existe a leitura "Config FTP", porém não encontrei onde a mesma é utilizada. Em connection manager existe "File to Send" que também não encontrei onde é utilizado.</t>
+  </si>
+  <si>
+    <t>a variável ArquivoInicio está configurada para ler os dados de "W:\Source\MIS_NovaPontoCom\Integration\Carga_PedidoRetido\bin".  A connection manager "Arquivo_pedidosRetidos" também está configurada para o mesmo local</t>
+  </si>
+  <si>
+    <t>Em "Package Configuration" existe uma leitura para "FTP", porém não encontrei onde a mesma está sendo utilizada.</t>
+  </si>
+  <si>
+    <t>Existem procedimentos para envio de email</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Em Connection Manager existe a configuração de "Arquivo_Atacado" que não achei onde é utilizado. Existe procedimento para envio de email que está comentado</t>
+  </si>
+  <si>
+    <t>O banco MIS_LN não existe neste servidor.  Em Connection Manager existe a configuração de "Arquivo_Atacado" que não achei onde é utilizado. Existe procedimento para envio de email que está comentado</t>
+  </si>
+  <si>
+    <t>Existe um "Script Task" que envia e-mail</t>
+  </si>
+  <si>
+    <t>Este dtsx tem o tratamento de Auditoria Inicio, Cancelamento e Fim</t>
+  </si>
+  <si>
+    <t>Tem uma configuração FTP que precisa ser revista</t>
+  </si>
+  <si>
+    <t>Precisa ser revisto SMTP e também registrar o provider Microsoft.ACE.OLEDB.12.0</t>
+  </si>
+  <si>
+    <t>Precisamos configurar o "SharePoint List Source" e rever se todas as variáveis definidas estão realmente sendo utilizadas</t>
+  </si>
+  <si>
+    <t>precisamos rever se todas as variáveis definidas estão sendo utilizadas</t>
+  </si>
+  <si>
+    <t>O servidor não tem o banco "base_historica_source"</t>
+  </si>
+  <si>
+    <t>O local da saída do arquivo do erro foi alterado de cosmos003 para DW01. Verificar se todas as variáveis definidas estão sendo utilizadas</t>
+  </si>
+  <si>
+    <t>Verificar se a connection manager "FTP Connection Manager" está correta</t>
   </si>
 </sst>
 </file>
@@ -10468,7 +10510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -10523,29 +10565,15 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="26">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -10869,6 +10897,24 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -10946,30 +10992,31 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Diretorio " dataDxfId="23"/>
     <tableColumn id="2" name="Job associado?" dataDxfId="22"/>
-    <tableColumn id="4" name="Revisado?" dataDxfId="0"/>
-    <tableColumn id="3" name="Observação" dataDxfId="21"/>
+    <tableColumn id="4" name="Revisado?" dataDxfId="21"/>
+    <tableColumn id="3" name="Observação" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A6:G1404" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A6:G1404" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A6:G1404"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Job" dataDxfId="18"/>
-    <tableColumn id="2" name="step_name" dataDxfId="17"/>
-    <tableColumn id="3" name="Comando" dataDxfId="16"/>
-    <tableColumn id="4" name="Revisado" dataDxfId="15"/>
-    <tableColumn id="6" name="Alterado" dataDxfId="14"/>
-    <tableColumn id="5" name="Observação" dataDxfId="13"/>
-    <tableColumn id="7" name="Alteração após 18/09" dataDxfId="12"/>
+    <tableColumn id="1" name="Job" dataDxfId="17"/>
+    <tableColumn id="2" name="step_name" dataDxfId="16"/>
+    <tableColumn id="3" name="Comando" dataDxfId="15"/>
+    <tableColumn id="4" name="Revisado" dataDxfId="14"/>
+    <tableColumn id="6" name="Alterado" dataDxfId="13"/>
+    <tableColumn id="5" name="Observação" dataDxfId="12"/>
+    <tableColumn id="7" name="Alteração após 18/09" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela14" displayName="Tabela14" ref="A6:C329" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela14" displayName="Tabela14" ref="A6:C329" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A6:C329">
     <filterColumn colId="1">
       <filters>
@@ -10983,25 +11030,25 @@
     <sortCondition ref="B7:B848"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Job" dataDxfId="9"/>
-    <tableColumn id="3" name="Diretorio" dataDxfId="8"/>
-    <tableColumn id="4" name="Revisado" dataDxfId="7"/>
+    <tableColumn id="1" name="Job" dataDxfId="8"/>
+    <tableColumn id="3" name="Diretorio" dataDxfId="7"/>
+    <tableColumn id="4" name="Revisado" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A6:D837" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A6:D837" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A6:D837"/>
   <sortState ref="A7:D837">
     <sortCondition ref="A7:A837"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="6" name="Solução" dataDxfId="4"/>
-    <tableColumn id="1" name="Job" dataDxfId="3"/>
-    <tableColumn id="2" name="step_name" dataDxfId="2"/>
-    <tableColumn id="7" name="Dtsx" dataDxfId="1"/>
+    <tableColumn id="6" name="Solução" dataDxfId="3"/>
+    <tableColumn id="1" name="Job" dataDxfId="2"/>
+    <tableColumn id="2" name="step_name" dataDxfId="1"/>
+    <tableColumn id="7" name="Dtsx" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11292,10 +11339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D183"/>
+  <dimension ref="A1:H183"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -11418,6 +11465,9 @@
       <c r="B10" s="7" t="s">
         <v>2247</v>
       </c>
+      <c r="C10" s="7" t="s">
+        <v>2247</v>
+      </c>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4">
@@ -11427,6 +11477,9 @@
       <c r="B11" s="7" t="s">
         <v>2247</v>
       </c>
+      <c r="C11" s="7" t="s">
+        <v>2247</v>
+      </c>
       <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4">
@@ -11445,6 +11498,9 @@
       <c r="B13" s="7" t="s">
         <v>2247</v>
       </c>
+      <c r="C13" s="7" t="s">
+        <v>2247</v>
+      </c>
       <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4">
@@ -11454,6 +11510,9 @@
       <c r="B14" s="7" t="s">
         <v>2247</v>
       </c>
+      <c r="C14" s="7" t="s">
+        <v>2247</v>
+      </c>
       <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4">
@@ -11463,6 +11522,9 @@
       <c r="B15" s="7" t="s">
         <v>2247</v>
       </c>
+      <c r="C15" s="7" t="s">
+        <v>2247</v>
+      </c>
       <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4">
@@ -11472,6 +11534,9 @@
       <c r="B16" s="7" t="s">
         <v>2247</v>
       </c>
+      <c r="C16" s="7" t="s">
+        <v>2247</v>
+      </c>
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4">
@@ -11481,31 +11546,43 @@
       <c r="B17" s="7" t="s">
         <v>2247</v>
       </c>
+      <c r="C17" s="7" t="s">
+        <v>2247</v>
+      </c>
       <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
-        <v>2459</v>
+        <v>2461</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>2247</v>
       </c>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>2247</v>
       </c>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>2247</v>
       </c>
       <c r="D20" s="11"/>
@@ -11517,6 +11594,9 @@
       <c r="B21" s="7" t="s">
         <v>2247</v>
       </c>
+      <c r="C21" s="7" t="s">
+        <v>2247</v>
+      </c>
       <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4">
@@ -11526,6 +11606,9 @@
       <c r="B22" s="7" t="s">
         <v>2247</v>
       </c>
+      <c r="C22" s="7" t="s">
+        <v>2247</v>
+      </c>
       <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4">
@@ -11535,6 +11618,9 @@
       <c r="B23" s="7" t="s">
         <v>2247</v>
       </c>
+      <c r="C23" s="7" t="s">
+        <v>2247</v>
+      </c>
       <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:4">
@@ -11544,6 +11630,9 @@
       <c r="B24" s="7" t="s">
         <v>2247</v>
       </c>
+      <c r="C24" s="7" t="s">
+        <v>2247</v>
+      </c>
       <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:4">
@@ -11562,6 +11651,9 @@
       <c r="B26" s="7" t="s">
         <v>2247</v>
       </c>
+      <c r="C26" s="7" t="s">
+        <v>2247</v>
+      </c>
       <c r="D26" s="11"/>
     </row>
     <row r="27" spans="1:4">
@@ -11571,6 +11663,9 @@
       <c r="B27" s="7" t="s">
         <v>2247</v>
       </c>
+      <c r="C27" s="7" t="s">
+        <v>2247</v>
+      </c>
       <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4">
@@ -11580,6 +11675,9 @@
       <c r="B28" s="7" t="s">
         <v>2247</v>
       </c>
+      <c r="C28" s="7" t="s">
+        <v>2247</v>
+      </c>
       <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4">
@@ -11589,6 +11687,9 @@
       <c r="B29" s="7" t="s">
         <v>2247</v>
       </c>
+      <c r="C29" s="7" t="s">
+        <v>2247</v>
+      </c>
       <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:4">
@@ -12772,7 +12873,7 @@
       </c>
       <c r="D160" s="11"/>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:8">
       <c r="A161" s="8" t="s">
         <v>2624</v>
       </c>
@@ -12781,7 +12882,7 @@
       </c>
       <c r="D161" s="11"/>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:8">
       <c r="A162" s="8" t="s">
         <v>2601</v>
       </c>
@@ -12790,7 +12891,7 @@
       </c>
       <c r="D162" s="11"/>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:8">
       <c r="A163" s="8" t="s">
         <v>2602</v>
       </c>
@@ -12799,7 +12900,7 @@
       </c>
       <c r="D163" s="11"/>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:8">
       <c r="A164" s="8" t="s">
         <v>2603</v>
       </c>
@@ -12808,7 +12909,7 @@
       </c>
       <c r="D164" s="11"/>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:8">
       <c r="A165" s="8" t="s">
         <v>2604</v>
       </c>
@@ -12817,7 +12918,7 @@
       </c>
       <c r="D165" s="11"/>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:8">
       <c r="A166" s="8" t="s">
         <v>2605</v>
       </c>
@@ -12826,7 +12927,7 @@
       </c>
       <c r="D166" s="11"/>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:8">
       <c r="A167" s="8" t="s">
         <v>2606</v>
       </c>
@@ -12835,7 +12936,7 @@
       </c>
       <c r="D167" s="11"/>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:8">
       <c r="A168" s="8" t="s">
         <v>2607</v>
       </c>
@@ -12844,7 +12945,7 @@
       </c>
       <c r="D168" s="11"/>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:8">
       <c r="A169" s="8" t="s">
         <v>2608</v>
       </c>
@@ -12853,7 +12954,7 @@
       </c>
       <c r="D169" s="11"/>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:8">
       <c r="A170" s="8" t="s">
         <v>2609</v>
       </c>
@@ -12862,7 +12963,7 @@
       </c>
       <c r="D170" s="11"/>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:8">
       <c r="A171" s="8" t="s">
         <v>2610</v>
       </c>
@@ -12871,7 +12972,7 @@
       </c>
       <c r="D171" s="11"/>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:8">
       <c r="A172" s="8" t="s">
         <v>2611</v>
       </c>
@@ -12880,7 +12981,7 @@
       </c>
       <c r="D172" s="11"/>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:8">
       <c r="A173" s="8" t="s">
         <v>2612</v>
       </c>
@@ -12889,7 +12990,7 @@
       </c>
       <c r="D173" s="11"/>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:8">
       <c r="A174" s="8" t="s">
         <v>2613</v>
       </c>
@@ -12898,7 +12999,7 @@
       </c>
       <c r="D174" s="11"/>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:8">
       <c r="A175" s="8" t="s">
         <v>2614</v>
       </c>
@@ -12906,8 +13007,12 @@
         <v>2247</v>
       </c>
       <c r="D175" s="11"/>
-    </row>
-    <row r="176" spans="1:4">
+      <c r="H175" s="8">
+        <f>183-28</f>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" s="8" t="s">
         <v>2615</v>
       </c>
@@ -12992,9 +13097,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1404"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C155" sqref="C155"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C167" sqref="C167:D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="11.25"/>
@@ -13485,6 +13590,12 @@
       <c r="D33" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E33" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>3444</v>
+      </c>
       <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7">
@@ -15499,18 +15610,22 @@
       <c r="G148" s="20"/>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="2" t="s">
+      <c r="A149" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="18" t="s">
         <v>654</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="18" t="s">
         <v>1529</v>
       </c>
-      <c r="D149" s="2" t="s">
-        <v>2247</v>
-      </c>
+      <c r="D149" s="18" t="s">
+        <v>2247</v>
+      </c>
+      <c r="E149" s="19" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F149" s="17"/>
       <c r="G149" s="20"/>
     </row>
     <row r="150" spans="1:7">
@@ -15528,18 +15643,24 @@
       </c>
       <c r="G150" s="20"/>
     </row>
-    <row r="151" spans="1:7">
-      <c r="A151" s="2" t="s">
+    <row r="151" spans="1:7" ht="22.5">
+      <c r="A151" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="18" t="s">
         <v>655</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="18" t="s">
         <v>1530</v>
       </c>
-      <c r="D151" s="2" t="s">
-        <v>2247</v>
+      <c r="D151" s="18" t="s">
+        <v>2247</v>
+      </c>
+      <c r="E151" s="19" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F151" s="17" t="s">
+        <v>3439</v>
       </c>
       <c r="G151" s="20"/>
     </row>
@@ -15556,6 +15677,12 @@
       <c r="D152" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E152" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>3438</v>
+      </c>
       <c r="G152" s="20"/>
     </row>
     <row r="153" spans="1:7">
@@ -15571,20 +15698,28 @@
       <c r="D153" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E153" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F153" s="17"/>
       <c r="G153" s="20"/>
     </row>
-    <row r="154" spans="1:7">
-      <c r="A154" s="2" t="s">
+    <row r="154" spans="1:7" ht="33.75">
+      <c r="A154" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="18" t="s">
         <v>658</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="18" t="s">
         <v>1533</v>
       </c>
-      <c r="D154" s="2" t="s">
-        <v>2247</v>
+      <c r="D154" s="18" t="s">
+        <v>2247</v>
+      </c>
+      <c r="E154" s="19"/>
+      <c r="F154" s="17" t="s">
+        <v>3440</v>
       </c>
       <c r="G154" s="20"/>
     </row>
@@ -15655,16 +15790,16 @@
       <c r="G158" s="20"/>
     </row>
     <row r="159" spans="1:7" ht="33.75">
-      <c r="A159" s="27" t="s">
+      <c r="A159" s="28" t="s">
         <v>84</v>
       </c>
       <c r="B159" s="27" t="s">
         <v>660</v>
       </c>
-      <c r="C159" s="27" t="s">
+      <c r="C159" s="28" t="s">
         <v>1536</v>
       </c>
-      <c r="D159" s="27" t="s">
+      <c r="D159" s="28" t="s">
         <v>2247</v>
       </c>
       <c r="E159" s="26" t="s">
@@ -15704,6 +15839,9 @@
       <c r="D161" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E161" s="1" t="s">
+        <v>2247</v>
+      </c>
       <c r="G161" s="20"/>
     </row>
     <row r="162" spans="1:7">
@@ -15719,6 +15857,12 @@
       <c r="D162" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E162" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>3443</v>
+      </c>
       <c r="G162" s="20"/>
     </row>
     <row r="163" spans="1:7">
@@ -15749,6 +15893,9 @@
       <c r="D164" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E164" s="1" t="s">
+        <v>2247</v>
+      </c>
       <c r="G164" s="20"/>
     </row>
     <row r="165" spans="1:7">
@@ -15779,6 +15926,12 @@
       <c r="D166" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E166" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>3449</v>
+      </c>
       <c r="G166" s="20"/>
     </row>
     <row r="167" spans="1:7">
@@ -15788,10 +15941,10 @@
       <c r="B167" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="29" t="s">
         <v>1540</v>
       </c>
-      <c r="D167" s="2" t="s">
+      <c r="D167" s="29" t="s">
         <v>2247</v>
       </c>
       <c r="G167" s="20"/>
@@ -15884,6 +16037,9 @@
       <c r="D173" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E173" s="1" t="s">
+        <v>2247</v>
+      </c>
       <c r="G173" s="20"/>
     </row>
     <row r="174" spans="1:7">
@@ -15899,6 +16055,9 @@
       <c r="D174" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E174" s="1" t="s">
+        <v>2247</v>
+      </c>
       <c r="G174" s="20"/>
     </row>
     <row r="175" spans="1:7">
@@ -15946,18 +16105,24 @@
       </c>
       <c r="G177" s="20"/>
     </row>
-    <row r="178" spans="1:7">
-      <c r="A178" s="2" t="s">
+    <row r="178" spans="1:7" ht="45">
+      <c r="A178" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C178" s="18" t="s">
         <v>1546</v>
       </c>
-      <c r="D178" s="2" t="s">
-        <v>2247</v>
+      <c r="D178" s="18" t="s">
+        <v>2247</v>
+      </c>
+      <c r="E178" s="19" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F178" s="22" t="s">
+        <v>3436</v>
       </c>
       <c r="G178" s="20"/>
     </row>
@@ -16259,6 +16424,12 @@
       <c r="D198" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E198" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>3433</v>
+      </c>
       <c r="G198" s="20"/>
     </row>
     <row r="199" spans="1:7">
@@ -16274,6 +16445,9 @@
       <c r="D199" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E199" s="1" t="s">
+        <v>2247</v>
+      </c>
       <c r="G199" s="20"/>
     </row>
     <row r="200" spans="1:7">
@@ -16364,6 +16538,9 @@
       <c r="D205" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E205" s="1" t="s">
+        <v>2247</v>
+      </c>
       <c r="G205" s="20"/>
     </row>
     <row r="206" spans="1:7">
@@ -16742,20 +16919,29 @@
       <c r="D229" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E229" s="1" t="s">
+        <v>2247</v>
+      </c>
       <c r="G229" s="20"/>
     </row>
-    <row r="230" spans="1:7">
-      <c r="A230" s="2" t="s">
+    <row r="230" spans="1:7" ht="22.5">
+      <c r="A230" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="B230" s="18" t="s">
         <v>663</v>
       </c>
-      <c r="C230" s="2" t="s">
+      <c r="C230" s="18" t="s">
         <v>1573</v>
       </c>
-      <c r="D230" s="2" t="s">
-        <v>2247</v>
+      <c r="D230" s="18" t="s">
+        <v>2247</v>
+      </c>
+      <c r="E230" s="19" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F230" s="17" t="s">
+        <v>3437</v>
       </c>
       <c r="G230" s="20"/>
     </row>
@@ -16820,6 +17006,12 @@
       <c r="D234" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E234" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>3442</v>
+      </c>
       <c r="G234" s="20"/>
     </row>
     <row r="235" spans="1:7">
@@ -16850,6 +17042,9 @@
       <c r="D236" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E236" s="1" t="s">
+        <v>2247</v>
+      </c>
       <c r="G236" s="20"/>
     </row>
     <row r="237" spans="1:7">
@@ -16865,6 +17060,9 @@
       <c r="D237" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E237" s="1" t="s">
+        <v>2247</v>
+      </c>
       <c r="G237" s="20"/>
     </row>
     <row r="238" spans="1:7">
@@ -16880,6 +17078,9 @@
       <c r="D238" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E238" s="1" t="s">
+        <v>2247</v>
+      </c>
       <c r="G238" s="20"/>
     </row>
     <row r="239" spans="1:7">
@@ -16895,6 +17096,12 @@
       <c r="D239" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E239" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>3434</v>
+      </c>
       <c r="G239" s="20"/>
     </row>
     <row r="240" spans="1:7">
@@ -16910,6 +17117,12 @@
       <c r="D240" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E240" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>3434</v>
+      </c>
       <c r="G240" s="20"/>
     </row>
     <row r="241" spans="1:7">
@@ -17048,6 +17261,12 @@
       <c r="D249" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E249" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>3446</v>
+      </c>
       <c r="G249" s="20"/>
     </row>
     <row r="250" spans="1:7">
@@ -17063,6 +17282,12 @@
       <c r="D250" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E250" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>3447</v>
+      </c>
       <c r="G250" s="20"/>
     </row>
     <row r="251" spans="1:7">
@@ -17125,18 +17350,24 @@
       </c>
       <c r="G254" s="20"/>
     </row>
-    <row r="255" spans="1:7">
-      <c r="A255" s="2" t="s">
+    <row r="255" spans="1:7" ht="22.5">
+      <c r="A255" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="B255" s="24" t="s">
         <v>716</v>
       </c>
-      <c r="C255" s="2" t="s">
+      <c r="C255" s="24" t="s">
         <v>1588</v>
       </c>
-      <c r="D255" s="2" t="s">
-        <v>2247</v>
+      <c r="D255" s="24" t="s">
+        <v>2247</v>
+      </c>
+      <c r="E255" s="19" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F255" s="17" t="s">
+        <v>3448</v>
       </c>
       <c r="G255" s="20"/>
     </row>
@@ -17168,6 +17399,9 @@
       <c r="D257" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E257" s="1" t="s">
+        <v>2247</v>
+      </c>
       <c r="G257" s="20"/>
     </row>
     <row r="258" spans="1:7">
@@ -23606,6 +23840,9 @@
       <c r="D675" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E675" s="1" t="s">
+        <v>2247</v>
+      </c>
       <c r="G675" s="20"/>
     </row>
     <row r="676" spans="1:7">
@@ -23621,6 +23858,12 @@
       <c r="D676" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E676" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F676" s="1" t="s">
+        <v>3441</v>
+      </c>
       <c r="G676" s="20"/>
     </row>
     <row r="677" spans="1:7">
@@ -23636,6 +23879,9 @@
       <c r="D677" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E677" s="1" t="s">
+        <v>2247</v>
+      </c>
       <c r="G677" s="20"/>
     </row>
     <row r="678" spans="1:7">
@@ -23996,6 +24242,10 @@
       <c r="D701" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E701" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F701" s="20"/>
       <c r="G701" s="20"/>
     </row>
     <row r="702" spans="1:7">
@@ -24011,6 +24261,12 @@
       <c r="D702" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E702" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F702" s="1" t="s">
+        <v>3441</v>
+      </c>
       <c r="G702" s="20"/>
     </row>
     <row r="703" spans="1:7">
@@ -24026,6 +24282,9 @@
       <c r="D703" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E703" s="1" t="s">
+        <v>2247</v>
+      </c>
       <c r="G703" s="20"/>
     </row>
     <row r="704" spans="1:7">
@@ -24041,6 +24300,9 @@
       <c r="D704" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E704" s="1" t="s">
+        <v>2247</v>
+      </c>
       <c r="G704" s="20"/>
     </row>
     <row r="705" spans="1:7">
@@ -30418,6 +30680,9 @@
       <c r="D1128" s="2" t="s">
         <v>2247</v>
       </c>
+      <c r="E1128" s="1" t="s">
+        <v>2247</v>
+      </c>
       <c r="G1128" s="20"/>
     </row>
     <row r="1129" spans="1:7">
@@ -31236,18 +31501,24 @@
       </c>
       <c r="G1182" s="20"/>
     </row>
-    <row r="1183" spans="1:7">
-      <c r="A1183" s="2" t="s">
+    <row r="1183" spans="1:7" ht="22.5">
+      <c r="A1183" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="B1183" s="2" t="s">
+      <c r="B1183" s="18" t="s">
         <v>1325</v>
       </c>
-      <c r="C1183" s="2" t="s">
+      <c r="C1183" s="18" t="s">
         <v>2106</v>
       </c>
-      <c r="D1183" s="2" t="s">
-        <v>2247</v>
+      <c r="D1183" s="18" t="s">
+        <v>2247</v>
+      </c>
+      <c r="E1183" s="19" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F1183" s="17" t="s">
+        <v>3445</v>
       </c>
       <c r="G1183" s="20"/>
     </row>
@@ -31262,6 +31533,9 @@
         <v>2107</v>
       </c>
       <c r="D1184" s="2" t="s">
+        <v>2247</v>
+      </c>
+      <c r="E1184" s="1" t="s">
         <v>2247</v>
       </c>
       <c r="G1184" s="20"/>

--- a/Documentação/Migração Servidores/Cosmos003/Mapeamento ETL.xlsx
+++ b/Documentação/Migração Servidores/Cosmos003/Mapeamento ETL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10743" uniqueCount="3463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10813" uniqueCount="3471">
   <si>
     <t>Job</t>
   </si>
@@ -10408,6 +10408,30 @@
   </si>
   <si>
     <t>Existem variáveis definidas que não encontrei onde são utilizadas.</t>
+  </si>
+  <si>
+    <t>existe uma variável "datahora" que aparentemente não está sendo utilizada</t>
+  </si>
+  <si>
+    <t>Existe um Script Task que prepara e envia e-mail</t>
+  </si>
+  <si>
+    <t>existe script task para enviar e-mail e também FTP. Precisa ser revisto as configurações do FTP. Verificar se todas as variáveis definidas estão sendo utilizadas</t>
+  </si>
+  <si>
+    <t>Verificar se as variáveis definidas estão realmente sendo utilizadas. Existe Script Task montando querys. Precisamos verificar se todas as variáveis estão sendo realmente utilizadas</t>
+  </si>
+  <si>
+    <t>executa os dtsx do diretorio Manutenção OLAP</t>
+  </si>
+  <si>
+    <t>executa os dtsx stg_inv e stg_sls</t>
+  </si>
+  <si>
+    <t>verificar se as variáveis definidas estão realmente sendo utilizadas</t>
+  </si>
+  <si>
+    <t>Precisamos registrar Microsoft.ACE.OLEDB.12.0</t>
   </si>
 </sst>
 </file>
@@ -12208,8 +12232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H183"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -12866,6 +12890,9 @@
       <c r="B57" s="7" t="s">
         <v>2246</v>
       </c>
+      <c r="C57" s="7" t="s">
+        <v>2246</v>
+      </c>
       <c r="D57" s="11"/>
     </row>
     <row r="58" spans="1:4">
@@ -12875,6 +12902,9 @@
       <c r="B58" s="7" t="s">
         <v>2246</v>
       </c>
+      <c r="C58" s="7" t="s">
+        <v>2246</v>
+      </c>
       <c r="D58" s="11"/>
     </row>
     <row r="59" spans="1:4">
@@ -12884,6 +12914,9 @@
       <c r="B59" s="7" t="s">
         <v>2246</v>
       </c>
+      <c r="C59" s="7" t="s">
+        <v>2246</v>
+      </c>
       <c r="D59" s="11"/>
     </row>
     <row r="60" spans="1:4">
@@ -12893,6 +12926,9 @@
       <c r="B60" s="7" t="s">
         <v>2246</v>
       </c>
+      <c r="C60" s="7" t="s">
+        <v>2246</v>
+      </c>
       <c r="D60" s="11"/>
     </row>
     <row r="61" spans="1:4">
@@ -12929,6 +12965,9 @@
       <c r="B64" s="7" t="s">
         <v>2246</v>
       </c>
+      <c r="C64" s="7" t="s">
+        <v>2246</v>
+      </c>
       <c r="D64" s="11"/>
     </row>
     <row r="65" spans="1:4">
@@ -12938,6 +12977,9 @@
       <c r="B65" s="7" t="s">
         <v>2246</v>
       </c>
+      <c r="C65" s="7" t="s">
+        <v>2246</v>
+      </c>
       <c r="D65" s="11"/>
     </row>
     <row r="66" spans="1:4">
@@ -12947,6 +12989,9 @@
       <c r="B66" s="7" t="s">
         <v>2246</v>
       </c>
+      <c r="C66" s="7" t="s">
+        <v>2246</v>
+      </c>
       <c r="D66" s="11"/>
     </row>
     <row r="67" spans="1:4">
@@ -12956,6 +13001,9 @@
       <c r="B67" s="7" t="s">
         <v>2246</v>
       </c>
+      <c r="C67" s="7" t="s">
+        <v>2246</v>
+      </c>
       <c r="D67" s="11"/>
     </row>
     <row r="68" spans="1:4">
@@ -12965,6 +13013,9 @@
       <c r="B68" s="7" t="s">
         <v>2246</v>
       </c>
+      <c r="C68" s="7" t="s">
+        <v>2246</v>
+      </c>
       <c r="D68" s="11"/>
     </row>
     <row r="69" spans="1:4">
@@ -12974,6 +13025,9 @@
       <c r="B69" s="7" t="s">
         <v>2246</v>
       </c>
+      <c r="C69" s="7" t="s">
+        <v>2246</v>
+      </c>
       <c r="D69" s="11"/>
     </row>
     <row r="70" spans="1:4">
@@ -12983,6 +13037,9 @@
       <c r="B70" s="7" t="s">
         <v>2246</v>
       </c>
+      <c r="C70" s="7" t="s">
+        <v>2246</v>
+      </c>
       <c r="D70" s="11"/>
     </row>
     <row r="71" spans="1:4">
@@ -12992,6 +13049,9 @@
       <c r="B71" s="7" t="s">
         <v>2246</v>
       </c>
+      <c r="C71" s="7" t="s">
+        <v>2246</v>
+      </c>
       <c r="D71" s="11"/>
     </row>
     <row r="72" spans="1:4">
@@ -13008,6 +13068,9 @@
         <v>2513</v>
       </c>
       <c r="B73" s="7" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C73" s="7" t="s">
         <v>2246</v>
       </c>
       <c r="D73" s="11"/>
@@ -14021,9 +14084,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1404"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A311" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C329" sqref="C329"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="11.25"/>
@@ -14857,6 +14920,9 @@
       <c r="D51" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E51" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H51" s="20"/>
     </row>
     <row r="52" spans="1:8">
@@ -14866,12 +14932,13 @@
       <c r="B52" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="29" t="s">
         <v>1478</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>2246</v>
-      </c>
+      <c r="D52" s="29" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E52" s="29"/>
       <c r="H52" s="20"/>
     </row>
     <row r="53" spans="1:8" hidden="1">
@@ -17263,6 +17330,12 @@
       <c r="D180" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E180" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>3470</v>
+      </c>
       <c r="H180" s="20"/>
     </row>
     <row r="181" spans="1:8" hidden="1">
@@ -17413,6 +17486,9 @@
       <c r="D190" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E190" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H190" s="20"/>
     </row>
     <row r="191" spans="1:8">
@@ -17428,6 +17504,9 @@
       <c r="D191" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E191" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H191" s="20"/>
     </row>
     <row r="192" spans="1:8">
@@ -17443,6 +17522,12 @@
       <c r="D192" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E192" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>3463</v>
+      </c>
       <c r="H192" s="20"/>
     </row>
     <row r="193" spans="1:8" hidden="1">
@@ -17460,17 +17545,26 @@
       </c>
       <c r="H193" s="20"/>
     </row>
-    <row r="194" spans="1:8">
-      <c r="A194" s="2" t="s">
+    <row r="194" spans="1:8" ht="33.75">
+      <c r="A194" s="18" t="s">
         <v>98</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C194" s="18" t="s">
         <v>1554</v>
       </c>
-      <c r="D194" s="2" t="s">
+      <c r="D194" s="18" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E194" s="19" t="s">
+        <v>2246</v>
+      </c>
+      <c r="F194" s="22" t="s">
+        <v>3465</v>
+      </c>
+      <c r="G194" s="19" t="s">
         <v>2246</v>
       </c>
       <c r="H194" s="20"/>
@@ -17503,6 +17597,9 @@
       <c r="D196" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E196" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H196" s="20"/>
     </row>
     <row r="197" spans="1:8" hidden="1">
@@ -18553,6 +18650,9 @@
       <c r="D259" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E259" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H259" s="20"/>
     </row>
     <row r="260" spans="1:8" hidden="1">
@@ -19783,10 +19883,13 @@
       <c r="B329" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="C329" s="29" t="s">
+      <c r="C329" s="2" t="s">
         <v>1626</v>
       </c>
       <c r="D329" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E329" s="1" t="s">
         <v>2246</v>
       </c>
       <c r="H329" s="20"/>
@@ -19819,6 +19922,9 @@
       <c r="D331" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E331" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H331" s="20"/>
     </row>
     <row r="332" spans="1:8">
@@ -19834,6 +19940,9 @@
       <c r="D332" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E332" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H332" s="20"/>
     </row>
     <row r="333" spans="1:8">
@@ -19849,6 +19958,9 @@
       <c r="D333" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E333" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H333" s="20"/>
     </row>
     <row r="334" spans="1:8">
@@ -19864,6 +19976,9 @@
       <c r="D334" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E334" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H334" s="20"/>
     </row>
     <row r="335" spans="1:8" hidden="1">
@@ -19894,6 +20009,9 @@
       <c r="D336" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E336" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H336" s="20"/>
     </row>
     <row r="337" spans="1:8" hidden="1">
@@ -19924,6 +20042,15 @@
       <c r="D338" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E338" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>3464</v>
+      </c>
+      <c r="G338" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H338" s="20"/>
     </row>
     <row r="339" spans="1:8" hidden="1">
@@ -19954,6 +20081,12 @@
       <c r="D340" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E340" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>3432</v>
+      </c>
       <c r="H340" s="20"/>
     </row>
     <row r="341" spans="1:8">
@@ -19969,6 +20102,9 @@
       <c r="D341" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E341" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H341" s="20"/>
     </row>
     <row r="342" spans="1:8">
@@ -19984,6 +20120,9 @@
       <c r="D342" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E342" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H342" s="20"/>
     </row>
     <row r="343" spans="1:8" hidden="1">
@@ -20014,6 +20153,9 @@
       <c r="D344" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E344" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H344" s="20"/>
     </row>
     <row r="345" spans="1:8">
@@ -20029,6 +20171,9 @@
       <c r="D345" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E345" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H345" s="20"/>
     </row>
     <row r="346" spans="1:8">
@@ -20044,6 +20189,9 @@
       <c r="D346" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E346" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H346" s="20"/>
     </row>
     <row r="347" spans="1:8">
@@ -20059,6 +20207,12 @@
       <c r="D347" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E347" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>3462</v>
+      </c>
       <c r="H347" s="20"/>
     </row>
     <row r="348" spans="1:8">
@@ -20074,6 +20228,9 @@
       <c r="D348" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E348" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H348" s="20"/>
     </row>
     <row r="349" spans="1:8" hidden="1">
@@ -20104,6 +20261,12 @@
       <c r="D350" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E350" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>3462</v>
+      </c>
       <c r="H350" s="20"/>
     </row>
     <row r="351" spans="1:8">
@@ -20118,6 +20281,12 @@
       </c>
       <c r="D351" s="2" t="s">
         <v>2246</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>3462</v>
       </c>
       <c r="H351" s="20"/>
     </row>
@@ -23699,17 +23868,26 @@
       </c>
       <c r="H576" s="20"/>
     </row>
-    <row r="577" spans="1:8">
-      <c r="A577" s="2" t="s">
+    <row r="577" spans="1:8" ht="33.75">
+      <c r="A577" s="18" t="s">
         <v>232</v>
       </c>
       <c r="B577" s="2" t="s">
         <v>936</v>
       </c>
-      <c r="C577" s="2" t="s">
+      <c r="C577" s="18" t="s">
         <v>1779</v>
       </c>
-      <c r="D577" s="2" t="s">
+      <c r="D577" s="18" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E577" s="19" t="s">
+        <v>2246</v>
+      </c>
+      <c r="F577" s="17" t="s">
+        <v>3466</v>
+      </c>
+      <c r="G577" s="19" t="s">
         <v>2246</v>
       </c>
       <c r="H577" s="20"/>
@@ -23742,6 +23920,9 @@
       <c r="D579" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E579" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H579" s="20"/>
     </row>
     <row r="580" spans="1:8">
@@ -23757,6 +23938,9 @@
       <c r="D580" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E580" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H580" s="20"/>
     </row>
     <row r="581" spans="1:8">
@@ -23772,6 +23956,9 @@
       <c r="D581" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E581" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H581" s="20"/>
     </row>
     <row r="582" spans="1:8">
@@ -23787,6 +23974,9 @@
       <c r="D582" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E582" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H582" s="20"/>
     </row>
     <row r="583" spans="1:8" hidden="1">
@@ -23832,6 +24022,9 @@
       <c r="D585" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E585" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H585" s="20"/>
     </row>
     <row r="586" spans="1:8" hidden="1">
@@ -23862,6 +24055,9 @@
       <c r="D587" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E587" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H587" s="20"/>
     </row>
     <row r="588" spans="1:8">
@@ -23877,6 +24073,9 @@
       <c r="D588" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E588" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H588" s="20"/>
     </row>
     <row r="589" spans="1:8" hidden="1">
@@ -23907,6 +24106,12 @@
       <c r="D590" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E590" s="4" t="s">
+        <v>2246</v>
+      </c>
+      <c r="F590" s="4" t="s">
+        <v>3467</v>
+      </c>
       <c r="H590" s="20"/>
     </row>
     <row r="591" spans="1:8" hidden="1">
@@ -23952,6 +24157,12 @@
       <c r="D593" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E593" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="F593" s="1" t="s">
+        <v>3468</v>
+      </c>
       <c r="H593" s="20"/>
     </row>
     <row r="594" spans="1:8">
@@ -23967,6 +24178,9 @@
       <c r="D594" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E594" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H594" s="20"/>
     </row>
     <row r="595" spans="1:8">
@@ -23981,6 +24195,12 @@
       </c>
       <c r="D595" s="2" t="s">
         <v>2246</v>
+      </c>
+      <c r="E595" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="F595" s="1" t="s">
+        <v>3469</v>
       </c>
       <c r="H595" s="20"/>
     </row>
@@ -32781,6 +33001,12 @@
       <c r="D1174" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E1174" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="F1174" s="1" t="s">
+        <v>3462</v>
+      </c>
       <c r="H1174" s="20"/>
     </row>
     <row r="1175" spans="1:8">
@@ -32794,6 +33020,15 @@
         <v>2100</v>
       </c>
       <c r="D1175" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1175" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="F1175" s="1" t="s">
+        <v>3464</v>
+      </c>
+      <c r="G1175" s="1" t="s">
         <v>2246</v>
       </c>
       <c r="H1175" s="20"/>

--- a/Documentação/Migração Servidores/Cosmos003/Mapeamento ETL.xlsx
+++ b/Documentação/Migração Servidores/Cosmos003/Mapeamento ETL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10913" uniqueCount="3489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10928" uniqueCount="3489">
   <si>
     <t>Job</t>
   </si>
@@ -10492,7 +10492,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10544,6 +10544,12 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -10702,7 +10708,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -10728,6 +10733,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12307,8 +12315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -12875,14 +12883,14 @@
       <c r="D49" s="11"/>
     </row>
     <row r="50" spans="1:4" ht="24">
-      <c r="A50" s="30" t="s">
+      <c r="A50" s="29" t="s">
         <v>2490</v>
       </c>
-      <c r="B50" s="31" t="s">
-        <v>2246</v>
-      </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="32" t="s">
+      <c r="B50" s="30" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C50" s="29"/>
+      <c r="D50" s="31" t="s">
         <v>3455</v>
       </c>
     </row>
@@ -13151,14 +13159,14 @@
       <c r="D73" s="11"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="36" t="s">
+      <c r="A74" s="35" t="s">
         <v>2514</v>
       </c>
-      <c r="B74" s="37" t="s">
-        <v>2246</v>
-      </c>
-      <c r="C74" s="37"/>
-      <c r="D74" s="38" t="s">
+      <c r="B74" s="36" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C74" s="36"/>
+      <c r="D74" s="37" t="s">
         <v>3472</v>
       </c>
     </row>
@@ -13309,6 +13317,9 @@
       <c r="B87" s="7" t="s">
         <v>2246</v>
       </c>
+      <c r="C87" s="41" t="s">
+        <v>2246</v>
+      </c>
       <c r="D87" s="11"/>
     </row>
     <row r="88" spans="1:4">
@@ -13318,6 +13329,9 @@
       <c r="B88" s="7" t="s">
         <v>2246</v>
       </c>
+      <c r="C88" s="7" t="s">
+        <v>2246</v>
+      </c>
       <c r="D88" s="11"/>
     </row>
     <row r="89" spans="1:4">
@@ -13327,6 +13341,9 @@
       <c r="B89" s="7" t="s">
         <v>2246</v>
       </c>
+      <c r="C89" s="7" t="s">
+        <v>2246</v>
+      </c>
       <c r="D89" s="11"/>
     </row>
     <row r="90" spans="1:4">
@@ -13530,7 +13547,7 @@
       <c r="D111" s="11"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="33" t="s">
+      <c r="A112" s="32" t="s">
         <v>2551</v>
       </c>
       <c r="B112" s="7" t="s">
@@ -13647,7 +13664,7 @@
       <c r="D124" s="11"/>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="33" t="s">
+      <c r="A125" s="32" t="s">
         <v>2564</v>
       </c>
       <c r="B125" s="7" t="s">
@@ -13971,7 +13988,7 @@
       <c r="D160" s="11"/>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="33" t="s">
+      <c r="A161" s="32" t="s">
         <v>2623</v>
       </c>
       <c r="B161" s="7" t="s">
@@ -14195,8 +14212,8 @@
   <dimension ref="A1:H1411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A593" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C645" sqref="C645"/>
+      <pane ySplit="6" topLeftCell="A624" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F653" sqref="F653"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="11.25"/>
@@ -15042,13 +15059,13 @@
       <c r="B52" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="34" t="s">
         <v>1478</v>
       </c>
-      <c r="D52" s="35" t="s">
-        <v>2246</v>
-      </c>
-      <c r="E52" s="35"/>
+      <c r="D52" s="34" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E52" s="34"/>
       <c r="F52" s="17" t="s">
         <v>3471</v>
       </c>
@@ -18233,6 +18250,12 @@
       <c r="D227" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E227" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>3486</v>
+      </c>
       <c r="H227" s="20"/>
     </row>
     <row r="228" spans="1:8" hidden="1">
@@ -19820,7 +19843,7 @@
       <c r="D318" s="2" t="s">
         <v>2246</v>
       </c>
-      <c r="F318" s="34"/>
+      <c r="F318" s="33"/>
       <c r="H318" s="20"/>
     </row>
     <row r="319" spans="1:8">
@@ -24570,11 +24593,11 @@
       <c r="A609" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B609" s="39"/>
+      <c r="B609" s="38"/>
       <c r="C609" s="2" t="s">
         <v>3474</v>
       </c>
-      <c r="D609" s="39" t="s">
+      <c r="D609" s="38" t="s">
         <v>2246</v>
       </c>
       <c r="E609" s="20" t="s">
@@ -24590,11 +24613,11 @@
       <c r="A610" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B610" s="39"/>
+      <c r="B610" s="38"/>
       <c r="C610" s="2" t="s">
         <v>3476</v>
       </c>
-      <c r="D610" s="39" t="s">
+      <c r="D610" s="38" t="s">
         <v>2246</v>
       </c>
       <c r="E610" s="20" t="s">
@@ -24610,11 +24633,11 @@
       <c r="A611" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B611" s="39"/>
+      <c r="B611" s="38"/>
       <c r="C611" s="2" t="s">
         <v>2001</v>
       </c>
-      <c r="D611" s="39" t="s">
+      <c r="D611" s="38" t="s">
         <v>2246</v>
       </c>
       <c r="E611" s="20" t="s">
@@ -24628,11 +24651,11 @@
       <c r="A612" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B612" s="39"/>
+      <c r="B612" s="38"/>
       <c r="C612" s="2" t="s">
         <v>2002</v>
       </c>
-      <c r="D612" s="39" t="s">
+      <c r="D612" s="38" t="s">
         <v>2246</v>
       </c>
       <c r="E612" s="20" t="s">
@@ -24646,11 +24669,11 @@
       <c r="A613" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B613" s="39"/>
+      <c r="B613" s="38"/>
       <c r="C613" s="2" t="s">
         <v>3477</v>
       </c>
-      <c r="D613" s="39" t="s">
+      <c r="D613" s="38" t="s">
         <v>2246</v>
       </c>
       <c r="E613" s="20" t="s">
@@ -24664,11 +24687,11 @@
       <c r="A614" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B614" s="39"/>
+      <c r="B614" s="38"/>
       <c r="C614" s="2" t="s">
         <v>3478</v>
       </c>
-      <c r="D614" s="39" t="s">
+      <c r="D614" s="38" t="s">
         <v>2246</v>
       </c>
       <c r="E614" s="20" t="s">
@@ -24684,11 +24707,11 @@
       <c r="A615" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B615" s="39"/>
+      <c r="B615" s="38"/>
       <c r="C615" s="2" t="s">
         <v>3479</v>
       </c>
-      <c r="D615" s="39" t="s">
+      <c r="D615" s="38" t="s">
         <v>2246</v>
       </c>
       <c r="E615" s="20" t="s">
@@ -24701,19 +24724,19 @@
       <c r="H615" s="20"/>
     </row>
     <row r="616" spans="1:8" ht="22.5">
-      <c r="A616" s="40" t="s">
+      <c r="A616" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="B616" s="39" t="s">
+      <c r="B616" s="38" t="s">
         <v>956</v>
       </c>
-      <c r="C616" s="40" t="s">
+      <c r="C616" s="39" t="s">
         <v>1797</v>
       </c>
-      <c r="D616" s="40" t="s">
-        <v>2246</v>
-      </c>
-      <c r="E616" s="41" t="s">
+      <c r="D616" s="39" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E616" s="40" t="s">
         <v>2246</v>
       </c>
       <c r="F616" s="25" t="s">
@@ -25116,6 +25139,9 @@
       <c r="D639" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E639" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H639" s="20"/>
     </row>
     <row r="640" spans="1:8">
@@ -25131,6 +25157,9 @@
       <c r="D640" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E640" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H640" s="20"/>
     </row>
     <row r="641" spans="1:8" hidden="1">
@@ -25161,6 +25190,9 @@
       <c r="D642" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E642" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H642" s="20"/>
     </row>
     <row r="643" spans="1:8">
@@ -25176,6 +25208,9 @@
       <c r="D643" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E643" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H643" s="20"/>
     </row>
     <row r="644" spans="1:8" hidden="1">
@@ -25206,6 +25241,12 @@
       <c r="D645" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E645" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="F645" s="1" t="s">
+        <v>3488</v>
+      </c>
       <c r="H645" s="20"/>
     </row>
     <row r="646" spans="1:8" hidden="1">
@@ -25371,10 +25412,13 @@
       <c r="B655" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="C655" s="29" t="s">
+      <c r="C655" s="2" t="s">
         <v>1820</v>
       </c>
       <c r="D655" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E655" s="1" t="s">
         <v>2246</v>
       </c>
       <c r="H655" s="20"/>
@@ -25392,6 +25436,9 @@
       <c r="D656" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E656" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H656" s="20"/>
     </row>
     <row r="657" spans="1:8" hidden="1">
@@ -25436,6 +25483,12 @@
       </c>
       <c r="D659" s="2" t="s">
         <v>2246</v>
+      </c>
+      <c r="E659" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="F659" s="1" t="s">
+        <v>3488</v>
       </c>
       <c r="H659" s="20"/>
     </row>

--- a/Documentação/Migração Servidores/Cosmos003/Mapeamento ETL.xlsx
+++ b/Documentação/Migração Servidores/Cosmos003/Mapeamento ETL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="20730" windowHeight="10035"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="20730" windowHeight="10035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Diretorios" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10928" uniqueCount="3489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11014" uniqueCount="3499">
   <si>
     <t>Job</t>
   </si>
@@ -10486,13 +10486,43 @@
   </si>
   <si>
     <t>Executa o manutenção OLAP</t>
+  </si>
+  <si>
+    <t>Existe uma connection manager "FTP" que não encontrei onde é utilizado</t>
+  </si>
+  <si>
+    <t>A leitura das conexões das Lojas está sendo feita para loja laselva, loja nike, loja corp cep e db milhagem. Essas conexões não foram criadas na tabela atualizada adm.ssis_conexoes"</t>
+  </si>
+  <si>
+    <t>Tem uma tarefa SMT que está comentada. Precisamos rever a connection manager MAILER e verificar se a variável definida está sendo utilizada</t>
+  </si>
+  <si>
+    <t>Esta pasta precisa ser copiada da Produção</t>
+  </si>
+  <si>
+    <t>Precisamos rever as configurações OLAP da tabela de conexão</t>
+  </si>
+  <si>
+    <t>Existe um Script Task que envia e-mail. A connection Manager "db_milhagem"  está se conectando ao Banco BOCA_08</t>
+  </si>
+  <si>
+    <t>Precisamos rever o desenvolvimento deste DTSX para buscar as conexões da loja e indicação da Unidade de Negócio. Atualmente está pegando no MIS_DW</t>
+  </si>
+  <si>
+    <t>Existe um Script Task que prepara a conexão com a Loja. O resultado é colocado em connection manager LOJA. Precisamos rever o desenvolvimento deste DTSX para buscar as conexões da Loja.</t>
+  </si>
+  <si>
+    <t>precisamos rever a configuração OLAP na tabela adm.ssis_conexoes. Existe uma conexão com o OLAP "Shared Dimension" que não está sendo utilizada</t>
+  </si>
+  <si>
+    <t>Verificar se a conection Manager LOJA está sendo realmente utilizada e se todas as variáveis definidas também</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10547,6 +10577,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -10650,7 +10688,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -10736,6 +10774,14 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11172,6 +11218,11 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:D183" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:D183">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="sim"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
   </autoFilter>
@@ -12315,8 +12366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -12402,7 +12453,7 @@
       </c>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" hidden="1">
       <c r="A7" s="8" t="s">
         <v>2447</v>
       </c>
@@ -12411,7 +12462,7 @@
       </c>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" hidden="1">
       <c r="A8" s="8" t="s">
         <v>2448</v>
       </c>
@@ -12456,7 +12507,7 @@
       </c>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" hidden="1">
       <c r="A12" s="8" t="s">
         <v>2452</v>
       </c>
@@ -12609,7 +12660,7 @@
       </c>
       <c r="D24" s="11"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" hidden="1">
       <c r="A25" s="8" t="s">
         <v>2465</v>
       </c>
@@ -12678,7 +12729,7 @@
       </c>
       <c r="D30" s="11"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" hidden="1">
       <c r="A31" s="8" t="s">
         <v>2471</v>
       </c>
@@ -12687,7 +12738,7 @@
       </c>
       <c r="D31" s="11"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" hidden="1">
       <c r="A32" s="8" t="s">
         <v>2472</v>
       </c>
@@ -12696,7 +12747,7 @@
       </c>
       <c r="D32" s="11"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" hidden="1">
       <c r="A33" s="8" t="s">
         <v>2473</v>
       </c>
@@ -12705,7 +12756,7 @@
       </c>
       <c r="D33" s="11"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" hidden="1">
       <c r="A34" s="8" t="s">
         <v>2474</v>
       </c>
@@ -12738,7 +12789,7 @@
       </c>
       <c r="D36" s="11"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" hidden="1">
       <c r="A37" s="8" t="s">
         <v>2477</v>
       </c>
@@ -12747,7 +12798,7 @@
       </c>
       <c r="D37" s="11"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" hidden="1">
       <c r="A38" s="8" t="s">
         <v>2478</v>
       </c>
@@ -12780,7 +12831,7 @@
       </c>
       <c r="D40" s="11"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" hidden="1">
       <c r="A41" s="8" t="s">
         <v>2481</v>
       </c>
@@ -12849,7 +12900,7 @@
       </c>
       <c r="D46" s="11"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" hidden="1">
       <c r="A47" s="8" t="s">
         <v>2487</v>
       </c>
@@ -13014,7 +13065,7 @@
       </c>
       <c r="D60" s="11"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" hidden="1">
       <c r="A61" s="8" t="s">
         <v>2501</v>
       </c>
@@ -13023,7 +13074,7 @@
       </c>
       <c r="D61" s="11"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" hidden="1">
       <c r="A62" s="8" t="s">
         <v>2502</v>
       </c>
@@ -13032,7 +13083,7 @@
       </c>
       <c r="D62" s="11"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" hidden="1">
       <c r="A63" s="8" t="s">
         <v>2503</v>
       </c>
@@ -13137,7 +13188,7 @@
       </c>
       <c r="D71" s="11"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" hidden="1">
       <c r="A72" s="8" t="s">
         <v>2512</v>
       </c>
@@ -13194,7 +13245,7 @@
       </c>
       <c r="D76" s="11"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" hidden="1">
       <c r="A77" s="8" t="s">
         <v>2517</v>
       </c>
@@ -13277,7 +13328,7 @@
         <v>3485</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" hidden="1">
       <c r="A84" s="8" t="s">
         <v>2524</v>
       </c>
@@ -13346,7 +13397,7 @@
       </c>
       <c r="D89" s="11"/>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" hidden="1">
       <c r="A90" s="8" t="s">
         <v>2530</v>
       </c>
@@ -13362,9 +13413,12 @@
       <c r="B91" s="7" t="s">
         <v>2246</v>
       </c>
+      <c r="C91" s="7" t="s">
+        <v>2246</v>
+      </c>
       <c r="D91" s="11"/>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" hidden="1">
       <c r="A92" s="8" t="s">
         <v>2532</v>
       </c>
@@ -13373,7 +13427,7 @@
       </c>
       <c r="D92" s="11"/>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" hidden="1">
       <c r="A93" s="8" t="s">
         <v>2533</v>
       </c>
@@ -13389,6 +13443,9 @@
       <c r="B94" s="7" t="s">
         <v>2246</v>
       </c>
+      <c r="C94" s="7" t="s">
+        <v>2246</v>
+      </c>
       <c r="D94" s="11"/>
     </row>
     <row r="95" spans="1:4">
@@ -13398,6 +13455,9 @@
       <c r="B95" s="7" t="s">
         <v>2246</v>
       </c>
+      <c r="C95" s="7" t="s">
+        <v>2246</v>
+      </c>
       <c r="D95" s="11"/>
     </row>
     <row r="96" spans="1:4">
@@ -13407,9 +13467,12 @@
       <c r="B96" s="7" t="s">
         <v>2246</v>
       </c>
+      <c r="C96" s="7" t="s">
+        <v>2246</v>
+      </c>
       <c r="D96" s="11"/>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" hidden="1">
       <c r="A97" s="8" t="s">
         <v>2537</v>
       </c>
@@ -13425,6 +13488,9 @@
       <c r="B98" s="7" t="s">
         <v>2246</v>
       </c>
+      <c r="C98" s="7" t="s">
+        <v>2246</v>
+      </c>
       <c r="D98" s="11"/>
     </row>
     <row r="99" spans="1:4">
@@ -13434,16 +13500,22 @@
       <c r="B99" s="7" t="s">
         <v>2246</v>
       </c>
+      <c r="C99" s="7" t="s">
+        <v>2246</v>
+      </c>
       <c r="D99" s="11"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="8" t="s">
+      <c r="A100" s="42" t="s">
         <v>2540</v>
       </c>
-      <c r="B100" s="7" t="s">
-        <v>2246</v>
-      </c>
-      <c r="D100" s="11"/>
+      <c r="B100" s="43" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C100" s="43"/>
+      <c r="D100" s="42" t="s">
+        <v>3492</v>
+      </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="8" t="s">
@@ -13452,6 +13524,9 @@
       <c r="B101" s="7" t="s">
         <v>2246</v>
       </c>
+      <c r="C101" s="7" t="s">
+        <v>2246</v>
+      </c>
       <c r="D101" s="11"/>
     </row>
     <row r="102" spans="1:4">
@@ -13461,9 +13536,12 @@
       <c r="B102" s="7" t="s">
         <v>2246</v>
       </c>
+      <c r="C102" s="7" t="s">
+        <v>2246</v>
+      </c>
       <c r="D102" s="11"/>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" hidden="1">
       <c r="A103" s="8" t="s">
         <v>2543</v>
       </c>
@@ -13472,7 +13550,7 @@
       </c>
       <c r="D103" s="11"/>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" hidden="1">
       <c r="A104" s="8" t="s">
         <v>2544</v>
       </c>
@@ -13499,7 +13577,7 @@
       </c>
       <c r="D106" s="11"/>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" hidden="1">
       <c r="A107" s="8" t="s">
         <v>2547</v>
       </c>
@@ -13537,7 +13615,7 @@
         <v>3389</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" hidden="1">
       <c r="A111" s="8" t="s">
         <v>2550</v>
       </c>
@@ -13618,7 +13696,7 @@
       </c>
       <c r="D119" s="11"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" hidden="1">
       <c r="A120" s="8" t="s">
         <v>2559</v>
       </c>
@@ -13807,7 +13885,7 @@
       </c>
       <c r="D140" s="11"/>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" hidden="1">
       <c r="A141" s="8" t="s">
         <v>2580</v>
       </c>
@@ -13825,7 +13903,7 @@
       </c>
       <c r="D142" s="11"/>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" hidden="1">
       <c r="A143" s="8" t="s">
         <v>2582</v>
       </c>
@@ -13942,7 +14020,7 @@
       </c>
       <c r="D155" s="11"/>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" hidden="1">
       <c r="A156" s="8" t="s">
         <v>2595</v>
       </c>
@@ -13960,7 +14038,7 @@
       </c>
       <c r="D157" s="11"/>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" hidden="1">
       <c r="A158" s="8" t="s">
         <v>2597</v>
       </c>
@@ -14005,7 +14083,7 @@
       </c>
       <c r="D162" s="11"/>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" hidden="1">
       <c r="A163" s="8" t="s">
         <v>2601</v>
       </c>
@@ -14068,7 +14146,7 @@
       </c>
       <c r="D169" s="11"/>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" hidden="1">
       <c r="A170" s="8" t="s">
         <v>2608</v>
       </c>
@@ -14135,7 +14213,7 @@
       </c>
       <c r="D176" s="11"/>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" hidden="1">
       <c r="A177" s="8" t="s">
         <v>2615</v>
       </c>
@@ -14189,7 +14267,7 @@
       </c>
       <c r="D182" s="11"/>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" hidden="1">
       <c r="A183" s="8" t="s">
         <v>2621</v>
       </c>
@@ -14211,16 +14289,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1411"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A624" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F653" sqref="F653"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A735" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C770" sqref="C770"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="47.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="66" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="58.42578125" style="1" customWidth="1"/>
@@ -17931,6 +18009,9 @@
       <c r="D207" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E207" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H207" s="20"/>
     </row>
     <row r="208" spans="1:8">
@@ -17946,6 +18027,9 @@
       <c r="D208" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E208" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H208" s="20"/>
     </row>
     <row r="209" spans="1:8">
@@ -17961,6 +18045,9 @@
       <c r="D209" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E209" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H209" s="20"/>
     </row>
     <row r="210" spans="1:8">
@@ -17976,6 +18063,12 @@
       <c r="D210" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E210" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>3489</v>
+      </c>
       <c r="H210" s="20"/>
     </row>
     <row r="211" spans="1:8" hidden="1">
@@ -18026,17 +18119,26 @@
       </c>
       <c r="H213" s="20"/>
     </row>
-    <row r="214" spans="1:8">
-      <c r="A214" s="2" t="s">
+    <row r="214" spans="1:8" ht="22.5">
+      <c r="A214" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B214" s="18" t="s">
         <v>692</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="C214" s="18" t="s">
         <v>1564</v>
       </c>
-      <c r="D214" s="2" t="s">
+      <c r="D214" s="18" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E214" s="19" t="s">
+        <v>2246</v>
+      </c>
+      <c r="F214" s="17" t="s">
+        <v>3494</v>
+      </c>
+      <c r="G214" s="1" t="s">
         <v>2246</v>
       </c>
       <c r="H214" s="20"/>
@@ -18601,18 +18703,24 @@
       </c>
       <c r="H247" s="20"/>
     </row>
-    <row r="248" spans="1:8">
-      <c r="A248" s="2" t="s">
+    <row r="248" spans="1:8" ht="33.75">
+      <c r="A248" s="18" t="s">
         <v>121</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="C248" s="2" t="s">
+      <c r="C248" s="18" t="s">
         <v>2201</v>
       </c>
-      <c r="D248" s="2" t="s">
-        <v>2246</v>
+      <c r="D248" s="18" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E248" s="19" t="s">
+        <v>2246</v>
+      </c>
+      <c r="F248" s="17" t="s">
+        <v>3490</v>
       </c>
       <c r="H248" s="20"/>
     </row>
@@ -18990,6 +19098,9 @@
       <c r="D270" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E270" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H270" s="20"/>
     </row>
     <row r="271" spans="1:8">
@@ -19003,6 +19114,9 @@
         <v>1597</v>
       </c>
       <c r="D271" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E271" s="1" t="s">
         <v>2246</v>
       </c>
       <c r="H271" s="20"/>
@@ -25997,6 +26111,9 @@
       <c r="D690" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E690" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H690" s="20"/>
     </row>
     <row r="691" spans="1:8">
@@ -26012,6 +26129,9 @@
       <c r="D691" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E691" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H691" s="20"/>
     </row>
     <row r="692" spans="1:8">
@@ -26027,6 +26147,9 @@
       <c r="D692" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E692" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H692" s="20"/>
     </row>
     <row r="693" spans="1:8">
@@ -26042,6 +26165,9 @@
       <c r="D693" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E693" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H693" s="20"/>
     </row>
     <row r="694" spans="1:8">
@@ -26057,6 +26183,9 @@
       <c r="D694" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E694" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H694" s="20"/>
     </row>
     <row r="695" spans="1:8" hidden="1">
@@ -26104,18 +26233,24 @@
       </c>
       <c r="H697" s="20"/>
     </row>
-    <row r="698" spans="1:8">
-      <c r="A698" s="2" t="s">
+    <row r="698" spans="1:8" ht="22.5">
+      <c r="A698" s="18" t="s">
         <v>277</v>
       </c>
       <c r="B698" s="2" t="s">
         <v>1005</v>
       </c>
-      <c r="C698" s="2" t="s">
+      <c r="C698" s="18" t="s">
         <v>1842</v>
       </c>
-      <c r="D698" s="2" t="s">
-        <v>2246</v>
+      <c r="D698" s="18" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E698" s="19" t="s">
+        <v>2246</v>
+      </c>
+      <c r="F698" s="17" t="s">
+        <v>3491</v>
       </c>
       <c r="H698" s="20"/>
     </row>
@@ -26222,6 +26357,9 @@
       <c r="D705" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E705" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H705" s="20"/>
     </row>
     <row r="706" spans="1:8">
@@ -26237,6 +26375,9 @@
       <c r="D706" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E706" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H706" s="20"/>
     </row>
     <row r="707" spans="1:8" hidden="1">
@@ -26359,6 +26500,9 @@
       <c r="D713" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E713" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H713" s="20"/>
     </row>
     <row r="714" spans="1:8" hidden="1">
@@ -26389,6 +26533,9 @@
       <c r="D715" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E715" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H715" s="20"/>
     </row>
     <row r="716" spans="1:8">
@@ -26404,6 +26551,9 @@
       <c r="D716" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E716" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H716" s="20"/>
     </row>
     <row r="717" spans="1:8" hidden="1">
@@ -26434,6 +26584,12 @@
       <c r="D718" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E718" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="F718" s="1" t="s">
+        <v>3493</v>
+      </c>
       <c r="H718" s="20"/>
     </row>
     <row r="719" spans="1:8">
@@ -26449,6 +26605,12 @@
       <c r="D719" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E719" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="F719" s="1" t="s">
+        <v>3493</v>
+      </c>
       <c r="H719" s="20"/>
     </row>
     <row r="720" spans="1:8" hidden="1">
@@ -26479,6 +26641,9 @@
       <c r="D721" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E721" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H721" s="20"/>
     </row>
     <row r="722" spans="1:8" hidden="1">
@@ -26577,18 +26742,24 @@
       </c>
       <c r="H727" s="20"/>
     </row>
-    <row r="728" spans="1:8">
-      <c r="A728" s="2" t="s">
+    <row r="728" spans="1:8" ht="22.5">
+      <c r="A728" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="B728" s="2" t="s">
+      <c r="B728" s="34" t="s">
         <v>1022</v>
       </c>
-      <c r="C728" s="2" t="s">
+      <c r="C728" s="34" t="s">
         <v>1859</v>
       </c>
-      <c r="D728" s="2" t="s">
-        <v>2246</v>
+      <c r="D728" s="34" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E728" s="34" t="s">
+        <v>2246</v>
+      </c>
+      <c r="F728" s="17" t="s">
+        <v>3495</v>
       </c>
       <c r="H728" s="20"/>
     </row>
@@ -26607,18 +26778,24 @@
       </c>
       <c r="H729" s="20"/>
     </row>
-    <row r="730" spans="1:8">
-      <c r="A730" s="2" t="s">
+    <row r="730" spans="1:8" ht="22.5">
+      <c r="A730" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="B730" s="2" t="s">
+      <c r="B730" s="34" t="s">
         <v>1024</v>
       </c>
-      <c r="C730" s="2" t="s">
+      <c r="C730" s="34" t="s">
         <v>1859</v>
       </c>
-      <c r="D730" s="2" t="s">
-        <v>2246</v>
+      <c r="D730" s="34" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E730" s="34" t="s">
+        <v>2246</v>
+      </c>
+      <c r="F730" s="17" t="s">
+        <v>3495</v>
       </c>
       <c r="H730" s="20"/>
     </row>
@@ -26637,48 +26814,63 @@
       </c>
       <c r="H731" s="20"/>
     </row>
-    <row r="732" spans="1:8">
-      <c r="A732" s="2" t="s">
+    <row r="732" spans="1:8" ht="22.5">
+      <c r="A732" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="B732" s="2" t="s">
+      <c r="B732" s="34" t="s">
         <v>1026</v>
       </c>
-      <c r="C732" s="2" t="s">
+      <c r="C732" s="34" t="s">
         <v>1859</v>
       </c>
-      <c r="D732" s="2" t="s">
-        <v>2246</v>
+      <c r="D732" s="34" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E732" s="34" t="s">
+        <v>2246</v>
+      </c>
+      <c r="F732" s="17" t="s">
+        <v>3495</v>
       </c>
       <c r="H732" s="20"/>
     </row>
     <row r="733" spans="1:8">
-      <c r="A733" s="2" t="s">
+      <c r="A733" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="B733" s="2" t="s">
+      <c r="B733" s="18" t="s">
         <v>1027</v>
       </c>
-      <c r="C733" s="2" t="s">
+      <c r="C733" s="18" t="s">
         <v>1860</v>
       </c>
-      <c r="D733" s="2" t="s">
+      <c r="D733" s="18" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E733" s="19" t="s">
         <v>2246</v>
       </c>
       <c r="H733" s="20"/>
     </row>
-    <row r="734" spans="1:8">
-      <c r="A734" s="2" t="s">
+    <row r="734" spans="1:8" ht="33.75">
+      <c r="A734" s="45" t="s">
         <v>287</v>
       </c>
-      <c r="B734" s="2" t="s">
+      <c r="B734" s="45" t="s">
         <v>1028</v>
       </c>
-      <c r="C734" s="2" t="s">
+      <c r="C734" s="45" t="s">
         <v>1861</v>
       </c>
-      <c r="D734" s="2" t="s">
-        <v>2246</v>
+      <c r="D734" s="45" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E734" s="45" t="s">
+        <v>2246</v>
+      </c>
+      <c r="F734" s="17" t="s">
+        <v>3496</v>
       </c>
       <c r="H734" s="20"/>
     </row>
@@ -26695,6 +26887,9 @@
       <c r="D735" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E735" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H735" s="20"/>
     </row>
     <row r="736" spans="1:8" hidden="1">
@@ -26725,6 +26920,9 @@
       <c r="D737" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E737" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H737" s="20"/>
     </row>
     <row r="738" spans="1:8" hidden="1">
@@ -26755,6 +26953,9 @@
       <c r="D739" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E739" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H739" s="20"/>
     </row>
     <row r="740" spans="1:8" hidden="1">
@@ -26785,20 +26986,32 @@
       <c r="D741" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E741" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="F741" s="1" t="s">
+        <v>3482</v>
+      </c>
       <c r="H741" s="20"/>
     </row>
-    <row r="742" spans="1:8">
-      <c r="A742" s="2" t="s">
+    <row r="742" spans="1:8" ht="22.5">
+      <c r="A742" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="B742" s="2" t="s">
+      <c r="B742" s="18" t="s">
         <v>1036</v>
       </c>
-      <c r="C742" s="2" t="s">
+      <c r="C742" s="18" t="s">
         <v>1866</v>
       </c>
-      <c r="D742" s="2" t="s">
-        <v>2246</v>
+      <c r="D742" s="18" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E742" s="19" t="s">
+        <v>2246</v>
+      </c>
+      <c r="F742" s="17" t="s">
+        <v>3497</v>
       </c>
       <c r="H742" s="20"/>
     </row>
@@ -26830,20 +27043,29 @@
       <c r="D744" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E744" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H744" s="20"/>
     </row>
-    <row r="745" spans="1:8">
-      <c r="A745" s="2" t="s">
+    <row r="745" spans="1:8" ht="22.5">
+      <c r="A745" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="B745" s="2" t="s">
+      <c r="B745" s="18" t="s">
         <v>1039</v>
       </c>
-      <c r="C745" s="2" t="s">
+      <c r="C745" s="18" t="s">
         <v>2221</v>
       </c>
-      <c r="D745" s="2" t="s">
-        <v>2246</v>
+      <c r="D745" s="18" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E745" s="19" t="s">
+        <v>2246</v>
+      </c>
+      <c r="F745" s="17" t="s">
+        <v>3498</v>
       </c>
       <c r="H745" s="20"/>
     </row>
@@ -26905,6 +27127,9 @@
       <c r="D749" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E749" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H749" s="20"/>
     </row>
     <row r="750" spans="1:8">
@@ -26914,7 +27139,7 @@
       <c r="B750" s="2" t="s">
         <v>1042</v>
       </c>
-      <c r="C750" s="2" t="s">
+      <c r="C750" s="44" t="s">
         <v>1869</v>
       </c>
       <c r="D750" s="2" t="s">
@@ -31672,6 +31897,9 @@
       <c r="D1064" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E1064" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H1064" s="20"/>
     </row>
     <row r="1065" spans="1:8" hidden="1">
@@ -31702,6 +31930,9 @@
       <c r="D1066" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E1066" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H1066" s="20"/>
     </row>
     <row r="1067" spans="1:8">
@@ -31717,6 +31948,9 @@
       <c r="D1067" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E1067" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H1067" s="20"/>
     </row>
     <row r="1068" spans="1:8">
@@ -31732,6 +31966,9 @@
       <c r="D1068" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="F1068" s="1" t="s">
+        <v>3492</v>
+      </c>
       <c r="H1068" s="20"/>
     </row>
     <row r="1069" spans="1:8">
@@ -31780,6 +32017,9 @@
       <c r="D1071" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E1071" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H1071" s="20"/>
     </row>
     <row r="1072" spans="1:8" hidden="1">
@@ -32773,6 +33013,9 @@
       <c r="D1137" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E1137" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H1137" s="20"/>
     </row>
     <row r="1138" spans="1:8" hidden="1">
@@ -33527,6 +33770,9 @@
       <c r="D1184" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E1184" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H1184" s="20"/>
     </row>
     <row r="1185" spans="1:8">
@@ -33542,6 +33788,9 @@
       <c r="D1185" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E1185" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H1185" s="20"/>
     </row>
     <row r="1186" spans="1:8" hidden="1">
@@ -33840,6 +34089,9 @@
       <c r="D1204" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E1204" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H1204" s="20"/>
     </row>
     <row r="1205" spans="1:8" hidden="1">
@@ -33870,6 +34122,9 @@
       <c r="D1206" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="E1206" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H1206" s="20"/>
     </row>
     <row r="1207" spans="1:8" hidden="1">
@@ -35400,6 +35655,9 @@
       <c r="D1307" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="F1307" s="1" t="s">
+        <v>3492</v>
+      </c>
       <c r="H1307" s="20"/>
     </row>
     <row r="1308" spans="1:8" hidden="1">
@@ -35430,6 +35688,9 @@
       <c r="D1309" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="F1309" s="1" t="s">
+        <v>3492</v>
+      </c>
       <c r="H1309" s="20"/>
     </row>
     <row r="1310" spans="1:8" hidden="1">
@@ -35460,6 +35721,9 @@
       <c r="D1311" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="F1311" s="1" t="s">
+        <v>3492</v>
+      </c>
       <c r="H1311" s="20"/>
     </row>
     <row r="1312" spans="1:8" hidden="1">
@@ -35490,6 +35754,9 @@
       <c r="D1313" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="F1313" s="1" t="s">
+        <v>3492</v>
+      </c>
       <c r="H1313" s="20"/>
     </row>
     <row r="1314" spans="1:8" hidden="1">
@@ -35520,6 +35787,9 @@
       <c r="D1315" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="F1315" s="1" t="s">
+        <v>3492</v>
+      </c>
       <c r="H1315" s="20"/>
     </row>
     <row r="1316" spans="1:8" hidden="1">
@@ -35550,6 +35820,9 @@
       <c r="D1317" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="F1317" s="1" t="s">
+        <v>3492</v>
+      </c>
       <c r="H1317" s="20"/>
     </row>
     <row r="1318" spans="1:8">
@@ -35565,6 +35838,9 @@
       <c r="D1318" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="F1318" s="1" t="s">
+        <v>3492</v>
+      </c>
       <c r="H1318" s="20"/>
     </row>
     <row r="1319" spans="1:8" hidden="1">
@@ -35595,6 +35871,9 @@
       <c r="D1320" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="F1320" s="1" t="s">
+        <v>3492</v>
+      </c>
       <c r="H1320" s="20"/>
     </row>
     <row r="1321" spans="1:8" hidden="1">
@@ -35625,6 +35904,9 @@
       <c r="D1322" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="F1322" s="1" t="s">
+        <v>3492</v>
+      </c>
       <c r="H1322" s="20"/>
     </row>
     <row r="1323" spans="1:8">
@@ -35640,6 +35922,9 @@
       <c r="D1323" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="F1323" s="1" t="s">
+        <v>3492</v>
+      </c>
       <c r="H1323" s="20"/>
     </row>
     <row r="1324" spans="1:8" hidden="1">
@@ -35700,6 +35985,9 @@
       <c r="D1327" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="F1327" s="1" t="s">
+        <v>3492</v>
+      </c>
       <c r="H1327" s="20"/>
     </row>
     <row r="1328" spans="1:8">
@@ -35715,6 +36003,9 @@
       <c r="D1328" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="F1328" s="1" t="s">
+        <v>3492</v>
+      </c>
       <c r="H1328" s="20"/>
     </row>
     <row r="1329" spans="1:8" hidden="1">
@@ -35745,6 +36036,9 @@
       <c r="D1330" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="F1330" s="1" t="s">
+        <v>3492</v>
+      </c>
       <c r="H1330" s="20"/>
     </row>
     <row r="1331" spans="1:8" hidden="1">
@@ -35775,6 +36069,9 @@
       <c r="D1332" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="F1332" s="1" t="s">
+        <v>3492</v>
+      </c>
       <c r="H1332" s="20"/>
     </row>
     <row r="1333" spans="1:8" hidden="1">
@@ -35805,6 +36102,9 @@
       <c r="D1334" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="F1334" s="1" t="s">
+        <v>3492</v>
+      </c>
       <c r="H1334" s="20"/>
     </row>
     <row r="1335" spans="1:8" hidden="1">
@@ -35835,6 +36135,9 @@
       <c r="D1336" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="F1336" s="1" t="s">
+        <v>3492</v>
+      </c>
       <c r="H1336" s="20"/>
     </row>
     <row r="1337" spans="1:8" hidden="1">
@@ -35865,6 +36168,9 @@
       <c r="D1338" s="2" t="s">
         <v>2246</v>
       </c>
+      <c r="F1338" s="1" t="s">
+        <v>3492</v>
+      </c>
       <c r="H1338" s="20"/>
     </row>
     <row r="1339" spans="1:8" hidden="1">
@@ -35894,6 +36200,9 @@
       </c>
       <c r="D1340" s="2" t="s">
         <v>2246</v>
+      </c>
+      <c r="F1340" s="1" t="s">
+        <v>3492</v>
       </c>
       <c r="H1340" s="20"/>
     </row>
@@ -36997,8 +37306,8 @@
   <dimension ref="A1:C329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B100" sqref="A1:C329"/>
+      <pane ySplit="6" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D339" sqref="D339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.140625" defaultRowHeight="11.25"/>

--- a/Documentação/Migração Servidores/Cosmos003/Mapeamento ETL.xlsx
+++ b/Documentação/Migração Servidores/Cosmos003/Mapeamento ETL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11045" uniqueCount="3504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11049" uniqueCount="3505">
   <si>
     <t>Job</t>
   </si>
@@ -10531,6 +10531,9 @@
   </si>
   <si>
     <t>usado no purchase e em vários outros</t>
+  </si>
+  <si>
+    <t>Verificar se todas as variáveis declaradas estão sendo utilizadas</t>
   </si>
 </sst>
 </file>
@@ -10794,10 +10797,10 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -14318,7 +14321,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A765" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C795" sqref="C795"/>
+      <selection pane="bottomLeft" activeCell="C798" sqref="C798"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="11.25"/>
@@ -26887,19 +26890,19 @@
       <c r="H733" s="20"/>
     </row>
     <row r="734" spans="1:8" ht="33.75">
-      <c r="A734" s="45" t="s">
+      <c r="A734" s="44" t="s">
         <v>287</v>
       </c>
-      <c r="B734" s="45" t="s">
+      <c r="B734" s="44" t="s">
         <v>1028</v>
       </c>
-      <c r="C734" s="45" t="s">
+      <c r="C734" s="44" t="s">
         <v>1861</v>
       </c>
-      <c r="D734" s="45" t="s">
-        <v>2245</v>
-      </c>
-      <c r="E734" s="45" t="s">
+      <c r="D734" s="44" t="s">
+        <v>2245</v>
+      </c>
+      <c r="E734" s="44" t="s">
         <v>2245</v>
       </c>
       <c r="F734" s="17" t="s">
@@ -27937,10 +27940,13 @@
       <c r="B795" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C795" s="44" t="s">
+      <c r="C795" s="2" t="s">
         <v>1893</v>
       </c>
       <c r="D795" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="E795" s="1" t="s">
         <v>2245</v>
       </c>
       <c r="H795" s="20"/>
@@ -27958,6 +27964,12 @@
       <c r="D796" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E796" s="1" t="s">
+        <v>2245</v>
+      </c>
+      <c r="F796" s="1" t="s">
+        <v>3504</v>
+      </c>
       <c r="H796" s="20"/>
     </row>
     <row r="797" spans="1:8">
@@ -27973,6 +27985,9 @@
       <c r="D797" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E797" s="1" t="s">
+        <v>2245</v>
+      </c>
       <c r="H797" s="20"/>
     </row>
     <row r="798" spans="1:8">
@@ -27982,7 +27997,7 @@
       <c r="B798" s="2" t="s">
         <v>1074</v>
       </c>
-      <c r="C798" s="2" t="s">
+      <c r="C798" s="45" t="s">
         <v>1896</v>
       </c>
       <c r="D798" s="2" t="s">

--- a/Documentação/Migração Servidores/Cosmos003/Mapeamento ETL.xlsx
+++ b/Documentação/Migração Servidores/Cosmos003/Mapeamento ETL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11049" uniqueCount="3505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11220" uniqueCount="3509">
   <si>
     <t>Job</t>
   </si>
@@ -10534,6 +10534,18 @@
   </si>
   <si>
     <t>Verificar se todas as variáveis declaradas estão sendo utilizadas</t>
+  </si>
+  <si>
+    <t>Executa os dtsx: "olap_margin", "olap_margin_otimizado" e "olap_approved" e todos eles trabalham com o  "Manutenção OLAP"</t>
+  </si>
+  <si>
+    <t>Verificar se todas as variáveis definidas são utilizadas. Existe 2 Task Editor que monta arquivo e envia e-mail</t>
+  </si>
+  <si>
+    <t>Verificar se todas as variáveis definidas são utilizadas. Existe um Script Task que prepara os dados e envia e-mail</t>
+  </si>
+  <si>
+    <t>Colunas1</t>
   </si>
 </sst>
 </file>
@@ -10706,7 +10718,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -10800,13 +10812,12 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="28">
     <dxf>
       <font>
         <b val="0"/>
@@ -11147,6 +11158,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -11234,8 +11258,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:D183" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="A1:D183">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:E183" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A1:E183">
     <filterColumn colId="1">
       <filters>
         <filter val="sim"/>
@@ -11243,12 +11267,14 @@
     </filterColumn>
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
+    <filterColumn colId="4"/>
   </autoFilter>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Diretorio " dataDxfId="24"/>
-    <tableColumn id="2" name="Job associado?" dataDxfId="23"/>
-    <tableColumn id="4" name="Revisado?" dataDxfId="22"/>
-    <tableColumn id="3" name="Observação" dataDxfId="21"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Diretorio " dataDxfId="25"/>
+    <tableColumn id="2" name="Job associado?" dataDxfId="24"/>
+    <tableColumn id="4" name="Revisado?" dataDxfId="23"/>
+    <tableColumn id="3" name="Observação" dataDxfId="22"/>
+    <tableColumn id="5" name="Colunas1" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12385,7 +12411,7 @@
   <dimension ref="A1:H183"/>
   <sheetViews>
     <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A112" sqref="A1:H183"/>
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -12397,7 +12423,7 @@
     <col min="5" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="10" customFormat="1" ht="15">
+    <row r="1" spans="1:5" s="10" customFormat="1" ht="15">
       <c r="A1" s="9" t="s">
         <v>2621</v>
       </c>
@@ -12410,8 +12436,11 @@
       <c r="D1" s="12" t="s">
         <v>3390</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="9" t="s">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
         <v>2442</v>
       </c>
@@ -12423,7 +12452,7 @@
       </c>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
         <v>2244</v>
       </c>
@@ -12435,7 +12464,7 @@
       </c>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
         <v>2443</v>
       </c>
@@ -12447,7 +12476,7 @@
       </c>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
         <v>2444</v>
       </c>
@@ -12459,7 +12488,7 @@
       </c>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
         <v>2445</v>
       </c>
@@ -12471,7 +12500,7 @@
       </c>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="1:4" hidden="1">
+    <row r="7" spans="1:5" hidden="1">
       <c r="A7" s="8" t="s">
         <v>2446</v>
       </c>
@@ -12480,7 +12509,7 @@
       </c>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:4" hidden="1">
+    <row r="8" spans="1:5" hidden="1">
       <c r="A8" s="8" t="s">
         <v>2447</v>
       </c>
@@ -12489,7 +12518,7 @@
       </c>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
         <v>2448</v>
       </c>
@@ -12501,7 +12530,7 @@
       </c>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
         <v>2449</v>
       </c>
@@ -12513,7 +12542,7 @@
       </c>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
         <v>2450</v>
       </c>
@@ -12525,7 +12554,7 @@
       </c>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="1:4" hidden="1">
+    <row r="12" spans="1:5" hidden="1">
       <c r="A12" s="8" t="s">
         <v>2451</v>
       </c>
@@ -12534,7 +12563,7 @@
       </c>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" s="8" t="s">
         <v>2452</v>
       </c>
@@ -12546,7 +12575,7 @@
       </c>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" s="8" t="s">
         <v>2453</v>
       </c>
@@ -12558,7 +12587,7 @@
       </c>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" s="8" t="s">
         <v>2454</v>
       </c>
@@ -12570,7 +12599,7 @@
       </c>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" s="8" t="s">
         <v>2455</v>
       </c>
@@ -13661,6 +13690,9 @@
       <c r="B112" s="7" t="s">
         <v>2245</v>
       </c>
+      <c r="C112" s="7" t="s">
+        <v>2245</v>
+      </c>
       <c r="D112" s="11"/>
     </row>
     <row r="113" spans="1:4">
@@ -13670,6 +13702,9 @@
       <c r="B113" s="7" t="s">
         <v>2245</v>
       </c>
+      <c r="C113" s="7" t="s">
+        <v>2245</v>
+      </c>
       <c r="D113" s="11"/>
     </row>
     <row r="114" spans="1:4">
@@ -13679,16 +13714,22 @@
       <c r="B114" s="7" t="s">
         <v>2245</v>
       </c>
+      <c r="C114" s="7" t="s">
+        <v>2245</v>
+      </c>
       <c r="D114" s="11"/>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="8" t="s">
+      <c r="A115" s="42" t="s">
         <v>2553</v>
       </c>
-      <c r="B115" s="7" t="s">
-        <v>2245</v>
-      </c>
-      <c r="D115" s="11"/>
+      <c r="B115" s="43" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C115" s="43"/>
+      <c r="D115" s="42" t="s">
+        <v>3490</v>
+      </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="8" t="s">
@@ -14320,8 +14361,8 @@
   <dimension ref="A1:H1411"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A765" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C798" sqref="C798"/>
+      <pane ySplit="6" topLeftCell="A515" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F537" sqref="F537:F564"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="11.25"/>
@@ -15305,17 +15346,26 @@
       </c>
       <c r="H59" s="20"/>
     </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="2" t="s">
+    <row r="60" spans="1:8" ht="22.5">
+      <c r="A60" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="18" t="s">
         <v>612</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="18" t="s">
         <v>1482</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="18" t="s">
+        <v>2245</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>2245</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>3506</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>2245</v>
       </c>
       <c r="H60" s="20"/>
@@ -20793,6 +20843,9 @@
       <c r="D362" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F362" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H362" s="20"/>
     </row>
     <row r="363" spans="1:8">
@@ -20808,6 +20861,9 @@
       <c r="D363" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F363" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H363" s="20"/>
     </row>
     <row r="364" spans="1:8" hidden="1">
@@ -20868,6 +20924,9 @@
       <c r="D367" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F367" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H367" s="20"/>
     </row>
     <row r="368" spans="1:8">
@@ -20883,6 +20942,9 @@
       <c r="D368" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F368" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H368" s="20"/>
     </row>
     <row r="369" spans="1:8">
@@ -20898,6 +20960,9 @@
       <c r="D369" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F369" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H369" s="20"/>
     </row>
     <row r="370" spans="1:8">
@@ -20973,6 +21038,9 @@
       <c r="D374" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F374" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H374" s="20"/>
     </row>
     <row r="375" spans="1:8">
@@ -20988,6 +21056,9 @@
       <c r="D375" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F375" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H375" s="20"/>
     </row>
     <row r="376" spans="1:8">
@@ -21003,6 +21074,9 @@
       <c r="D376" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F376" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H376" s="20"/>
     </row>
     <row r="377" spans="1:8" hidden="1">
@@ -21048,6 +21122,9 @@
       <c r="D379" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F379" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H379" s="20"/>
     </row>
     <row r="380" spans="1:8">
@@ -21063,6 +21140,9 @@
       <c r="D380" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F380" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H380" s="20"/>
     </row>
     <row r="381" spans="1:8">
@@ -21078,6 +21158,9 @@
       <c r="D381" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F381" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H381" s="20"/>
     </row>
     <row r="382" spans="1:8">
@@ -21093,6 +21176,9 @@
       <c r="D382" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F382" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H382" s="20"/>
     </row>
     <row r="383" spans="1:8" hidden="1">
@@ -21153,6 +21239,9 @@
       <c r="D386" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F386" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H386" s="20"/>
     </row>
     <row r="387" spans="1:8" hidden="1">
@@ -21183,6 +21272,9 @@
       <c r="D388" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F388" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H388" s="20"/>
     </row>
     <row r="389" spans="1:8">
@@ -21198,6 +21290,9 @@
       <c r="D389" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F389" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H389" s="20"/>
     </row>
     <row r="390" spans="1:8">
@@ -21213,6 +21308,9 @@
       <c r="D390" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F390" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H390" s="20"/>
     </row>
     <row r="391" spans="1:8">
@@ -21228,6 +21326,9 @@
       <c r="D391" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F391" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H391" s="20"/>
     </row>
     <row r="392" spans="1:8" hidden="1">
@@ -21258,6 +21359,9 @@
       <c r="D393" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F393" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H393" s="20"/>
     </row>
     <row r="394" spans="1:8">
@@ -21273,6 +21377,9 @@
       <c r="D394" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F394" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H394" s="20"/>
     </row>
     <row r="395" spans="1:8">
@@ -21288,6 +21395,9 @@
       <c r="D395" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F395" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H395" s="20"/>
     </row>
     <row r="396" spans="1:8" hidden="1">
@@ -21333,6 +21443,9 @@
       <c r="D398" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F398" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H398" s="20"/>
     </row>
     <row r="399" spans="1:8">
@@ -21348,6 +21461,9 @@
       <c r="D399" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F399" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H399" s="20"/>
     </row>
     <row r="400" spans="1:8">
@@ -21363,6 +21479,9 @@
       <c r="D400" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F400" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H400" s="20"/>
     </row>
     <row r="401" spans="1:8">
@@ -21378,6 +21497,9 @@
       <c r="D401" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F401" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H401" s="20"/>
     </row>
     <row r="402" spans="1:8">
@@ -21393,6 +21515,9 @@
       <c r="D402" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F402" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H402" s="20"/>
     </row>
     <row r="403" spans="1:8">
@@ -21408,6 +21533,9 @@
       <c r="D403" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F403" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H403" s="20"/>
     </row>
     <row r="404" spans="1:8" hidden="1">
@@ -21468,6 +21596,9 @@
       <c r="D407" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F407" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H407" s="20"/>
     </row>
     <row r="408" spans="1:8" hidden="1">
@@ -21498,6 +21629,9 @@
       <c r="D409" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F409" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H409" s="20"/>
     </row>
     <row r="410" spans="1:8" hidden="1">
@@ -21528,6 +21662,9 @@
       <c r="D411" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F411" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H411" s="20"/>
     </row>
     <row r="412" spans="1:8" hidden="1">
@@ -21558,6 +21695,9 @@
       <c r="D413" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F413" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H413" s="20"/>
     </row>
     <row r="414" spans="1:8">
@@ -21573,6 +21713,9 @@
       <c r="D414" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F414" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H414" s="20"/>
     </row>
     <row r="415" spans="1:8">
@@ -21588,6 +21731,9 @@
       <c r="D415" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F415" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H415" s="20"/>
     </row>
     <row r="416" spans="1:8">
@@ -21603,6 +21749,9 @@
       <c r="D416" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F416" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H416" s="20"/>
     </row>
     <row r="417" spans="1:8">
@@ -21618,6 +21767,9 @@
       <c r="D417" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F417" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H417" s="20"/>
     </row>
     <row r="418" spans="1:8">
@@ -21633,6 +21785,9 @@
       <c r="D418" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F418" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H418" s="20"/>
     </row>
     <row r="419" spans="1:8">
@@ -21648,6 +21803,9 @@
       <c r="D419" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F419" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H419" s="20"/>
     </row>
     <row r="420" spans="1:8" hidden="1">
@@ -21678,6 +21836,9 @@
       <c r="D421" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F421" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H421" s="20"/>
     </row>
     <row r="422" spans="1:8">
@@ -21693,6 +21854,9 @@
       <c r="D422" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F422" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H422" s="20"/>
     </row>
     <row r="423" spans="1:8">
@@ -21708,6 +21872,9 @@
       <c r="D423" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F423" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H423" s="20"/>
     </row>
     <row r="424" spans="1:8" hidden="1">
@@ -21753,6 +21920,9 @@
       <c r="D426" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F426" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H426" s="20"/>
     </row>
     <row r="427" spans="1:8">
@@ -21768,6 +21938,9 @@
       <c r="D427" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F427" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H427" s="20"/>
     </row>
     <row r="428" spans="1:8">
@@ -21783,6 +21956,9 @@
       <c r="D428" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F428" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H428" s="20"/>
     </row>
     <row r="429" spans="1:8">
@@ -21798,6 +21974,9 @@
       <c r="D429" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F429" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H429" s="20"/>
     </row>
     <row r="430" spans="1:8" hidden="1">
@@ -21858,6 +22037,9 @@
       <c r="D433" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F433" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H433" s="20"/>
     </row>
     <row r="434" spans="1:8" hidden="1">
@@ -21888,6 +22070,9 @@
       <c r="D435" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F435" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H435" s="20"/>
     </row>
     <row r="436" spans="1:8">
@@ -21903,6 +22088,9 @@
       <c r="D436" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F436" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H436" s="20"/>
     </row>
     <row r="437" spans="1:8">
@@ -21918,6 +22106,9 @@
       <c r="D437" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F437" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H437" s="20"/>
     </row>
     <row r="438" spans="1:8">
@@ -21933,6 +22124,9 @@
       <c r="D438" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F438" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H438" s="20"/>
     </row>
     <row r="439" spans="1:8" hidden="1">
@@ -21963,6 +22157,9 @@
       <c r="D440" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F440" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H440" s="20"/>
     </row>
     <row r="441" spans="1:8">
@@ -21978,6 +22175,9 @@
       <c r="D441" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F441" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H441" s="20"/>
     </row>
     <row r="442" spans="1:8">
@@ -21993,6 +22193,9 @@
       <c r="D442" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F442" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H442" s="20"/>
     </row>
     <row r="443" spans="1:8" hidden="1">
@@ -22038,6 +22241,9 @@
       <c r="D445" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F445" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H445" s="20"/>
     </row>
     <row r="446" spans="1:8">
@@ -22053,6 +22259,9 @@
       <c r="D446" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F446" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H446" s="20"/>
     </row>
     <row r="447" spans="1:8">
@@ -22068,6 +22277,9 @@
       <c r="D447" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F447" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H447" s="20"/>
     </row>
     <row r="448" spans="1:8">
@@ -22083,6 +22295,9 @@
       <c r="D448" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F448" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H448" s="20"/>
     </row>
     <row r="449" spans="1:8">
@@ -22098,6 +22313,9 @@
       <c r="D449" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F449" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H449" s="20"/>
     </row>
     <row r="450" spans="1:8">
@@ -22113,6 +22331,9 @@
       <c r="D450" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F450" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H450" s="20"/>
     </row>
     <row r="451" spans="1:8" hidden="1">
@@ -22173,6 +22394,9 @@
       <c r="D454" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F454" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H454" s="20"/>
     </row>
     <row r="455" spans="1:8" hidden="1">
@@ -22203,6 +22427,9 @@
       <c r="D456" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F456" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H456" s="20"/>
     </row>
     <row r="457" spans="1:8">
@@ -22218,6 +22445,9 @@
       <c r="D457" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F457" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H457" s="20"/>
     </row>
     <row r="458" spans="1:8" hidden="1">
@@ -22263,6 +22493,9 @@
       <c r="D460" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F460" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H460" s="20"/>
     </row>
     <row r="461" spans="1:8">
@@ -22278,6 +22511,9 @@
       <c r="D461" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F461" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H461" s="20"/>
     </row>
     <row r="462" spans="1:8">
@@ -22293,6 +22529,9 @@
       <c r="D462" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F462" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H462" s="20"/>
     </row>
     <row r="463" spans="1:8">
@@ -22308,6 +22547,9 @@
       <c r="D463" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F463" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H463" s="20"/>
     </row>
     <row r="464" spans="1:8">
@@ -22323,6 +22565,9 @@
       <c r="D464" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F464" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H464" s="20"/>
     </row>
     <row r="465" spans="1:8">
@@ -22338,6 +22583,9 @@
       <c r="D465" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F465" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H465" s="20"/>
     </row>
     <row r="466" spans="1:8">
@@ -22353,6 +22601,9 @@
       <c r="D466" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F466" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H466" s="20"/>
     </row>
     <row r="467" spans="1:8" hidden="1">
@@ -22383,6 +22634,9 @@
       <c r="D468" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F468" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H468" s="20"/>
     </row>
     <row r="469" spans="1:8">
@@ -22398,6 +22652,9 @@
       <c r="D469" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F469" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H469" s="20"/>
     </row>
     <row r="470" spans="1:8">
@@ -22413,6 +22670,9 @@
       <c r="D470" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F470" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H470" s="20"/>
     </row>
     <row r="471" spans="1:8" hidden="1">
@@ -22458,6 +22718,9 @@
       <c r="D473" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F473" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H473" s="20"/>
     </row>
     <row r="474" spans="1:8">
@@ -22473,6 +22736,9 @@
       <c r="D474" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F474" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H474" s="20"/>
     </row>
     <row r="475" spans="1:8">
@@ -22488,6 +22754,9 @@
       <c r="D475" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F475" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H475" s="20"/>
     </row>
     <row r="476" spans="1:8">
@@ -22503,6 +22772,9 @@
       <c r="D476" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F476" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H476" s="20"/>
     </row>
     <row r="477" spans="1:8" hidden="1">
@@ -22563,6 +22835,9 @@
       <c r="D480" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F480" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H480" s="20"/>
     </row>
     <row r="481" spans="1:8" hidden="1">
@@ -22593,6 +22868,9 @@
       <c r="D482" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F482" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H482" s="20"/>
     </row>
     <row r="483" spans="1:8">
@@ -22608,6 +22886,9 @@
       <c r="D483" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F483" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H483" s="20"/>
     </row>
     <row r="484" spans="1:8">
@@ -22623,6 +22904,9 @@
       <c r="D484" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F484" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H484" s="20"/>
     </row>
     <row r="485" spans="1:8">
@@ -22638,6 +22922,9 @@
       <c r="D485" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F485" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H485" s="20"/>
     </row>
     <row r="486" spans="1:8" hidden="1">
@@ -22668,6 +22955,9 @@
       <c r="D487" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F487" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H487" s="20"/>
     </row>
     <row r="488" spans="1:8">
@@ -22683,6 +22973,9 @@
       <c r="D488" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F488" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H488" s="20"/>
     </row>
     <row r="489" spans="1:8">
@@ -22698,6 +22991,9 @@
       <c r="D489" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F489" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H489" s="20"/>
     </row>
     <row r="490" spans="1:8" hidden="1">
@@ -22743,6 +23039,9 @@
       <c r="D492" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F492" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H492" s="20"/>
     </row>
     <row r="493" spans="1:8">
@@ -22758,6 +23057,9 @@
       <c r="D493" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F493" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H493" s="20"/>
     </row>
     <row r="494" spans="1:8">
@@ -22773,6 +23075,9 @@
       <c r="D494" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F494" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H494" s="20"/>
     </row>
     <row r="495" spans="1:8">
@@ -22788,6 +23093,9 @@
       <c r="D495" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F495" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H495" s="20"/>
     </row>
     <row r="496" spans="1:8" hidden="1">
@@ -22848,6 +23156,9 @@
       <c r="D499" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F499" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H499" s="20"/>
     </row>
     <row r="500" spans="1:8" hidden="1">
@@ -22878,6 +23189,9 @@
       <c r="D501" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F501" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H501" s="20"/>
     </row>
     <row r="502" spans="1:8">
@@ -22893,6 +23207,9 @@
       <c r="D502" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F502" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H502" s="20"/>
     </row>
     <row r="503" spans="1:8">
@@ -22908,6 +23225,9 @@
       <c r="D503" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F503" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H503" s="20"/>
     </row>
     <row r="504" spans="1:8">
@@ -22923,6 +23243,9 @@
       <c r="D504" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F504" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H504" s="20"/>
     </row>
     <row r="505" spans="1:8" hidden="1">
@@ -23196,7 +23519,9 @@
         <v>2245</v>
       </c>
       <c r="E517" s="3"/>
-      <c r="F517" s="3"/>
+      <c r="F517" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="G517" s="3"/>
       <c r="H517" s="20"/>
     </row>
@@ -23214,7 +23539,9 @@
         <v>2245</v>
       </c>
       <c r="E518" s="3"/>
-      <c r="F518" s="3"/>
+      <c r="F518" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="G518" s="3"/>
       <c r="H518" s="20"/>
     </row>
@@ -23232,7 +23559,9 @@
         <v>2245</v>
       </c>
       <c r="E519" s="3"/>
-      <c r="F519" s="3"/>
+      <c r="F519" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="G519" s="3"/>
       <c r="H519" s="20"/>
     </row>
@@ -23286,7 +23615,9 @@
         <v>2245</v>
       </c>
       <c r="E522" s="3"/>
-      <c r="F522" s="3"/>
+      <c r="F522" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="G522" s="3"/>
       <c r="H522" s="20"/>
     </row>
@@ -23304,7 +23635,9 @@
         <v>2245</v>
       </c>
       <c r="E523" s="3"/>
-      <c r="F523" s="3"/>
+      <c r="F523" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="G523" s="3"/>
       <c r="H523" s="20"/>
     </row>
@@ -23322,7 +23655,9 @@
         <v>2245</v>
       </c>
       <c r="E524" s="3"/>
-      <c r="F524" s="3"/>
+      <c r="F524" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="G524" s="3"/>
       <c r="H524" s="20"/>
     </row>
@@ -23340,7 +23675,9 @@
         <v>2245</v>
       </c>
       <c r="E525" s="3"/>
-      <c r="F525" s="3"/>
+      <c r="F525" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="G525" s="3"/>
       <c r="H525" s="20"/>
     </row>
@@ -23358,7 +23695,9 @@
         <v>2245</v>
       </c>
       <c r="E526" s="3"/>
-      <c r="F526" s="3"/>
+      <c r="F526" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="G526" s="3"/>
       <c r="H526" s="20"/>
     </row>
@@ -23376,7 +23715,9 @@
         <v>2245</v>
       </c>
       <c r="E527" s="3"/>
-      <c r="F527" s="3"/>
+      <c r="F527" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="G527" s="3"/>
       <c r="H527" s="20"/>
     </row>
@@ -23448,7 +23789,9 @@
         <v>2245</v>
       </c>
       <c r="E531" s="3"/>
-      <c r="F531" s="3"/>
+      <c r="F531" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="G531" s="3"/>
       <c r="H531" s="20"/>
     </row>
@@ -23484,7 +23827,9 @@
         <v>2245</v>
       </c>
       <c r="E533" s="3"/>
-      <c r="F533" s="3"/>
+      <c r="F533" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="G533" s="3"/>
       <c r="H533" s="20"/>
     </row>
@@ -23556,7 +23901,9 @@
         <v>2245</v>
       </c>
       <c r="E537" s="3"/>
-      <c r="F537" s="3"/>
+      <c r="F537" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="G537" s="3"/>
       <c r="H537" s="20"/>
     </row>
@@ -23574,7 +23921,9 @@
         <v>2245</v>
       </c>
       <c r="E538" s="3"/>
-      <c r="F538" s="3"/>
+      <c r="F538" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="G538" s="3"/>
       <c r="H538" s="20"/>
     </row>
@@ -23592,7 +23941,9 @@
         <v>2245</v>
       </c>
       <c r="E539" s="3"/>
-      <c r="F539" s="3"/>
+      <c r="F539" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="G539" s="3"/>
       <c r="H539" s="20"/>
     </row>
@@ -23610,7 +23961,9 @@
         <v>2245</v>
       </c>
       <c r="E540" s="3"/>
-      <c r="F540" s="3"/>
+      <c r="F540" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="G540" s="3"/>
       <c r="H540" s="20"/>
     </row>
@@ -23628,7 +23981,9 @@
         <v>2245</v>
       </c>
       <c r="E541" s="3"/>
-      <c r="F541" s="3"/>
+      <c r="F541" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="G541" s="3"/>
       <c r="H541" s="20"/>
     </row>
@@ -23646,7 +24001,9 @@
         <v>2245</v>
       </c>
       <c r="E542" s="3"/>
-      <c r="F542" s="3"/>
+      <c r="F542" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="G542" s="3"/>
       <c r="H542" s="20"/>
     </row>
@@ -23664,7 +24021,9 @@
         <v>2245</v>
       </c>
       <c r="E543" s="3"/>
-      <c r="F543" s="3"/>
+      <c r="F543" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="G543" s="3"/>
       <c r="H543" s="20"/>
     </row>
@@ -23699,6 +24058,9 @@
       <c r="D545" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F545" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H545" s="20"/>
     </row>
     <row r="546" spans="1:8">
@@ -23714,6 +24076,9 @@
       <c r="D546" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F546" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H546" s="20"/>
     </row>
     <row r="547" spans="1:8">
@@ -23729,6 +24094,9 @@
       <c r="D547" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F547" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H547" s="20"/>
     </row>
     <row r="548" spans="1:8">
@@ -23744,6 +24112,9 @@
       <c r="D548" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F548" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H548" s="20"/>
     </row>
     <row r="549" spans="1:8">
@@ -23759,6 +24130,9 @@
       <c r="D549" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F549" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H549" s="20"/>
     </row>
     <row r="550" spans="1:8">
@@ -23774,6 +24148,9 @@
       <c r="D550" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F550" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H550" s="20"/>
     </row>
     <row r="551" spans="1:8">
@@ -23789,6 +24166,9 @@
       <c r="D551" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F551" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H551" s="20"/>
     </row>
     <row r="552" spans="1:8">
@@ -23804,6 +24184,9 @@
       <c r="D552" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F552" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H552" s="20"/>
     </row>
     <row r="553" spans="1:8">
@@ -23819,6 +24202,9 @@
       <c r="D553" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F553" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H553" s="20"/>
     </row>
     <row r="554" spans="1:8" hidden="1">
@@ -23849,6 +24235,9 @@
       <c r="D555" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F555" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H555" s="20"/>
     </row>
     <row r="556" spans="1:8">
@@ -23864,6 +24253,9 @@
       <c r="D556" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F556" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H556" s="20"/>
     </row>
     <row r="557" spans="1:8">
@@ -23879,6 +24271,9 @@
       <c r="D557" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F557" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H557" s="20"/>
     </row>
     <row r="558" spans="1:8">
@@ -23894,6 +24289,9 @@
       <c r="D558" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F558" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H558" s="20"/>
     </row>
     <row r="559" spans="1:8">
@@ -23909,6 +24307,9 @@
       <c r="D559" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F559" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H559" s="20"/>
     </row>
     <row r="560" spans="1:8">
@@ -23924,6 +24325,9 @@
       <c r="D560" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F560" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H560" s="20"/>
     </row>
     <row r="561" spans="1:8">
@@ -23939,6 +24343,9 @@
       <c r="D561" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F561" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H561" s="20"/>
     </row>
     <row r="562" spans="1:8" hidden="1">
@@ -23969,6 +24376,9 @@
       <c r="D563" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F563" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H563" s="20"/>
     </row>
     <row r="564" spans="1:8">
@@ -23984,6 +24394,9 @@
       <c r="D564" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="F564" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H564" s="20"/>
     </row>
     <row r="565" spans="1:8" hidden="1">
@@ -27997,10 +28410,13 @@
       <c r="B798" s="2" t="s">
         <v>1074</v>
       </c>
-      <c r="C798" s="45" t="s">
+      <c r="C798" s="2" t="s">
         <v>1896</v>
       </c>
       <c r="D798" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="E798" s="1" t="s">
         <v>2245</v>
       </c>
       <c r="H798" s="20"/>
@@ -28018,6 +28434,9 @@
       <c r="D799" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E799" s="1" t="s">
+        <v>2245</v>
+      </c>
       <c r="H799" s="20"/>
     </row>
     <row r="800" spans="1:8">
@@ -28033,6 +28452,9 @@
       <c r="D800" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E800" s="1" t="s">
+        <v>2245</v>
+      </c>
       <c r="H800" s="20"/>
     </row>
     <row r="801" spans="1:8" hidden="1">
@@ -28063,6 +28485,9 @@
       <c r="D802" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E802" s="1" t="s">
+        <v>2245</v>
+      </c>
       <c r="H802" s="20"/>
     </row>
     <row r="803" spans="1:8">
@@ -28078,6 +28503,9 @@
       <c r="D803" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E803" s="1" t="s">
+        <v>2245</v>
+      </c>
       <c r="H803" s="20"/>
     </row>
     <row r="804" spans="1:8">
@@ -28093,6 +28521,9 @@
       <c r="D804" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E804" s="1" t="s">
+        <v>2245</v>
+      </c>
       <c r="H804" s="20"/>
     </row>
     <row r="805" spans="1:8">
@@ -28140,18 +28571,24 @@
       </c>
       <c r="H807" s="20"/>
     </row>
-    <row r="808" spans="1:8">
+    <row r="808" spans="1:8" ht="22.5">
       <c r="A808" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B808" s="2" t="s">
+      <c r="B808" s="18" t="s">
         <v>1081</v>
       </c>
-      <c r="C808" s="2" t="s">
+      <c r="C808" s="18" t="s">
         <v>1904</v>
       </c>
-      <c r="D808" s="2" t="s">
-        <v>2245</v>
+      <c r="D808" s="18" t="s">
+        <v>2245</v>
+      </c>
+      <c r="E808" s="19" t="s">
+        <v>2245</v>
+      </c>
+      <c r="F808" s="17" t="s">
+        <v>3505</v>
       </c>
       <c r="H808" s="20"/>
     </row>
@@ -28228,6 +28665,9 @@
       <c r="D813" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E813" s="1" t="s">
+        <v>2245</v>
+      </c>
       <c r="H813" s="20"/>
     </row>
     <row r="814" spans="1:8">
@@ -28243,6 +28683,9 @@
       <c r="D814" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E814" s="1" t="s">
+        <v>2245</v>
+      </c>
       <c r="H814" s="20"/>
     </row>
     <row r="815" spans="1:8" hidden="1">
@@ -28273,6 +28716,9 @@
       <c r="D816" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E816" s="1" t="s">
+        <v>2245</v>
+      </c>
       <c r="H816" s="20"/>
     </row>
     <row r="817" spans="1:8">
@@ -28288,6 +28734,12 @@
       <c r="D817" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E817" s="1" t="s">
+        <v>2245</v>
+      </c>
+      <c r="F817" s="1" t="s">
+        <v>3491</v>
+      </c>
       <c r="H817" s="20"/>
     </row>
     <row r="818" spans="1:8" hidden="1">
@@ -28318,6 +28770,12 @@
       <c r="D819" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E819" s="1" t="s">
+        <v>2245</v>
+      </c>
+      <c r="F819" s="1" t="s">
+        <v>3491</v>
+      </c>
       <c r="H819" s="20"/>
     </row>
     <row r="820" spans="1:8" hidden="1">
@@ -28348,6 +28806,9 @@
       <c r="D821" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E821" s="1" t="s">
+        <v>2245</v>
+      </c>
       <c r="H821" s="20"/>
     </row>
     <row r="822" spans="1:8">
@@ -28363,6 +28824,9 @@
       <c r="D822" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E822" s="1" t="s">
+        <v>2245</v>
+      </c>
       <c r="H822" s="20"/>
     </row>
     <row r="823" spans="1:8">
@@ -28378,6 +28842,9 @@
       <c r="D823" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E823" s="1" t="s">
+        <v>2245</v>
+      </c>
       <c r="H823" s="20"/>
     </row>
     <row r="824" spans="1:8">
@@ -28393,6 +28860,9 @@
       <c r="D824" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E824" s="1" t="s">
+        <v>2245</v>
+      </c>
       <c r="H824" s="20"/>
     </row>
     <row r="825" spans="1:8">
@@ -28408,6 +28878,9 @@
       <c r="D825" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E825" s="1" t="s">
+        <v>2245</v>
+      </c>
       <c r="H825" s="20"/>
     </row>
     <row r="826" spans="1:8">
@@ -28423,6 +28896,9 @@
       <c r="D826" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E826" s="1" t="s">
+        <v>2245</v>
+      </c>
       <c r="H826" s="20"/>
     </row>
     <row r="827" spans="1:8">
@@ -28438,6 +28914,12 @@
       <c r="D827" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E827" s="1" t="s">
+        <v>2245</v>
+      </c>
+      <c r="F827" s="1" t="s">
+        <v>3484</v>
+      </c>
       <c r="H827" s="20"/>
     </row>
     <row r="828" spans="1:8">
@@ -28453,6 +28935,12 @@
       <c r="D828" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E828" s="1" t="s">
+        <v>2245</v>
+      </c>
+      <c r="F828" s="1" t="s">
+        <v>3491</v>
+      </c>
       <c r="H828" s="20"/>
     </row>
     <row r="829" spans="1:8">
@@ -28468,6 +28956,12 @@
       <c r="D829" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E829" s="1" t="s">
+        <v>2245</v>
+      </c>
+      <c r="F829" s="1" t="s">
+        <v>3491</v>
+      </c>
       <c r="H829" s="20"/>
     </row>
     <row r="830" spans="1:8" hidden="1">
@@ -28513,6 +29007,9 @@
       <c r="D832" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E832" s="1" t="s">
+        <v>2245</v>
+      </c>
       <c r="H832" s="20"/>
     </row>
     <row r="833" spans="1:8">
@@ -28528,6 +29025,9 @@
       <c r="D833" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E833" s="1" t="s">
+        <v>2245</v>
+      </c>
       <c r="H833" s="20"/>
     </row>
     <row r="834" spans="1:8">
@@ -28543,6 +29043,9 @@
       <c r="D834" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E834" s="1" t="s">
+        <v>2245</v>
+      </c>
       <c r="H834" s="20"/>
     </row>
     <row r="835" spans="1:8">
@@ -28558,35 +29061,53 @@
       <c r="D835" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E835" s="1" t="s">
+        <v>2245</v>
+      </c>
       <c r="H835" s="20"/>
     </row>
-    <row r="836" spans="1:8">
-      <c r="A836" s="2" t="s">
+    <row r="836" spans="1:8" ht="22.5">
+      <c r="A836" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="B836" s="2" t="s">
+      <c r="B836" s="18" t="s">
         <v>1097</v>
       </c>
-      <c r="C836" s="2" t="s">
+      <c r="C836" s="18" t="s">
         <v>1923</v>
       </c>
-      <c r="D836" s="2" t="s">
+      <c r="D836" s="18" t="s">
+        <v>2245</v>
+      </c>
+      <c r="E836" s="19" t="s">
+        <v>2245</v>
+      </c>
+      <c r="F836" s="17" t="s">
+        <v>3507</v>
+      </c>
+      <c r="G836" s="1" t="s">
         <v>2245</v>
       </c>
       <c r="H836" s="20"/>
     </row>
-    <row r="837" spans="1:8">
-      <c r="A837" s="2" t="s">
+    <row r="837" spans="1:8" ht="22.5">
+      <c r="A837" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="B837" s="2" t="s">
+      <c r="B837" s="18" t="s">
         <v>1098</v>
       </c>
-      <c r="C837" s="2" t="s">
+      <c r="C837" s="18" t="s">
         <v>1924</v>
       </c>
-      <c r="D837" s="2" t="s">
-        <v>2245</v>
+      <c r="D837" s="18" t="s">
+        <v>2245</v>
+      </c>
+      <c r="E837" s="19" t="s">
+        <v>2245</v>
+      </c>
+      <c r="F837" s="17" t="s">
+        <v>3507</v>
       </c>
       <c r="H837" s="20"/>
     </row>

--- a/Documentação/Migração Servidores/Cosmos003/Mapeamento ETL.xlsx
+++ b/Documentação/Migração Servidores/Cosmos003/Mapeamento ETL.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="45" windowWidth="20730" windowHeight="10035" activeTab="1"/>
@@ -15,11 +15,12 @@
     <sheet name="Controle alterações" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11286" uniqueCount="3513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11316" uniqueCount="3518">
   <si>
     <t>Job</t>
   </si>
@@ -10558,6 +10559,21 @@
   </si>
   <si>
     <t>não será migrado</t>
+  </si>
+  <si>
+    <t>Existe um Script Task que prepara e envia e-mail, porém está comentado</t>
+  </si>
+  <si>
+    <t>Verificar se todas as variáveis definidas estão sendo utilizadas. Existe um Script Task que prepara e envia e-mail</t>
+  </si>
+  <si>
+    <t>Verificar se todas as variáveis definidas estão sendo utilizadas.Precisamos adaptar a configuração do Excel para 32 bits e rever as conexões com a saída dos dados para Excel</t>
+  </si>
+  <si>
+    <t>Verificar se as configurações "FTP Vale" na tabela adm.ssis_conexoes estão corretas</t>
+  </si>
+  <si>
+    <t>Rever as conexões LOJA e LOJAEX</t>
   </si>
 </sst>
 </file>
@@ -11250,11 +11266,6 @@
       <color rgb="FFFABA86"/>
     </mruColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -12411,8 +12422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H182"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C133" sqref="C133"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -13903,7 +13914,7 @@
       </c>
       <c r="D130" s="11"/>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" hidden="1">
       <c r="A131" s="8" t="s">
         <v>2569</v>
       </c>
@@ -13931,6 +13942,9 @@
       <c r="B133" s="7" t="s">
         <v>2245</v>
       </c>
+      <c r="C133" s="7" t="s">
+        <v>2245</v>
+      </c>
       <c r="D133" s="11"/>
     </row>
     <row r="134" spans="1:4">
@@ -13940,6 +13954,9 @@
       <c r="B134" s="7" t="s">
         <v>2245</v>
       </c>
+      <c r="C134" s="7" t="s">
+        <v>2245</v>
+      </c>
       <c r="D134" s="11"/>
     </row>
     <row r="135" spans="1:4">
@@ -13947,6 +13964,9 @@
         <v>2573</v>
       </c>
       <c r="B135" s="7" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C135" s="7" t="s">
         <v>2245</v>
       </c>
       <c r="D135" s="11"/>
@@ -14392,8 +14412,8 @@
   <dimension ref="A1:H1411"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A1010" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1029" sqref="C1029"/>
+      <pane ySplit="6" topLeftCell="A1037" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1055" sqref="C1055"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="11.25"/>
@@ -26809,6 +26829,12 @@
       <c r="D700" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E700" s="1" t="s">
+        <v>2245</v>
+      </c>
+      <c r="F700" s="1" t="s">
+        <v>3516</v>
+      </c>
       <c r="H700" s="20"/>
     </row>
     <row r="701" spans="1:8" hidden="1">
@@ -26839,6 +26865,9 @@
       <c r="D702" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E702" s="1" t="s">
+        <v>2245</v>
+      </c>
       <c r="H702" s="20"/>
     </row>
     <row r="703" spans="1:8">
@@ -26852,6 +26881,9 @@
         <v>1845</v>
       </c>
       <c r="D703" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="E703" s="1" t="s">
         <v>2245</v>
       </c>
       <c r="H703" s="20"/>
@@ -32172,10 +32204,13 @@
       <c r="B1029" s="2" t="s">
         <v>1217</v>
       </c>
-      <c r="C1029" s="45" t="s">
+      <c r="C1029" s="2" t="s">
         <v>2002</v>
       </c>
       <c r="D1029" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="E1029" s="1" t="s">
         <v>2245</v>
       </c>
       <c r="H1029" s="20"/>
@@ -32208,6 +32243,9 @@
       <c r="D1031" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E1031" s="1" t="s">
+        <v>2245</v>
+      </c>
       <c r="H1031" s="20"/>
     </row>
     <row r="1032" spans="1:8" hidden="1">
@@ -32238,6 +32276,9 @@
       <c r="D1033" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E1033" s="1" t="s">
+        <v>2245</v>
+      </c>
       <c r="H1033" s="20"/>
     </row>
     <row r="1034" spans="1:8" hidden="1">
@@ -32268,6 +32309,9 @@
       <c r="D1035" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E1035" s="1" t="s">
+        <v>2245</v>
+      </c>
       <c r="H1035" s="20"/>
     </row>
     <row r="1036" spans="1:8" hidden="1">
@@ -32298,22 +32342,28 @@
       <c r="D1037" s="2" t="s">
         <v>2245</v>
       </c>
-      <c r="E1037" s="1" t="s">
-        <v>2245</v>
-      </c>
       <c r="H1037" s="20"/>
     </row>
-    <row r="1038" spans="1:8">
-      <c r="A1038" s="2" t="s">
+    <row r="1038" spans="1:8" ht="22.5">
+      <c r="A1038" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="B1038" s="2" t="s">
+      <c r="B1038" s="18" t="s">
         <v>1225</v>
       </c>
-      <c r="C1038" s="2" t="s">
+      <c r="C1038" s="18" t="s">
         <v>2007</v>
       </c>
-      <c r="D1038" s="2" t="s">
+      <c r="D1038" s="18" t="s">
+        <v>2245</v>
+      </c>
+      <c r="E1038" s="19" t="s">
+        <v>2245</v>
+      </c>
+      <c r="F1038" s="17" t="s">
+        <v>3514</v>
+      </c>
+      <c r="G1038" s="1" t="s">
         <v>2245</v>
       </c>
       <c r="H1038" s="20"/>
@@ -32331,6 +32381,9 @@
       <c r="D1039" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E1039" s="1" t="s">
+        <v>2245</v>
+      </c>
       <c r="H1039" s="20"/>
     </row>
     <row r="1040" spans="1:8">
@@ -32376,6 +32429,15 @@
       <c r="D1042" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E1042" s="1" t="s">
+        <v>2245</v>
+      </c>
+      <c r="F1042" s="1" t="s">
+        <v>3513</v>
+      </c>
+      <c r="G1042" s="1" t="s">
+        <v>2245</v>
+      </c>
       <c r="H1042" s="20"/>
     </row>
     <row r="1043" spans="1:8">
@@ -32391,6 +32453,9 @@
       <c r="D1043" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E1043" s="1" t="s">
+        <v>2245</v>
+      </c>
       <c r="H1043" s="20"/>
     </row>
     <row r="1044" spans="1:8">
@@ -32406,6 +32471,9 @@
       <c r="D1044" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E1044" s="1" t="s">
+        <v>2245</v>
+      </c>
       <c r="H1044" s="20"/>
     </row>
     <row r="1045" spans="1:8">
@@ -32421,20 +32489,29 @@
       <c r="D1045" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E1045" s="1" t="s">
+        <v>2245</v>
+      </c>
       <c r="H1045" s="20"/>
     </row>
-    <row r="1046" spans="1:8">
-      <c r="A1046" s="2" t="s">
+    <row r="1046" spans="1:8" ht="33.75">
+      <c r="A1046" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="B1046" s="2" t="s">
+      <c r="B1046" s="18" t="s">
         <v>1233</v>
       </c>
-      <c r="C1046" s="2" t="s">
+      <c r="C1046" s="18" t="s">
         <v>2226</v>
       </c>
-      <c r="D1046" s="2" t="s">
-        <v>2245</v>
+      <c r="D1046" s="18" t="s">
+        <v>2245</v>
+      </c>
+      <c r="E1046" s="19" t="s">
+        <v>2245</v>
+      </c>
+      <c r="F1046" s="22" t="s">
+        <v>3515</v>
       </c>
       <c r="H1046" s="20"/>
     </row>
@@ -32466,6 +32543,10 @@
       <c r="D1048" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E1048" s="1" t="s">
+        <v>2245</v>
+      </c>
+      <c r="F1048" s="17"/>
       <c r="H1048" s="20"/>
     </row>
     <row r="1049" spans="1:8">
@@ -32481,6 +32562,9 @@
       <c r="D1049" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E1049" s="1" t="s">
+        <v>2245</v>
+      </c>
       <c r="H1049" s="20"/>
     </row>
     <row r="1050" spans="1:8">
@@ -32496,6 +32580,12 @@
       <c r="D1050" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E1050" s="1" t="s">
+        <v>2245</v>
+      </c>
+      <c r="F1050" s="1" t="s">
+        <v>3430</v>
+      </c>
       <c r="H1050" s="20"/>
     </row>
     <row r="1051" spans="1:8">
@@ -32511,6 +32601,12 @@
       <c r="D1051" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E1051" s="1" t="s">
+        <v>2245</v>
+      </c>
+      <c r="F1051" s="1" t="s">
+        <v>3430</v>
+      </c>
       <c r="H1051" s="20"/>
     </row>
     <row r="1052" spans="1:8" hidden="1">
@@ -32556,6 +32652,12 @@
       <c r="D1054" s="2" t="s">
         <v>2245</v>
       </c>
+      <c r="E1054" s="1" t="s">
+        <v>2245</v>
+      </c>
+      <c r="F1054" s="1" t="s">
+        <v>3517</v>
+      </c>
       <c r="H1054" s="20"/>
     </row>
     <row r="1055" spans="1:8">
@@ -32565,7 +32667,7 @@
       <c r="B1055" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="C1055" s="2" t="s">
+      <c r="C1055" s="45" t="s">
         <v>2018</v>
       </c>
       <c r="D1055" s="2" t="s">

--- a/Documentação/Migração Servidores/Cosmos003/Mapeamento ETL.xlsx
+++ b/Documentação/Migração Servidores/Cosmos003/Mapeamento ETL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="20730" windowHeight="10035" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="20730" windowHeight="10035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Diretorios" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13113" uniqueCount="3826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13162" uniqueCount="3831">
   <si>
     <t>Job</t>
   </si>
@@ -11501,6 +11501,21 @@
   </si>
   <si>
     <t>n/a</t>
+  </si>
+  <si>
+    <t>Verificar se todas as variáveis declaradas estão realmente sendo utilizadas. Em connection manager "Relatorio_MS", o caminho está como "\\cosmos003\w$\Operacional.....". Manteremos assim ou trocaremos para W:\Operacional....?</t>
+  </si>
+  <si>
+    <t>Verificar se todas as variáveis declaradas estão realmente sendo utilizadas. Em connection manager, a conexão "Relatorio_MS" aparentemente não está sendo utilizada. O caminho dos arquivos está como "\\cosmos003\w$\Operacional.....". Manteremos assim ou trocaremos para W:\Operacional....? Precisamos registrar o provider Microsoft.ACE.OLEDB.12.0</t>
+  </si>
+  <si>
+    <t>Verificar se todas as variáveis declaradas estão realmente sendo utilizadas. Precisamos registrar o provider Microsoft.ACE.OLEDB.12.0</t>
+  </si>
+  <si>
+    <t>o caminho do arquivo está como "\\gremio01.corp.nova\transporte$....."</t>
+  </si>
+  <si>
+    <t>verificar se todas as varáveis declaradas estão sendo utilizadas</t>
   </si>
 </sst>
 </file>
@@ -11630,7 +11645,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11689,12 +11704,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -11900,7 +11909,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -12071,31 +12080,624 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 5" xfId="1"/>
   </cellStyles>
   <dxfs count="70">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF95B3D7"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FF95B3D7"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF95B3D7"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF95B3D7"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FF95B3D7"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF95B3D7"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -12447,593 +13049,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FF95B3D7"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FF95B3D7"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FF95B3D7"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FF95B3D7"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FF95B3D7"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FF95B3D7"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -14114,37 +14129,36 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela17" displayName="Tabela17" ref="A1:K158" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela17" displayName="Tabela17" ref="A1:K158" totalsRowShown="0" headerRowDxfId="52" dataDxfId="50" headerRowBorderDxfId="51" tableBorderDxfId="49" totalsRowBorderDxfId="48">
   <autoFilter ref="A1:K158">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="10"/>
   </autoFilter>
   <sortState ref="A2:J87">
     <sortCondition ref="G1:G158"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" name="Servidor " dataDxfId="10"/>
-    <tableColumn id="2" name="Database" dataDxfId="9"/>
-    <tableColumn id="3" name="Cubo" dataDxfId="8"/>
-    <tableColumn id="4" name="Processamento Dinâmico" dataDxfId="7"/>
-    <tableColumn id="5" name="D0" dataDxfId="6"/>
-    <tableColumn id="6" name="Modificado" dataDxfId="5"/>
-    <tableColumn id="7" name="Novo Servidor" dataDxfId="4"/>
-    <tableColumn id="10" name="Nome ODC" dataDxfId="3"/>
-    <tableColumn id="9" name="ods 2007" dataDxfId="2"/>
-    <tableColumn id="8" name="odc 2013" dataDxfId="1"/>
-    <tableColumn id="11" name="Diretório do dtsx que executa o cubo" dataDxfId="0"/>
+    <tableColumn id="1" name="Servidor " dataDxfId="47"/>
+    <tableColumn id="2" name="Database" dataDxfId="46"/>
+    <tableColumn id="3" name="Cubo" dataDxfId="45"/>
+    <tableColumn id="4" name="Processamento Dinâmico" dataDxfId="44"/>
+    <tableColumn id="5" name="D0" dataDxfId="43"/>
+    <tableColumn id="6" name="Modificado" dataDxfId="42"/>
+    <tableColumn id="7" name="Novo Servidor" dataDxfId="41"/>
+    <tableColumn id="10" name="Nome ODC" dataDxfId="40"/>
+    <tableColumn id="9" name="ods 2007" dataDxfId="39"/>
+    <tableColumn id="8" name="odc 2013" dataDxfId="38"/>
+    <tableColumn id="11" name="Diretório do dtsx que executa o cubo" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela14" displayName="Tabela14" ref="A6:C329" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela14" displayName="Tabela14" ref="A6:C329" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A6:C329">
     <filterColumn colId="1">
       <filters>
@@ -14158,85 +14172,81 @@
     <sortCondition ref="B7:B848"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Job" dataDxfId="50"/>
-    <tableColumn id="3" name="Diretorio" dataDxfId="49"/>
-    <tableColumn id="4" name="Revisado" dataDxfId="48"/>
+    <tableColumn id="1" name="Job" dataDxfId="34"/>
+    <tableColumn id="3" name="Diretorio" dataDxfId="33"/>
+    <tableColumn id="4" name="Revisado" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A6:D837" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A6:D837" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A6:D837"/>
   <sortState ref="A7:D837">
     <sortCondition ref="A7:A837"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="6" name="Solução" dataDxfId="45"/>
-    <tableColumn id="1" name="Job" dataDxfId="44"/>
-    <tableColumn id="2" name="step_name" dataDxfId="43"/>
-    <tableColumn id="7" name="Dtsx" dataDxfId="42"/>
+    <tableColumn id="6" name="Solução" dataDxfId="29"/>
+    <tableColumn id="1" name="Job" dataDxfId="28"/>
+    <tableColumn id="2" name="step_name" dataDxfId="27"/>
+    <tableColumn id="7" name="Dtsx" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:E103" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
-  <autoFilter ref="A1:E103">
-    <filterColumn colId="4"/>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:E103" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A1:E103"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Cubos" dataDxfId="39"/>
-    <tableColumn id="2" name="Initial Catalog" dataDxfId="38"/>
-    <tableColumn id="3" name="Data Source Antigo" dataDxfId="37"/>
-    <tableColumn id="4" name="Data Source Atual" dataDxfId="36"/>
-    <tableColumn id="5" name="Operacional" dataDxfId="35"/>
+    <tableColumn id="1" name="Cubos" dataDxfId="23"/>
+    <tableColumn id="2" name="Initial Catalog" dataDxfId="22"/>
+    <tableColumn id="3" name="Data Source Antigo" dataDxfId="21"/>
+    <tableColumn id="4" name="Data Source Atual" dataDxfId="20"/>
+    <tableColumn id="5" name="Operacional" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela28" displayName="Tabela28" ref="A2:E10" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
-  <autoFilter ref="A2:E10">
-    <filterColumn colId="4"/>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela28" displayName="Tabela28" ref="A2:E10" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A2:E10"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Cubos" dataDxfId="32"/>
-    <tableColumn id="2" name="Initial Catalog" dataDxfId="31"/>
-    <tableColumn id="3" name="Data Source Antigo" dataDxfId="30"/>
-    <tableColumn id="4" name="Data Source Atual" dataDxfId="29"/>
-    <tableColumn id="5" name="B2BnaWeb" dataDxfId="28"/>
+    <tableColumn id="1" name="Cubos" dataDxfId="16"/>
+    <tableColumn id="2" name="Initial Catalog" dataDxfId="15"/>
+    <tableColumn id="3" name="Data Source Antigo" dataDxfId="14"/>
+    <tableColumn id="4" name="Data Source Atual" dataDxfId="13"/>
+    <tableColumn id="5" name="B2BnaWeb" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabela9" displayName="Tabela9" ref="A14:E17" totalsRowShown="0" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabela9" displayName="Tabela9" ref="A14:E17" totalsRowShown="0" tableBorderDxfId="11">
   <autoFilter ref="A14:E17"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Cubos"/>
-    <tableColumn id="2" name="Initial Catalog" dataDxfId="26"/>
-    <tableColumn id="3" name="Data Source Antigo" dataDxfId="25"/>
-    <tableColumn id="4" name="Data Source Atual" dataDxfId="24"/>
-    <tableColumn id="5" name="Leader" dataDxfId="23"/>
+    <tableColumn id="2" name="Initial Catalog" dataDxfId="10"/>
+    <tableColumn id="3" name="Data Source Antigo" dataDxfId="9"/>
+    <tableColumn id="4" name="Data Source Atual" dataDxfId="8"/>
+    <tableColumn id="5" name="Leader" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabela2811" displayName="Tabela2811" ref="A21:E29" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabela2811" displayName="Tabela2811" ref="A21:E29" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A21:E29"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Cubos" dataDxfId="20"/>
-    <tableColumn id="2" name="Initial Catalog" dataDxfId="19"/>
-    <tableColumn id="3" name="Data Source Antigo" dataDxfId="18"/>
-    <tableColumn id="4" name="Data Source Atual" dataDxfId="17"/>
-    <tableColumn id="5" name="Nike" dataDxfId="16"/>
+    <tableColumn id="1" name="Cubos" dataDxfId="4"/>
+    <tableColumn id="2" name="Initial Catalog" dataDxfId="3"/>
+    <tableColumn id="3" name="Data Source Antigo" dataDxfId="2"/>
+    <tableColumn id="4" name="Data Source Atual" dataDxfId="1"/>
+    <tableColumn id="5" name="Nike" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14529,8 +14539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H182"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="A165" sqref="A165:C165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -15881,6 +15891,9 @@
       <c r="B118" s="7" t="s">
         <v>2238</v>
       </c>
+      <c r="C118" s="7" t="s">
+        <v>2238</v>
+      </c>
       <c r="D118" s="11"/>
     </row>
     <row r="119" spans="1:4" hidden="1">
@@ -16270,6 +16283,9 @@
       <c r="B152" s="7" t="s">
         <v>2238</v>
       </c>
+      <c r="C152" s="7" t="s">
+        <v>2238</v>
+      </c>
       <c r="D152" s="11"/>
     </row>
     <row r="153" spans="1:4">
@@ -16279,6 +16295,9 @@
       <c r="B153" s="7" t="s">
         <v>2238</v>
       </c>
+      <c r="C153" s="7" t="s">
+        <v>2238</v>
+      </c>
       <c r="D153" s="11"/>
     </row>
     <row r="154" spans="1:4">
@@ -16288,6 +16307,9 @@
       <c r="B154" s="7" t="s">
         <v>2238</v>
       </c>
+      <c r="C154" s="7" t="s">
+        <v>2238</v>
+      </c>
       <c r="D154" s="11"/>
     </row>
     <row r="155" spans="1:4" hidden="1">
@@ -16306,6 +16328,9 @@
       <c r="B156" s="7" t="s">
         <v>2238</v>
       </c>
+      <c r="C156" s="7" t="s">
+        <v>2238</v>
+      </c>
       <c r="D156" s="11"/>
     </row>
     <row r="157" spans="1:4" hidden="1">
@@ -16324,6 +16349,9 @@
       <c r="B158" s="7" t="s">
         <v>2238</v>
       </c>
+      <c r="C158" s="7" t="s">
+        <v>2238</v>
+      </c>
       <c r="D158" s="11"/>
     </row>
     <row r="159" spans="1:4">
@@ -16333,6 +16361,9 @@
       <c r="B159" s="7" t="s">
         <v>2238</v>
       </c>
+      <c r="C159" s="7" t="s">
+        <v>2238</v>
+      </c>
       <c r="D159" s="11"/>
     </row>
     <row r="160" spans="1:4">
@@ -16342,6 +16373,9 @@
       <c r="B160" s="7" t="s">
         <v>2238</v>
       </c>
+      <c r="C160" s="7" t="s">
+        <v>3491</v>
+      </c>
       <c r="D160" s="11"/>
     </row>
     <row r="161" spans="1:8">
@@ -16351,6 +16385,9 @@
       <c r="B161" s="7" t="s">
         <v>2238</v>
       </c>
+      <c r="C161" s="7" t="s">
+        <v>2238</v>
+      </c>
       <c r="D161" s="11"/>
     </row>
     <row r="162" spans="1:8" hidden="1">
@@ -16369,6 +16406,9 @@
       <c r="B163" s="7" t="s">
         <v>2238</v>
       </c>
+      <c r="C163" s="7" t="s">
+        <v>2238</v>
+      </c>
       <c r="D163" s="11"/>
     </row>
     <row r="164" spans="1:8">
@@ -16376,6 +16416,9 @@
         <v>2594</v>
       </c>
       <c r="B164" s="7" t="s">
+        <v>2238</v>
+      </c>
+      <c r="C164" s="7" t="s">
         <v>2238</v>
       </c>
       <c r="D164" s="11"/>
@@ -16573,9 +16616,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1441"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A1153" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1166" sqref="C1166"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A1246" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1269" sqref="C1269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="11.25"/>
@@ -29836,6 +29879,9 @@
       <c r="D747" s="2" t="s">
         <v>2238</v>
       </c>
+      <c r="E747" s="1" t="s">
+        <v>2238</v>
+      </c>
       <c r="H747" s="16"/>
     </row>
     <row r="748" spans="1:8" hidden="1">
@@ -36818,36 +36864,45 @@
       </c>
       <c r="H1165" s="16"/>
     </row>
-    <row r="1166" spans="1:8">
-      <c r="A1166" s="2" t="s">
+    <row r="1166" spans="1:8" ht="45">
+      <c r="A1166" s="14" t="s">
         <v>422</v>
       </c>
-      <c r="B1166" s="2" t="s">
+      <c r="B1166" s="14" t="s">
         <v>1300</v>
       </c>
-      <c r="C1166" s="41" t="s">
+      <c r="C1166" s="14" t="s">
         <v>3816</v>
       </c>
-      <c r="D1166" s="2" t="s">
-        <v>2238</v>
-      </c>
-      <c r="F1166" s="1" t="s">
-        <v>3812</v>
+      <c r="D1166" s="14" t="s">
+        <v>2238</v>
+      </c>
+      <c r="E1166" s="15" t="s">
+        <v>2238</v>
+      </c>
+      <c r="F1166" s="13" t="s">
+        <v>3826</v>
       </c>
       <c r="H1166" s="16"/>
     </row>
-    <row r="1167" spans="1:8">
-      <c r="A1167" s="2" t="s">
+    <row r="1167" spans="1:8" ht="56.25">
+      <c r="A1167" s="14" t="s">
         <v>422</v>
       </c>
-      <c r="B1167" s="2" t="s">
+      <c r="B1167" s="14" t="s">
         <v>1301</v>
       </c>
-      <c r="C1167" s="2" t="s">
+      <c r="C1167" s="14" t="s">
         <v>3817</v>
       </c>
-      <c r="D1167" s="2" t="s">
-        <v>2238</v>
+      <c r="D1167" s="14" t="s">
+        <v>2238</v>
+      </c>
+      <c r="E1167" s="15" t="s">
+        <v>2238</v>
+      </c>
+      <c r="F1167" s="13" t="s">
+        <v>3827</v>
       </c>
       <c r="H1167" s="16"/>
     </row>
@@ -37242,6 +37297,9 @@
       <c r="D1188" s="2" t="s">
         <v>2238</v>
       </c>
+      <c r="E1188" s="1" t="s">
+        <v>2238</v>
+      </c>
       <c r="H1188" s="16"/>
     </row>
     <row r="1189" spans="1:8">
@@ -37257,6 +37315,9 @@
       <c r="D1189" s="2" t="s">
         <v>2238</v>
       </c>
+      <c r="E1189" s="1" t="s">
+        <v>2238</v>
+      </c>
       <c r="H1189" s="16"/>
     </row>
     <row r="1190" spans="1:8">
@@ -37383,6 +37444,9 @@
       <c r="D1196" s="2" t="s">
         <v>2238</v>
       </c>
+      <c r="E1196" s="1" t="s">
+        <v>2238</v>
+      </c>
       <c r="H1196" s="16"/>
     </row>
     <row r="1197" spans="1:8">
@@ -37398,6 +37462,9 @@
       <c r="D1197" s="2" t="s">
         <v>2238</v>
       </c>
+      <c r="E1197" s="1" t="s">
+        <v>2238</v>
+      </c>
       <c r="H1197" s="16"/>
     </row>
     <row r="1198" spans="1:8" hidden="1">
@@ -37600,6 +37667,12 @@
       <c r="D1209" s="2" t="s">
         <v>2238</v>
       </c>
+      <c r="E1209" s="1" t="s">
+        <v>2238</v>
+      </c>
+      <c r="F1209" s="1" t="s">
+        <v>3812</v>
+      </c>
       <c r="H1209" s="16"/>
     </row>
     <row r="1210" spans="1:8" hidden="1">
@@ -37617,18 +37690,24 @@
       </c>
       <c r="H1210" s="16"/>
     </row>
-    <row r="1211" spans="1:8">
-      <c r="A1211" s="2" t="s">
+    <row r="1211" spans="1:8" ht="22.5">
+      <c r="A1211" s="14" t="s">
         <v>435</v>
       </c>
-      <c r="B1211" s="2" t="s">
+      <c r="B1211" s="14" t="s">
         <v>1331</v>
       </c>
-      <c r="C1211" s="2" t="s">
+      <c r="C1211" s="14" t="s">
         <v>2225</v>
       </c>
-      <c r="D1211" s="2" t="s">
-        <v>2238</v>
+      <c r="D1211" s="14" t="s">
+        <v>2238</v>
+      </c>
+      <c r="E1211" s="15" t="s">
+        <v>2238</v>
+      </c>
+      <c r="F1211" s="13" t="s">
+        <v>3828</v>
       </c>
       <c r="H1211" s="16"/>
     </row>
@@ -37741,6 +37820,12 @@
       <c r="D1218" s="2" t="s">
         <v>2238</v>
       </c>
+      <c r="E1218" s="1" t="s">
+        <v>2238</v>
+      </c>
+      <c r="F1218" s="1" t="s">
+        <v>3409</v>
+      </c>
       <c r="H1218" s="16"/>
     </row>
     <row r="1219" spans="1:8">
@@ -37756,6 +37841,9 @@
       <c r="D1219" s="2" t="s">
         <v>2238</v>
       </c>
+      <c r="E1219" s="1" t="s">
+        <v>2238</v>
+      </c>
       <c r="H1219" s="16"/>
     </row>
     <row r="1220" spans="1:8" hidden="1">
@@ -37993,6 +38081,12 @@
       <c r="D1234" s="2" t="s">
         <v>2238</v>
       </c>
+      <c r="E1234" s="1" t="s">
+        <v>2238</v>
+      </c>
+      <c r="F1234" s="1" t="s">
+        <v>3829</v>
+      </c>
       <c r="H1234" s="16"/>
     </row>
     <row r="1235" spans="1:8">
@@ -38053,6 +38147,9 @@
       <c r="D1238" s="2" t="s">
         <v>2238</v>
       </c>
+      <c r="E1238" s="1" t="s">
+        <v>2238</v>
+      </c>
       <c r="H1238" s="16"/>
     </row>
     <row r="1239" spans="1:8">
@@ -38068,6 +38165,9 @@
       <c r="D1239" s="2" t="s">
         <v>2238</v>
       </c>
+      <c r="E1239" s="1" t="s">
+        <v>2238</v>
+      </c>
       <c r="H1239" s="16"/>
     </row>
     <row r="1240" spans="1:8">
@@ -38083,6 +38183,12 @@
       <c r="D1240" s="2" t="s">
         <v>2238</v>
       </c>
+      <c r="E1240" s="1" t="s">
+        <v>2238</v>
+      </c>
+      <c r="F1240" s="1" t="s">
+        <v>3483</v>
+      </c>
       <c r="H1240" s="16"/>
     </row>
     <row r="1241" spans="1:8" hidden="1">
@@ -38383,6 +38489,12 @@
       <c r="D1258" s="2" t="s">
         <v>2238</v>
       </c>
+      <c r="E1258" s="1" t="s">
+        <v>2238</v>
+      </c>
+      <c r="F1258" s="1" t="s">
+        <v>3830</v>
+      </c>
       <c r="H1258" s="16"/>
     </row>
     <row r="1259" spans="1:8" hidden="1">
@@ -38413,6 +38525,12 @@
       <c r="D1260" s="2" t="s">
         <v>2238</v>
       </c>
+      <c r="E1260" s="1" t="s">
+        <v>2238</v>
+      </c>
+      <c r="F1260" s="1" t="s">
+        <v>3830</v>
+      </c>
       <c r="H1260" s="16"/>
     </row>
     <row r="1261" spans="1:8">
@@ -38422,7 +38540,7 @@
       <c r="B1261" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="C1261" s="2" t="s">
+      <c r="C1261" s="41" t="s">
         <v>2133</v>
       </c>
       <c r="D1261" s="2" t="s">
@@ -38501,6 +38619,9 @@
         <v>2136</v>
       </c>
       <c r="D1266" s="2" t="s">
+        <v>2238</v>
+      </c>
+      <c r="E1266" s="1" t="s">
         <v>2238</v>
       </c>
       <c r="H1266" s="16"/>
@@ -41263,8 +41384,8 @@
   </sheetPr>
   <dimension ref="A1:K158"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H105" workbookViewId="0">
-      <selection activeCell="K131" sqref="K131"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -41337,7 +41458,7 @@
       <c r="H2" s="71"/>
       <c r="I2" s="71"/>
       <c r="J2" s="71"/>
-      <c r="K2" s="89"/>
+      <c r="K2" s="87"/>
     </row>
     <row r="3" spans="1:11" hidden="1">
       <c r="A3" s="64" t="s">
@@ -41358,7 +41479,7 @@
       <c r="H3" s="66"/>
       <c r="I3" s="66"/>
       <c r="J3" s="66"/>
-      <c r="K3" s="89"/>
+      <c r="K3" s="87"/>
     </row>
     <row r="4" spans="1:11" hidden="1">
       <c r="A4" s="64" t="s">
@@ -41379,7 +41500,7 @@
       <c r="H4" s="66"/>
       <c r="I4" s="66"/>
       <c r="J4" s="66"/>
-      <c r="K4" s="89"/>
+      <c r="K4" s="87"/>
     </row>
     <row r="5" spans="1:11" hidden="1">
       <c r="A5" s="64" t="s">
@@ -41400,7 +41521,7 @@
       <c r="H5" s="66"/>
       <c r="I5" s="66"/>
       <c r="J5" s="66"/>
-      <c r="K5" s="89"/>
+      <c r="K5" s="87"/>
     </row>
     <row r="6" spans="1:11" hidden="1">
       <c r="A6" s="64" t="s">
@@ -41421,7 +41542,7 @@
       <c r="H6" s="66"/>
       <c r="I6" s="66"/>
       <c r="J6" s="66"/>
-      <c r="K6" s="89"/>
+      <c r="K6" s="87"/>
     </row>
     <row r="7" spans="1:11" hidden="1">
       <c r="A7" s="64" t="s">
@@ -41442,7 +41563,7 @@
       <c r="H7" s="66"/>
       <c r="I7" s="66"/>
       <c r="J7" s="66"/>
-      <c r="K7" s="89"/>
+      <c r="K7" s="87"/>
     </row>
     <row r="8" spans="1:11" hidden="1">
       <c r="A8" s="64" t="s">
@@ -41463,7 +41584,7 @@
       <c r="H8" s="66"/>
       <c r="I8" s="66"/>
       <c r="J8" s="66"/>
-      <c r="K8" s="89"/>
+      <c r="K8" s="87"/>
     </row>
     <row r="9" spans="1:11" hidden="1">
       <c r="A9" s="64" t="s">
@@ -41484,7 +41605,7 @@
       <c r="H9" s="66"/>
       <c r="I9" s="66"/>
       <c r="J9" s="66"/>
-      <c r="K9" s="89"/>
+      <c r="K9" s="87"/>
     </row>
     <row r="10" spans="1:11" hidden="1">
       <c r="A10" s="64" t="s">
@@ -41505,7 +41626,7 @@
       <c r="H10" s="66"/>
       <c r="I10" s="66"/>
       <c r="J10" s="66"/>
-      <c r="K10" s="89"/>
+      <c r="K10" s="87"/>
     </row>
     <row r="11" spans="1:11" hidden="1">
       <c r="A11" s="64" t="s">
@@ -41526,7 +41647,7 @@
       <c r="H11" s="66"/>
       <c r="I11" s="66"/>
       <c r="J11" s="66"/>
-      <c r="K11" s="89"/>
+      <c r="K11" s="87"/>
     </row>
     <row r="12" spans="1:11" hidden="1">
       <c r="A12" s="64" t="s">
@@ -41547,7 +41668,7 @@
       <c r="H12" s="66"/>
       <c r="I12" s="66"/>
       <c r="J12" s="66"/>
-      <c r="K12" s="89"/>
+      <c r="K12" s="87"/>
     </row>
     <row r="13" spans="1:11" hidden="1">
       <c r="A13" s="64" t="s">
@@ -41568,7 +41689,7 @@
       <c r="H13" s="66"/>
       <c r="I13" s="66"/>
       <c r="J13" s="66"/>
-      <c r="K13" s="89"/>
+      <c r="K13" s="87"/>
     </row>
     <row r="14" spans="1:11" hidden="1">
       <c r="A14" s="64" t="s">
@@ -41589,7 +41710,7 @@
       <c r="H14" s="66"/>
       <c r="I14" s="66"/>
       <c r="J14" s="66"/>
-      <c r="K14" s="89"/>
+      <c r="K14" s="87"/>
     </row>
     <row r="15" spans="1:11" hidden="1">
       <c r="A15" s="64" t="s">
@@ -41610,7 +41731,7 @@
       <c r="H15" s="66"/>
       <c r="I15" s="66"/>
       <c r="J15" s="66"/>
-      <c r="K15" s="89"/>
+      <c r="K15" s="87"/>
     </row>
     <row r="16" spans="1:11" hidden="1">
       <c r="A16" s="64" t="s">
@@ -41631,7 +41752,7 @@
       <c r="H16" s="66"/>
       <c r="I16" s="66"/>
       <c r="J16" s="66"/>
-      <c r="K16" s="89"/>
+      <c r="K16" s="87"/>
     </row>
     <row r="17" spans="1:11" hidden="1">
       <c r="A17" s="64" t="s">
@@ -41652,7 +41773,7 @@
       <c r="H17" s="66"/>
       <c r="I17" s="66"/>
       <c r="J17" s="66"/>
-      <c r="K17" s="89"/>
+      <c r="K17" s="87"/>
     </row>
     <row r="18" spans="1:11" hidden="1">
       <c r="A18" s="64" t="s">
@@ -41673,7 +41794,7 @@
       <c r="H18" s="66"/>
       <c r="I18" s="66"/>
       <c r="J18" s="66"/>
-      <c r="K18" s="89"/>
+      <c r="K18" s="87"/>
     </row>
     <row r="19" spans="1:11" hidden="1">
       <c r="A19" s="64" t="s">
@@ -41694,7 +41815,7 @@
       <c r="H19" s="66"/>
       <c r="I19" s="66"/>
       <c r="J19" s="66"/>
-      <c r="K19" s="89"/>
+      <c r="K19" s="87"/>
     </row>
     <row r="20" spans="1:11" hidden="1">
       <c r="A20" s="64" t="s">
@@ -41715,7 +41836,7 @@
       <c r="H20" s="66"/>
       <c r="I20" s="66"/>
       <c r="J20" s="66"/>
-      <c r="K20" s="89"/>
+      <c r="K20" s="87"/>
     </row>
     <row r="21" spans="1:11" hidden="1">
       <c r="A21" s="64" t="s">
@@ -41736,7 +41857,7 @@
       <c r="H21" s="66"/>
       <c r="I21" s="66"/>
       <c r="J21" s="66"/>
-      <c r="K21" s="89"/>
+      <c r="K21" s="87"/>
     </row>
     <row r="22" spans="1:11" hidden="1">
       <c r="A22" s="64" t="s">
@@ -41757,7 +41878,7 @@
       <c r="H22" s="66"/>
       <c r="I22" s="66"/>
       <c r="J22" s="66"/>
-      <c r="K22" s="89"/>
+      <c r="K22" s="87"/>
     </row>
     <row r="23" spans="1:11" hidden="1">
       <c r="A23" s="64" t="s">
@@ -41778,7 +41899,7 @@
       <c r="H23" s="66"/>
       <c r="I23" s="66"/>
       <c r="J23" s="66"/>
-      <c r="K23" s="89"/>
+      <c r="K23" s="87"/>
     </row>
     <row r="24" spans="1:11" hidden="1">
       <c r="A24" s="64" t="s">
@@ -41799,7 +41920,7 @@
       <c r="H24" s="66"/>
       <c r="I24" s="66"/>
       <c r="J24" s="66"/>
-      <c r="K24" s="89"/>
+      <c r="K24" s="87"/>
     </row>
     <row r="25" spans="1:11" hidden="1">
       <c r="A25" s="64" t="s">
@@ -41820,7 +41941,7 @@
       <c r="H25" s="66"/>
       <c r="I25" s="66"/>
       <c r="J25" s="66"/>
-      <c r="K25" s="89"/>
+      <c r="K25" s="87"/>
     </row>
     <row r="26" spans="1:11" hidden="1">
       <c r="A26" s="64" t="s">
@@ -41841,7 +41962,7 @@
       <c r="H26" s="66"/>
       <c r="I26" s="66"/>
       <c r="J26" s="66"/>
-      <c r="K26" s="89"/>
+      <c r="K26" s="87"/>
     </row>
     <row r="27" spans="1:11" hidden="1">
       <c r="A27" s="64" t="s">
@@ -41862,7 +41983,7 @@
       <c r="H27" s="66"/>
       <c r="I27" s="66"/>
       <c r="J27" s="66"/>
-      <c r="K27" s="89"/>
+      <c r="K27" s="87"/>
     </row>
     <row r="28" spans="1:11" hidden="1">
       <c r="A28" s="64" t="s">
@@ -41883,7 +42004,7 @@
       <c r="H28" s="66"/>
       <c r="I28" s="66"/>
       <c r="J28" s="66"/>
-      <c r="K28" s="89"/>
+      <c r="K28" s="87"/>
     </row>
     <row r="29" spans="1:11" hidden="1">
       <c r="A29" s="64" t="s">
@@ -41904,7 +42025,7 @@
       <c r="H29" s="66"/>
       <c r="I29" s="66"/>
       <c r="J29" s="66"/>
-      <c r="K29" s="89"/>
+      <c r="K29" s="87"/>
     </row>
     <row r="30" spans="1:11" hidden="1">
       <c r="A30" s="64" t="s">
@@ -41925,7 +42046,7 @@
       <c r="H30" s="66"/>
       <c r="I30" s="66"/>
       <c r="J30" s="66"/>
-      <c r="K30" s="89"/>
+      <c r="K30" s="87"/>
     </row>
     <row r="31" spans="1:11" hidden="1">
       <c r="A31" s="64" t="s">
@@ -41946,7 +42067,7 @@
       <c r="H31" s="66"/>
       <c r="I31" s="66"/>
       <c r="J31" s="66"/>
-      <c r="K31" s="89"/>
+      <c r="K31" s="87"/>
     </row>
     <row r="32" spans="1:11" hidden="1">
       <c r="A32" s="64" t="s">
@@ -41967,7 +42088,7 @@
       <c r="H32" s="66"/>
       <c r="I32" s="66"/>
       <c r="J32" s="66"/>
-      <c r="K32" s="89"/>
+      <c r="K32" s="87"/>
     </row>
     <row r="33" spans="1:11" hidden="1">
       <c r="A33" s="64" t="s">
@@ -41988,7 +42109,7 @@
       <c r="H33" s="66"/>
       <c r="I33" s="66"/>
       <c r="J33" s="66"/>
-      <c r="K33" s="89"/>
+      <c r="K33" s="87"/>
     </row>
     <row r="34" spans="1:11" hidden="1">
       <c r="A34" s="64" t="s">
@@ -42009,7 +42130,7 @@
       <c r="H34" s="66"/>
       <c r="I34" s="66"/>
       <c r="J34" s="66"/>
-      <c r="K34" s="89"/>
+      <c r="K34" s="87"/>
     </row>
     <row r="35" spans="1:11" hidden="1">
       <c r="A35" s="64" t="s">
@@ -42030,7 +42151,7 @@
       <c r="H35" s="66"/>
       <c r="I35" s="66"/>
       <c r="J35" s="66"/>
-      <c r="K35" s="89"/>
+      <c r="K35" s="87"/>
     </row>
     <row r="36" spans="1:11" hidden="1">
       <c r="A36" s="64" t="s">
@@ -42051,7 +42172,7 @@
       <c r="H36" s="66"/>
       <c r="I36" s="66"/>
       <c r="J36" s="66"/>
-      <c r="K36" s="89"/>
+      <c r="K36" s="87"/>
     </row>
     <row r="37" spans="1:11" hidden="1">
       <c r="A37" s="64" t="s">
@@ -42072,7 +42193,7 @@
       <c r="H37" s="66"/>
       <c r="I37" s="66"/>
       <c r="J37" s="66"/>
-      <c r="K37" s="89"/>
+      <c r="K37" s="87"/>
     </row>
     <row r="38" spans="1:11" hidden="1">
       <c r="A38" s="64" t="s">
@@ -42093,7 +42214,7 @@
       <c r="H38" s="66"/>
       <c r="I38" s="66"/>
       <c r="J38" s="66"/>
-      <c r="K38" s="89"/>
+      <c r="K38" s="87"/>
     </row>
     <row r="39" spans="1:11" hidden="1">
       <c r="A39" s="64" t="s">
@@ -42114,7 +42235,7 @@
       <c r="H39" s="66"/>
       <c r="I39" s="66"/>
       <c r="J39" s="66"/>
-      <c r="K39" s="89"/>
+      <c r="K39" s="87"/>
     </row>
     <row r="40" spans="1:11" hidden="1">
       <c r="A40" s="64" t="s">
@@ -42135,7 +42256,7 @@
       <c r="H40" s="66"/>
       <c r="I40" s="66"/>
       <c r="J40" s="66"/>
-      <c r="K40" s="89"/>
+      <c r="K40" s="87"/>
     </row>
     <row r="41" spans="1:11" hidden="1">
       <c r="A41" s="64" t="s">
@@ -42156,7 +42277,7 @@
       <c r="H41" s="66"/>
       <c r="I41" s="66"/>
       <c r="J41" s="66"/>
-      <c r="K41" s="89"/>
+      <c r="K41" s="87"/>
     </row>
     <row r="42" spans="1:11" hidden="1">
       <c r="A42" s="64" t="s">
@@ -42177,7 +42298,7 @@
       <c r="H42" s="66"/>
       <c r="I42" s="66"/>
       <c r="J42" s="66"/>
-      <c r="K42" s="89"/>
+      <c r="K42" s="87"/>
     </row>
     <row r="43" spans="1:11" hidden="1">
       <c r="A43" s="64" t="s">
@@ -42198,7 +42319,7 @@
       <c r="H43" s="66"/>
       <c r="I43" s="66"/>
       <c r="J43" s="66"/>
-      <c r="K43" s="89"/>
+      <c r="K43" s="87"/>
     </row>
     <row r="44" spans="1:11" hidden="1">
       <c r="A44" s="64" t="s">
@@ -42219,7 +42340,7 @@
       <c r="H44" s="66"/>
       <c r="I44" s="66"/>
       <c r="J44" s="66"/>
-      <c r="K44" s="89"/>
+      <c r="K44" s="87"/>
     </row>
     <row r="45" spans="1:11" hidden="1">
       <c r="A45" s="64" t="s">
@@ -42240,7 +42361,7 @@
       <c r="H45" s="66"/>
       <c r="I45" s="66"/>
       <c r="J45" s="66"/>
-      <c r="K45" s="89"/>
+      <c r="K45" s="87"/>
     </row>
     <row r="46" spans="1:11" hidden="1">
       <c r="A46" s="64" t="s">
@@ -42261,7 +42382,7 @@
       <c r="H46" s="66"/>
       <c r="I46" s="66"/>
       <c r="J46" s="66"/>
-      <c r="K46" s="89"/>
+      <c r="K46" s="87"/>
     </row>
     <row r="47" spans="1:11" hidden="1">
       <c r="A47" s="64" t="s">
@@ -42282,7 +42403,7 @@
       <c r="H47" s="66"/>
       <c r="I47" s="66"/>
       <c r="J47" s="66"/>
-      <c r="K47" s="89"/>
+      <c r="K47" s="87"/>
     </row>
     <row r="48" spans="1:11" hidden="1">
       <c r="A48" s="64" t="s">
@@ -42303,7 +42424,7 @@
       <c r="H48" s="66"/>
       <c r="I48" s="66"/>
       <c r="J48" s="66"/>
-      <c r="K48" s="89"/>
+      <c r="K48" s="87"/>
     </row>
     <row r="49" spans="1:11" hidden="1">
       <c r="A49" s="64" t="s">
@@ -42324,7 +42445,7 @@
       <c r="H49" s="66"/>
       <c r="I49" s="66"/>
       <c r="J49" s="66"/>
-      <c r="K49" s="89"/>
+      <c r="K49" s="87"/>
     </row>
     <row r="50" spans="1:11" hidden="1">
       <c r="A50" s="64" t="s">
@@ -42345,7 +42466,7 @@
       <c r="H50" s="66"/>
       <c r="I50" s="66"/>
       <c r="J50" s="66"/>
-      <c r="K50" s="89"/>
+      <c r="K50" s="87"/>
     </row>
     <row r="51" spans="1:11" hidden="1">
       <c r="A51" s="64" t="s">
@@ -42366,7 +42487,7 @@
       <c r="H51" s="66"/>
       <c r="I51" s="66"/>
       <c r="J51" s="66"/>
-      <c r="K51" s="89"/>
+      <c r="K51" s="87"/>
     </row>
     <row r="52" spans="1:11" hidden="1">
       <c r="A52" s="64" t="s">
@@ -42387,7 +42508,7 @@
       <c r="H52" s="66"/>
       <c r="I52" s="66"/>
       <c r="J52" s="66"/>
-      <c r="K52" s="89"/>
+      <c r="K52" s="87"/>
     </row>
     <row r="53" spans="1:11" hidden="1">
       <c r="A53" s="64" t="s">
@@ -42408,7 +42529,7 @@
       <c r="H53" s="66"/>
       <c r="I53" s="66"/>
       <c r="J53" s="66"/>
-      <c r="K53" s="89"/>
+      <c r="K53" s="87"/>
     </row>
     <row r="54" spans="1:11" hidden="1">
       <c r="A54" s="64" t="s">
@@ -42429,7 +42550,7 @@
       <c r="H54" s="66"/>
       <c r="I54" s="66"/>
       <c r="J54" s="66"/>
-      <c r="K54" s="89"/>
+      <c r="K54" s="87"/>
     </row>
     <row r="55" spans="1:11" hidden="1">
       <c r="A55" s="64" t="s">
@@ -42450,7 +42571,7 @@
       <c r="H55" s="66"/>
       <c r="I55" s="66"/>
       <c r="J55" s="66"/>
-      <c r="K55" s="89"/>
+      <c r="K55" s="87"/>
     </row>
     <row r="56" spans="1:11" hidden="1">
       <c r="A56" s="64" t="s">
@@ -42471,7 +42592,7 @@
       <c r="H56" s="66"/>
       <c r="I56" s="66"/>
       <c r="J56" s="66"/>
-      <c r="K56" s="89"/>
+      <c r="K56" s="87"/>
     </row>
     <row r="57" spans="1:11" hidden="1">
       <c r="A57" s="64" t="s">
@@ -42492,7 +42613,7 @@
       <c r="H57" s="66"/>
       <c r="I57" s="66"/>
       <c r="J57" s="66"/>
-      <c r="K57" s="89"/>
+      <c r="K57" s="87"/>
     </row>
     <row r="58" spans="1:11" hidden="1">
       <c r="A58" s="64" t="s">
@@ -42513,7 +42634,7 @@
       <c r="H58" s="66"/>
       <c r="I58" s="66"/>
       <c r="J58" s="66"/>
-      <c r="K58" s="89"/>
+      <c r="K58" s="87"/>
     </row>
     <row r="59" spans="1:11" hidden="1">
       <c r="A59" s="64" t="s">
@@ -42534,7 +42655,7 @@
       <c r="H59" s="66"/>
       <c r="I59" s="66"/>
       <c r="J59" s="66"/>
-      <c r="K59" s="89"/>
+      <c r="K59" s="87"/>
     </row>
     <row r="60" spans="1:11" hidden="1">
       <c r="A60" s="64" t="s">
@@ -42555,7 +42676,7 @@
       <c r="H60" s="66"/>
       <c r="I60" s="66"/>
       <c r="J60" s="66"/>
-      <c r="K60" s="89"/>
+      <c r="K60" s="87"/>
     </row>
     <row r="61" spans="1:11" hidden="1">
       <c r="A61" s="64" t="s">
@@ -42576,7 +42697,7 @@
       <c r="H61" s="66"/>
       <c r="I61" s="66"/>
       <c r="J61" s="66"/>
-      <c r="K61" s="89"/>
+      <c r="K61" s="87"/>
     </row>
     <row r="62" spans="1:11" hidden="1">
       <c r="A62" s="64" t="s">
@@ -42597,7 +42718,7 @@
       <c r="H62" s="66"/>
       <c r="I62" s="66"/>
       <c r="J62" s="66"/>
-      <c r="K62" s="89"/>
+      <c r="K62" s="87"/>
     </row>
     <row r="63" spans="1:11" hidden="1">
       <c r="A63" s="64" t="s">
@@ -42618,7 +42739,7 @@
       <c r="H63" s="66"/>
       <c r="I63" s="66"/>
       <c r="J63" s="66"/>
-      <c r="K63" s="89"/>
+      <c r="K63" s="87"/>
     </row>
     <row r="64" spans="1:11" hidden="1">
       <c r="A64" s="64" t="s">
@@ -42639,7 +42760,7 @@
       <c r="H64" s="66"/>
       <c r="I64" s="66"/>
       <c r="J64" s="66"/>
-      <c r="K64" s="89"/>
+      <c r="K64" s="87"/>
     </row>
     <row r="65" spans="1:11" hidden="1">
       <c r="A65" s="64" t="s">
@@ -42660,7 +42781,7 @@
       <c r="H65" s="66"/>
       <c r="I65" s="66"/>
       <c r="J65" s="66"/>
-      <c r="K65" s="89"/>
+      <c r="K65" s="87"/>
     </row>
     <row r="66" spans="1:11" hidden="1">
       <c r="A66" s="64" t="s">
@@ -42681,7 +42802,7 @@
       <c r="H66" s="66"/>
       <c r="I66" s="66"/>
       <c r="J66" s="66"/>
-      <c r="K66" s="89"/>
+      <c r="K66" s="87"/>
     </row>
     <row r="67" spans="1:11" hidden="1">
       <c r="A67" s="64" t="s">
@@ -42702,7 +42823,7 @@
       <c r="H67" s="66"/>
       <c r="I67" s="66"/>
       <c r="J67" s="66"/>
-      <c r="K67" s="89"/>
+      <c r="K67" s="87"/>
     </row>
     <row r="68" spans="1:11" hidden="1">
       <c r="A68" s="64" t="s">
@@ -42723,7 +42844,7 @@
       <c r="H68" s="66"/>
       <c r="I68" s="66"/>
       <c r="J68" s="66"/>
-      <c r="K68" s="89"/>
+      <c r="K68" s="87"/>
     </row>
     <row r="69" spans="1:11" hidden="1">
       <c r="A69" s="64" t="s">
@@ -42744,7 +42865,7 @@
       <c r="H69" s="66"/>
       <c r="I69" s="66"/>
       <c r="J69" s="66"/>
-      <c r="K69" s="89"/>
+      <c r="K69" s="87"/>
     </row>
     <row r="70" spans="1:11" hidden="1">
       <c r="A70" s="64" t="s">
@@ -42765,7 +42886,7 @@
       <c r="H70" s="66"/>
       <c r="I70" s="66"/>
       <c r="J70" s="66"/>
-      <c r="K70" s="89"/>
+      <c r="K70" s="87"/>
     </row>
     <row r="71" spans="1:11" hidden="1">
       <c r="A71" s="64" t="s">
@@ -42786,7 +42907,7 @@
       <c r="H71" s="66"/>
       <c r="I71" s="66"/>
       <c r="J71" s="66"/>
-      <c r="K71" s="89"/>
+      <c r="K71" s="87"/>
     </row>
     <row r="72" spans="1:11" hidden="1">
       <c r="A72" s="64" t="s">
@@ -42807,16 +42928,16 @@
       <c r="H72" s="66"/>
       <c r="I72" s="66"/>
       <c r="J72" s="66"/>
-      <c r="K72" s="89"/>
+      <c r="K72" s="87"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="93" t="s">
+      <c r="A73" s="91" t="s">
         <v>3527</v>
       </c>
       <c r="B73" s="85" t="s">
         <v>3532</v>
       </c>
-      <c r="C73" s="94" t="s">
+      <c r="C73" s="92" t="s">
         <v>2493</v>
       </c>
       <c r="D73" s="66" t="s">
@@ -42824,15 +42945,15 @@
       </c>
       <c r="E73" s="66"/>
       <c r="F73" s="66"/>
-      <c r="G73" s="94" t="s">
+      <c r="G73" s="92" t="s">
         <v>3533</v>
       </c>
-      <c r="H73" s="88" t="s">
+      <c r="H73" s="86" t="s">
         <v>3813</v>
       </c>
       <c r="I73" s="85"/>
       <c r="J73" s="85"/>
-      <c r="K73" s="90"/>
+      <c r="K73" s="88"/>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="64" t="s">
@@ -42858,7 +42979,9 @@
       <c r="I74" s="65" t="s">
         <v>3746</v>
       </c>
-      <c r="J74" s="87"/>
+      <c r="J74" s="65" t="s">
+        <v>3746</v>
+      </c>
       <c r="K74" s="66" t="s">
         <v>1793</v>
       </c>
@@ -42887,7 +43010,9 @@
       <c r="I75" s="65" t="s">
         <v>3746</v>
       </c>
-      <c r="J75" s="87"/>
+      <c r="J75" s="65" t="s">
+        <v>3746</v>
+      </c>
       <c r="K75" s="66" t="s">
         <v>3455</v>
       </c>
@@ -42918,8 +43043,10 @@
       <c r="I76" s="65" t="s">
         <v>3746</v>
       </c>
-      <c r="J76" s="87"/>
-      <c r="K76" s="95" t="s">
+      <c r="J76" s="65" t="s">
+        <v>3746</v>
+      </c>
+      <c r="K76" s="93" t="s">
         <v>1803</v>
       </c>
     </row>
@@ -42949,8 +43076,10 @@
       <c r="I77" s="65" t="s">
         <v>3746</v>
       </c>
-      <c r="J77" s="87"/>
-      <c r="K77" s="95" t="s">
+      <c r="J77" s="65" t="s">
+        <v>3746</v>
+      </c>
+      <c r="K77" s="93" t="s">
         <v>1806</v>
       </c>
     </row>
@@ -42978,7 +43107,9 @@
       <c r="I78" s="65" t="s">
         <v>3746</v>
       </c>
-      <c r="J78" s="87"/>
+      <c r="J78" s="65" t="s">
+        <v>3746</v>
+      </c>
       <c r="K78" s="66" t="s">
         <v>1853</v>
       </c>
@@ -43007,7 +43138,9 @@
       <c r="I79" s="65" t="s">
         <v>3746</v>
       </c>
-      <c r="J79" s="87"/>
+      <c r="J79" s="65" t="s">
+        <v>3746</v>
+      </c>
       <c r="K79" s="66" t="s">
         <v>1864</v>
       </c>
@@ -43038,19 +43171,21 @@
       <c r="I80" s="65" t="s">
         <v>3746</v>
       </c>
-      <c r="J80" s="87"/>
-      <c r="K80" s="95" t="s">
+      <c r="J80" s="65" t="s">
+        <v>3746</v>
+      </c>
+      <c r="K80" s="93" t="s">
         <v>3823</v>
       </c>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="93" t="s">
+      <c r="A81" s="91" t="s">
         <v>3527</v>
       </c>
       <c r="B81" s="85" t="s">
         <v>3532</v>
       </c>
-      <c r="C81" s="94" t="s">
+      <c r="C81" s="92" t="s">
         <v>3699</v>
       </c>
       <c r="D81" s="66" t="s">
@@ -43060,26 +43195,26 @@
       <c r="F81" s="66" t="s">
         <v>3696</v>
       </c>
-      <c r="G81" s="94" t="s">
+      <c r="G81" s="92" t="s">
         <v>3533</v>
       </c>
-      <c r="H81" s="88" t="s">
+      <c r="H81" s="86" t="s">
         <v>3813</v>
       </c>
       <c r="I81" s="85"/>
       <c r="J81" s="85"/>
-      <c r="K81" s="95" t="s">
+      <c r="K81" s="93" t="s">
         <v>3820</v>
       </c>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="93" t="s">
+      <c r="A82" s="96" t="s">
         <v>3527</v>
       </c>
-      <c r="B82" s="85" t="s">
+      <c r="B82" s="97" t="s">
         <v>3532</v>
       </c>
-      <c r="C82" s="94" t="s">
+      <c r="C82" s="72" t="s">
         <v>3700</v>
       </c>
       <c r="D82" s="66" t="s">
@@ -43089,26 +43224,28 @@
       <c r="F82" s="66" t="s">
         <v>3696</v>
       </c>
-      <c r="G82" s="94" t="s">
+      <c r="G82" s="72" t="s">
         <v>3533</v>
       </c>
-      <c r="H82" s="88" t="s">
-        <v>3813</v>
-      </c>
-      <c r="I82" s="85"/>
-      <c r="J82" s="85"/>
-      <c r="K82" s="95" t="s">
+      <c r="H82" s="98" t="s">
+        <v>3700</v>
+      </c>
+      <c r="I82" s="65" t="s">
+        <v>3746</v>
+      </c>
+      <c r="J82" s="97"/>
+      <c r="K82" s="93" t="s">
         <v>3822</v>
       </c>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="93" t="s">
+      <c r="A83" s="96" t="s">
         <v>3527</v>
       </c>
-      <c r="B83" s="85" t="s">
+      <c r="B83" s="97" t="s">
         <v>3532</v>
       </c>
-      <c r="C83" s="94" t="s">
+      <c r="C83" s="72" t="s">
         <v>3701</v>
       </c>
       <c r="D83" s="66" t="s">
@@ -43118,15 +43255,17 @@
       <c r="F83" s="66" t="s">
         <v>3696</v>
       </c>
-      <c r="G83" s="94" t="s">
+      <c r="G83" s="72" t="s">
         <v>3533</v>
       </c>
-      <c r="H83" s="88" t="s">
-        <v>3813</v>
-      </c>
-      <c r="I83" s="85"/>
-      <c r="J83" s="85"/>
-      <c r="K83" s="95" t="s">
+      <c r="H83" s="98" t="s">
+        <v>3741</v>
+      </c>
+      <c r="I83" s="65" t="s">
+        <v>3746</v>
+      </c>
+      <c r="J83" s="97"/>
+      <c r="K83" s="93" t="s">
         <v>1946</v>
       </c>
     </row>
@@ -43156,8 +43295,10 @@
       <c r="I84" s="65" t="s">
         <v>3746</v>
       </c>
-      <c r="J84" s="87"/>
-      <c r="K84" s="96" t="s">
+      <c r="J84" s="65" t="s">
+        <v>3746</v>
+      </c>
+      <c r="K84" s="94" t="s">
         <v>2031</v>
       </c>
     </row>
@@ -43190,7 +43331,7 @@
       <c r="J85" s="65" t="s">
         <v>3746</v>
       </c>
-      <c r="K85" s="96" t="s">
+      <c r="K85" s="94" t="s">
         <v>2028</v>
       </c>
     </row>
@@ -43213,7 +43354,7 @@
       <c r="H86" s="66"/>
       <c r="I86" s="66"/>
       <c r="J86" s="66"/>
-      <c r="K86" s="89"/>
+      <c r="K86" s="87"/>
     </row>
     <row r="87" spans="1:11" hidden="1">
       <c r="A87" s="64" t="s">
@@ -43234,7 +43375,7 @@
       <c r="H87" s="66"/>
       <c r="I87" s="66"/>
       <c r="J87" s="66"/>
-      <c r="K87" s="89"/>
+      <c r="K87" s="87"/>
     </row>
     <row r="88" spans="1:11" hidden="1">
       <c r="A88" s="64" t="s">
@@ -43255,7 +43396,7 @@
       <c r="H88" s="66"/>
       <c r="I88" s="66"/>
       <c r="J88" s="66"/>
-      <c r="K88" s="89"/>
+      <c r="K88" s="87"/>
     </row>
     <row r="89" spans="1:11" hidden="1">
       <c r="A89" s="64" t="s">
@@ -43276,7 +43417,7 @@
       <c r="H89" s="66"/>
       <c r="I89" s="66"/>
       <c r="J89" s="66"/>
-      <c r="K89" s="89"/>
+      <c r="K89" s="87"/>
     </row>
     <row r="90" spans="1:11" hidden="1">
       <c r="A90" s="64" t="s">
@@ -43297,7 +43438,7 @@
       <c r="H90" s="66"/>
       <c r="I90" s="66"/>
       <c r="J90" s="66"/>
-      <c r="K90" s="89"/>
+      <c r="K90" s="87"/>
     </row>
     <row r="91" spans="1:11" hidden="1">
       <c r="A91" s="64" t="s">
@@ -43318,7 +43459,7 @@
       <c r="H91" s="66"/>
       <c r="I91" s="66"/>
       <c r="J91" s="66"/>
-      <c r="K91" s="89"/>
+      <c r="K91" s="87"/>
     </row>
     <row r="92" spans="1:11" hidden="1">
       <c r="A92" s="64" t="s">
@@ -43339,7 +43480,7 @@
       <c r="H92" s="66"/>
       <c r="I92" s="66"/>
       <c r="J92" s="66"/>
-      <c r="K92" s="89"/>
+      <c r="K92" s="87"/>
     </row>
     <row r="93" spans="1:11" hidden="1">
       <c r="A93" s="64" t="s">
@@ -43360,7 +43501,7 @@
       <c r="H93" s="66"/>
       <c r="I93" s="66"/>
       <c r="J93" s="66"/>
-      <c r="K93" s="89"/>
+      <c r="K93" s="87"/>
     </row>
     <row r="94" spans="1:11" hidden="1">
       <c r="A94" s="64" t="s">
@@ -43381,7 +43522,7 @@
       <c r="H94" s="66"/>
       <c r="I94" s="66"/>
       <c r="J94" s="66"/>
-      <c r="K94" s="89"/>
+      <c r="K94" s="87"/>
     </row>
     <row r="95" spans="1:11" hidden="1">
       <c r="A95" s="64" t="s">
@@ -43402,7 +43543,7 @@
       <c r="H95" s="66"/>
       <c r="I95" s="66"/>
       <c r="J95" s="66"/>
-      <c r="K95" s="89"/>
+      <c r="K95" s="87"/>
     </row>
     <row r="96" spans="1:11" hidden="1">
       <c r="A96" s="64" t="s">
@@ -43423,7 +43564,7 @@
       <c r="H96" s="66"/>
       <c r="I96" s="66"/>
       <c r="J96" s="66"/>
-      <c r="K96" s="89"/>
+      <c r="K96" s="87"/>
     </row>
     <row r="97" spans="1:11" hidden="1">
       <c r="A97" s="64" t="s">
@@ -43444,7 +43585,7 @@
       <c r="H97" s="66"/>
       <c r="I97" s="66"/>
       <c r="J97" s="66"/>
-      <c r="K97" s="89"/>
+      <c r="K97" s="87"/>
     </row>
     <row r="98" spans="1:11" hidden="1">
       <c r="A98" s="64" t="s">
@@ -43465,7 +43606,7 @@
       <c r="H98" s="66"/>
       <c r="I98" s="66"/>
       <c r="J98" s="66"/>
-      <c r="K98" s="89"/>
+      <c r="K98" s="87"/>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="64" t="s">
@@ -43615,7 +43756,9 @@
       <c r="I103" s="65" t="s">
         <v>3746</v>
       </c>
-      <c r="J103" s="87"/>
+      <c r="J103" s="65" t="s">
+        <v>3746</v>
+      </c>
       <c r="K103" s="66" t="s">
         <v>1908</v>
       </c>
@@ -43644,7 +43787,9 @@
       <c r="I104" s="65" t="s">
         <v>3746</v>
       </c>
-      <c r="J104" s="87"/>
+      <c r="J104" s="65" t="s">
+        <v>3746</v>
+      </c>
       <c r="K104" s="66" t="s">
         <v>1959</v>
       </c>
@@ -43681,13 +43826,13 @@
       </c>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="93" t="s">
+      <c r="A106" s="91" t="s">
         <v>3527</v>
       </c>
-      <c r="B106" s="88" t="s">
+      <c r="B106" s="86" t="s">
         <v>3535</v>
       </c>
-      <c r="C106" s="88" t="s">
+      <c r="C106" s="86" t="s">
         <v>3737</v>
       </c>
       <c r="D106" s="66" t="s">
@@ -43695,15 +43840,15 @@
       </c>
       <c r="E106" s="66"/>
       <c r="F106" s="66"/>
-      <c r="G106" s="94" t="s">
+      <c r="G106" s="92" t="s">
         <v>3533</v>
       </c>
-      <c r="H106" s="88" t="s">
+      <c r="H106" s="86" t="s">
         <v>3813</v>
       </c>
       <c r="I106" s="85"/>
       <c r="J106" s="85"/>
-      <c r="K106" s="90"/>
+      <c r="K106" s="88"/>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="64" t="s">
@@ -43923,13 +44068,13 @@
       </c>
     </row>
     <row r="114" spans="1:11">
-      <c r="A114" s="93" t="s">
+      <c r="A114" s="91" t="s">
         <v>3530</v>
       </c>
       <c r="B114" s="85" t="s">
         <v>2546</v>
       </c>
-      <c r="C114" s="94" t="s">
+      <c r="C114" s="92" t="s">
         <v>2610</v>
       </c>
       <c r="D114" s="66" t="s">
@@ -43937,15 +44082,15 @@
       </c>
       <c r="E114" s="66"/>
       <c r="F114" s="66"/>
-      <c r="G114" s="94" t="s">
+      <c r="G114" s="92" t="s">
         <v>3538</v>
       </c>
       <c r="H114" s="85" t="s">
         <v>3813</v>
       </c>
       <c r="I114" s="85"/>
-      <c r="J114" s="88"/>
-      <c r="K114" s="90"/>
+      <c r="J114" s="86"/>
+      <c r="K114" s="88"/>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="64" t="s">
@@ -44007,7 +44152,7 @@
       <c r="J116" s="70" t="s">
         <v>3746</v>
       </c>
-      <c r="K116" s="95" t="s">
+      <c r="K116" s="93" t="s">
         <v>1609</v>
       </c>
     </row>
@@ -44071,7 +44216,7 @@
       <c r="J118" s="70" t="s">
         <v>3746</v>
       </c>
-      <c r="K118" s="95" t="s">
+      <c r="K118" s="93" t="s">
         <v>1786</v>
       </c>
     </row>
@@ -44135,7 +44280,7 @@
       <c r="J120" s="70" t="s">
         <v>3746</v>
       </c>
-      <c r="K120" s="95" t="s">
+      <c r="K120" s="93" t="s">
         <v>1811</v>
       </c>
     </row>
@@ -44168,7 +44313,7 @@
       <c r="J121" s="70" t="s">
         <v>3746</v>
       </c>
-      <c r="K121" s="95" t="s">
+      <c r="K121" s="93" t="s">
         <v>1821</v>
       </c>
     </row>
@@ -44201,7 +44346,7 @@
       <c r="J122" s="70" t="s">
         <v>3746</v>
       </c>
-      <c r="K122" s="95" t="s">
+      <c r="K122" s="93" t="s">
         <v>2124</v>
       </c>
     </row>
@@ -44265,7 +44410,7 @@
       <c r="J124" s="70" t="s">
         <v>3746</v>
       </c>
-      <c r="K124" s="95" t="s">
+      <c r="K124" s="93" t="s">
         <v>2134</v>
       </c>
     </row>
@@ -44420,7 +44565,7 @@
       <c r="J129" s="65" t="s">
         <v>3746</v>
       </c>
-      <c r="K129" s="92" t="s">
+      <c r="K129" s="90" t="s">
         <v>3825</v>
       </c>
     </row>
@@ -44443,7 +44588,7 @@
       <c r="H130" s="66"/>
       <c r="I130" s="66"/>
       <c r="J130" s="66"/>
-      <c r="K130" s="89"/>
+      <c r="K130" s="87"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="64" t="s">
@@ -44505,7 +44650,7 @@
       <c r="J132" s="65" t="s">
         <v>3746</v>
       </c>
-      <c r="K132" s="95" t="s">
+      <c r="K132" s="93" t="s">
         <v>2114</v>
       </c>
     </row>
@@ -44536,7 +44681,7 @@
       <c r="J133" s="65" t="s">
         <v>3746</v>
       </c>
-      <c r="K133" s="91"/>
+      <c r="K133" s="89"/>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="64" t="s">
@@ -44565,7 +44710,7 @@
       <c r="J134" s="65" t="s">
         <v>3746</v>
       </c>
-      <c r="K134" s="91"/>
+      <c r="K134" s="89"/>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="64" t="s">
@@ -44594,7 +44739,7 @@
       <c r="J135" s="65" t="s">
         <v>3746</v>
       </c>
-      <c r="K135" s="91"/>
+      <c r="K135" s="89"/>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="64" t="s">
@@ -44623,7 +44768,7 @@
       <c r="J136" s="65" t="s">
         <v>3746</v>
       </c>
-      <c r="K136" s="91"/>
+      <c r="K136" s="89"/>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="64" t="s">
@@ -44652,7 +44797,7 @@
       <c r="J137" s="65" t="s">
         <v>3746</v>
       </c>
-      <c r="K137" s="91"/>
+      <c r="K137" s="89"/>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="64" t="s">
@@ -44681,7 +44826,7 @@
       <c r="J138" s="65" t="s">
         <v>3746</v>
       </c>
-      <c r="K138" s="91"/>
+      <c r="K138" s="89"/>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" s="64" t="s">
@@ -44710,7 +44855,7 @@
       <c r="J139" s="65" t="s">
         <v>3746</v>
       </c>
-      <c r="K139" s="91"/>
+      <c r="K139" s="89"/>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" s="64" t="s">
@@ -44739,7 +44884,7 @@
       <c r="J140" s="65" t="s">
         <v>3746</v>
       </c>
-      <c r="K140" s="91"/>
+      <c r="K140" s="89"/>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="64" t="s">
@@ -44768,7 +44913,7 @@
       <c r="J141" s="65" t="s">
         <v>3746</v>
       </c>
-      <c r="K141" s="91"/>
+      <c r="K141" s="89"/>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="64" t="s">
@@ -44797,7 +44942,7 @@
       <c r="J142" s="65" t="s">
         <v>3746</v>
       </c>
-      <c r="K142" s="91"/>
+      <c r="K142" s="89"/>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="64" t="s">
@@ -44826,7 +44971,7 @@
       <c r="J143" s="65" t="s">
         <v>3746</v>
       </c>
-      <c r="K143" s="91"/>
+      <c r="K143" s="89"/>
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="64" t="s">
@@ -44855,7 +45000,7 @@
       <c r="J144" s="65" t="s">
         <v>3746</v>
       </c>
-      <c r="K144" s="91"/>
+      <c r="K144" s="89"/>
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="64" t="s">
@@ -44884,7 +45029,7 @@
       <c r="J145" s="65" t="s">
         <v>3746</v>
       </c>
-      <c r="K145" s="91"/>
+      <c r="K145" s="89"/>
     </row>
     <row r="146" spans="1:11">
       <c r="A146" s="64" t="s">
@@ -44913,7 +45058,7 @@
       <c r="J146" s="65" t="s">
         <v>3746</v>
       </c>
-      <c r="K146" s="91"/>
+      <c r="K146" s="89"/>
     </row>
     <row r="147" spans="1:11">
       <c r="A147" s="64" t="s">
@@ -44942,7 +45087,7 @@
       <c r="J147" s="65" t="s">
         <v>3746</v>
       </c>
-      <c r="K147" s="91"/>
+      <c r="K147" s="89"/>
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="64" t="s">
@@ -44971,7 +45116,7 @@
       <c r="J148" s="65" t="s">
         <v>3746</v>
       </c>
-      <c r="K148" s="91"/>
+      <c r="K148" s="89"/>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="64" t="s">
@@ -45031,7 +45176,7 @@
       <c r="J150" s="70" t="s">
         <v>3746</v>
       </c>
-      <c r="K150" s="95" t="s">
+      <c r="K150" s="93" t="s">
         <v>1872</v>
       </c>
     </row>
@@ -45234,7 +45379,7 @@
       <c r="H157" s="68"/>
       <c r="I157" s="68"/>
       <c r="J157" s="68"/>
-      <c r="K157" s="89"/>
+      <c r="K157" s="87"/>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="73" t="s">
@@ -62764,13 +62909,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="95" t="s">
         <v>3804</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="63" t="s">
@@ -62917,13 +63062,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="95" t="s">
         <v>3805</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="63" t="s">
@@ -62988,13 +63133,13 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="95" t="s">
         <v>3810</v>
       </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="63" t="s">

--- a/Documentação/Migração Servidores/Cosmos003/Mapeamento ETL.xlsx
+++ b/Documentação/Migração Servidores/Cosmos003/Mapeamento ETL.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14448" uniqueCount="3892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14441" uniqueCount="3897">
   <si>
     <t>Job</t>
   </si>
@@ -11699,6 +11699,21 @@
   </si>
   <si>
     <t>W:\Operacional\Colecao Elegiveis LogPeg e Retira em Loja\ods_colecao_elegiveis match.dtsx</t>
+  </si>
+  <si>
+    <t>Não existe o banco MIS_TMP no servidor</t>
+  </si>
+  <si>
+    <t>está com todos os procedimentos desabilitados</t>
+  </si>
+  <si>
+    <t>precisa colocar as siglas nas caixinhas do "(DFT) SIGE &gt; TMP"</t>
+  </si>
+  <si>
+    <t>precisa colocar as siglas nas caixinhas</t>
+  </si>
+  <si>
+    <t>Precisa colocar as siglas nas caixinhas</t>
   </si>
 </sst>
 </file>
@@ -16145,8 +16160,8 @@
   <dimension ref="A1:I1484"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C309" sqref="C309"/>
+      <pane ySplit="6" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="11.25"/>
@@ -16676,10 +16691,10 @@
         <v>2238</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>2614</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>3885</v>
+        <v>2238</v>
+      </c>
+      <c r="F31" s="78" t="s">
+        <v>3896</v>
       </c>
       <c r="I31" s="15"/>
     </row>
@@ -29284,11 +29299,11 @@
       <c r="D672" s="14" t="s">
         <v>2238</v>
       </c>
-      <c r="E672" s="95" t="s">
-        <v>2614</v>
-      </c>
-      <c r="F672" s="95" t="s">
-        <v>3885</v>
+      <c r="E672" s="13" t="s">
+        <v>2238</v>
+      </c>
+      <c r="F672" s="13" t="s">
+        <v>3892</v>
       </c>
       <c r="I672" s="15"/>
     </row>
@@ -29323,10 +29338,10 @@
       <c r="D674" s="14" t="s">
         <v>2238</v>
       </c>
-      <c r="E674" s="95" t="s">
+      <c r="E674" s="13" t="s">
         <v>2614</v>
       </c>
-      <c r="F674" s="95" t="s">
+      <c r="F674" s="13" t="s">
         <v>3885</v>
       </c>
       <c r="I674" s="15"/>
@@ -40581,10 +40596,7 @@
         <v>2238</v>
       </c>
       <c r="E1255" s="13" t="s">
-        <v>2614</v>
-      </c>
-      <c r="F1255" s="13" t="s">
-        <v>3885</v>
+        <v>2238</v>
       </c>
       <c r="I1255" s="15"/>
     </row>
@@ -40602,10 +40614,7 @@
         <v>2238</v>
       </c>
       <c r="E1256" s="13" t="s">
-        <v>2614</v>
-      </c>
-      <c r="F1256" s="13" t="s">
-        <v>3885</v>
+        <v>2238</v>
       </c>
       <c r="I1256" s="15"/>
     </row>
@@ -40623,10 +40632,7 @@
         <v>2238</v>
       </c>
       <c r="E1257" s="13" t="s">
-        <v>2614</v>
-      </c>
-      <c r="F1257" s="13" t="s">
-        <v>3885</v>
+        <v>2238</v>
       </c>
       <c r="I1257" s="15"/>
     </row>
@@ -40644,10 +40650,7 @@
         <v>2238</v>
       </c>
       <c r="E1258" s="13" t="s">
-        <v>2614</v>
-      </c>
-      <c r="F1258" s="13" t="s">
-        <v>3885</v>
+        <v>2238</v>
       </c>
       <c r="I1258" s="15"/>
     </row>
@@ -40665,10 +40668,10 @@
         <v>2238</v>
       </c>
       <c r="E1259" s="13" t="s">
-        <v>2614</v>
+        <v>2238</v>
       </c>
       <c r="F1259" s="13" t="s">
-        <v>3885</v>
+        <v>3893</v>
       </c>
       <c r="I1259" s="15"/>
     </row>
@@ -40686,10 +40689,10 @@
         <v>2238</v>
       </c>
       <c r="E1260" s="13" t="s">
-        <v>2614</v>
-      </c>
-      <c r="F1260" s="13" t="s">
-        <v>3885</v>
+        <v>2238</v>
+      </c>
+      <c r="F1260" s="78" t="s">
+        <v>3894</v>
       </c>
       <c r="I1260" s="15"/>
     </row>
@@ -40707,10 +40710,7 @@
         <v>2238</v>
       </c>
       <c r="E1261" s="13" t="s">
-        <v>2614</v>
-      </c>
-      <c r="F1261" s="13" t="s">
-        <v>3885</v>
+        <v>2238</v>
       </c>
       <c r="I1261" s="15"/>
     </row>
@@ -40788,10 +40788,7 @@
         <v>2238</v>
       </c>
       <c r="E1265" s="13" t="s">
-        <v>2614</v>
-      </c>
-      <c r="F1265" s="13" t="s">
-        <v>3885</v>
+        <v>2238</v>
       </c>
       <c r="I1265" s="15"/>
     </row>
@@ -40827,7 +40824,7 @@
         <v>2238</v>
       </c>
       <c r="E1267" s="13" t="s">
-        <v>2614</v>
+        <v>2238</v>
       </c>
       <c r="F1267" s="13" t="s">
         <v>3885</v>
@@ -40869,10 +40866,10 @@
         <v>2238</v>
       </c>
       <c r="E1269" s="13" t="s">
-        <v>2614</v>
-      </c>
-      <c r="F1269" s="13" t="s">
-        <v>3885</v>
+        <v>2238</v>
+      </c>
+      <c r="F1269" s="78" t="s">
+        <v>3895</v>
       </c>
       <c r="I1269" s="15"/>
     </row>
@@ -40890,10 +40887,7 @@
         <v>2238</v>
       </c>
       <c r="E1270" s="13" t="s">
-        <v>2614</v>
-      </c>
-      <c r="F1270" s="13" t="s">
-        <v>3885</v>
+        <v>2238</v>
       </c>
       <c r="I1270" s="15"/>
     </row>

--- a/Documentação/Migração Servidores/Cosmos003/Mapeamento ETL.xlsx
+++ b/Documentação/Migração Servidores/Cosmos003/Mapeamento ETL.xlsx
@@ -4,26 +4,26 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="20730" windowHeight="10035" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="20730" windowHeight="10035" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Diretorios" sheetId="3" r:id="rId1"/>
     <sheet name="Jobs" sheetId="1" r:id="rId2"/>
     <sheet name="ODC - Cubos" sheetId="9" r:id="rId3"/>
     <sheet name="Jobs e Diretorios" sheetId="4" r:id="rId4"/>
-    <sheet name="Soluções" sheetId="5" r:id="rId5"/>
-    <sheet name="dts não encontrado" sheetId="6" r:id="rId6"/>
-    <sheet name="Original" sheetId="8" r:id="rId7"/>
-    <sheet name="Cubos - OLAP001.dc.nova_Operac " sheetId="7" r:id="rId8"/>
-    <sheet name="Cubos - OLAP001.dc.nova_Ehub" sheetId="11" r:id="rId9"/>
-    <sheet name="Plan1" sheetId="10" r:id="rId10"/>
+    <sheet name="Revistos" sheetId="10" r:id="rId5"/>
+    <sheet name="Soluções" sheetId="5" r:id="rId6"/>
+    <sheet name="dts não encontrado" sheetId="6" r:id="rId7"/>
+    <sheet name="Original" sheetId="8" r:id="rId8"/>
+    <sheet name="Cubos - OLAP001.dc.nova_Operac " sheetId="7" r:id="rId9"/>
+    <sheet name="Cubos - OLAP001.dc.nova_Ehub" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14441" uniqueCount="3897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14975" uniqueCount="3917">
   <si>
     <t>Job</t>
   </si>
@@ -11714,13 +11714,73 @@
   </si>
   <si>
     <t>Precisa colocar as siglas nas caixinhas</t>
+  </si>
+  <si>
+    <t>Conexões</t>
+  </si>
+  <si>
+    <t>DTSX</t>
+  </si>
+  <si>
+    <t>está configurada como adm e MIS_OLAP_MKT_PLACE_1</t>
+  </si>
+  <si>
+    <t>JOB</t>
+  </si>
+  <si>
+    <t>Observações</t>
+  </si>
+  <si>
+    <t>Tem excel e deu problema no teste</t>
+  </si>
+  <si>
+    <t>conexão fixa</t>
+  </si>
+  <si>
+    <t>está configurada como adm e MIS_OLAP_PRJ_2</t>
+  </si>
+  <si>
+    <t>está configurada como adm e MIS_OLAP_PRJ_TESTE</t>
+  </si>
+  <si>
+    <t>W:\Operacional\Apontamento Horas\processa_olap_7.dtsx</t>
+  </si>
+  <si>
+    <t>está configurada como adm e MIS_OLAP_PRJ_TESTE_7</t>
+  </si>
+  <si>
+    <t>W:\Operacional\Campanhas 2015\stg_campanha_cb_112015.dtsx</t>
+  </si>
+  <si>
+    <t>a variável "Arquivo Inicio" está apontando para 'W:\Source\MIS_NovaPontoCom\Integration\Carga_PedidoRetido\bin\bloqueados.csv"</t>
+  </si>
+  <si>
+    <t>BI - Arquivo Transporte Pedido Aberto</t>
+  </si>
+  <si>
+    <t>W:\Operacional\Transportes\exp_trp_pedido_aberto.dtsx</t>
+  </si>
+  <si>
+    <t>BI - Automacao Fornecedor Preco</t>
+  </si>
+  <si>
+    <t>W:\Operacional\AutomacaoFornecedor\Relatorio_AUTOMACAO_FORNECEDOR.dtsx</t>
+  </si>
+  <si>
+    <t>W:\Operacional\Cockpit Marketing\olap_cockpit_2.dtsx</t>
+  </si>
+  <si>
+    <t>desabilitado</t>
+  </si>
+  <si>
+    <t>está configurada como adm e MIS_OLAP_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11838,6 +11898,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -12107,7 +12173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -12310,12 +12376,117 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 5" xfId="1"/>
   </cellStyles>
-  <dxfs count="73">
+  <dxfs count="77">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -13589,44 +13760,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:E182" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:E182" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
   <autoFilter ref="A1:E182">
     <filterColumn colId="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Diretorio " dataDxfId="70"/>
-    <tableColumn id="2" name="Job associado?" dataDxfId="69"/>
-    <tableColumn id="4" name="Revisado?" dataDxfId="68"/>
-    <tableColumn id="3" name="Observação" dataDxfId="67"/>
-    <tableColumn id="5" name="Colunas1" dataDxfId="66"/>
+    <tableColumn id="1" name="Diretorio " dataDxfId="74"/>
+    <tableColumn id="2" name="Job associado?" dataDxfId="73"/>
+    <tableColumn id="4" name="Revisado?" dataDxfId="72"/>
+    <tableColumn id="3" name="Observação" dataDxfId="71"/>
+    <tableColumn id="5" name="Colunas1" dataDxfId="70"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabela2811" displayName="Tabela2811" ref="A21:E29" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A21:E29"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Cubos" dataDxfId="8"/>
+    <tableColumn id="2" name="Initial Catalog" dataDxfId="7"/>
+    <tableColumn id="3" name="Data Source Antigo" dataDxfId="6"/>
+    <tableColumn id="4" name="Data Source Atual" dataDxfId="5"/>
+    <tableColumn id="5" name="Nike" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A6:I1484" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A6:I1484" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
   <autoFilter ref="A6:I1484">
     <filterColumn colId="2"/>
     <filterColumn colId="6"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" name="Job" dataDxfId="63"/>
-    <tableColumn id="2" name="step_name" dataDxfId="62"/>
-    <tableColumn id="3" name="Comando" dataDxfId="61"/>
-    <tableColumn id="4" name="Revisado" dataDxfId="60"/>
-    <tableColumn id="6" name="Alterado" dataDxfId="59"/>
-    <tableColumn id="5" name="Observação" dataDxfId="58"/>
-    <tableColumn id="9" name="SYNC" dataDxfId="57"/>
-    <tableColumn id="8" name="Script Task?" dataDxfId="56"/>
-    <tableColumn id="7" name="Alteração após 18/09" dataDxfId="55"/>
+    <tableColumn id="1" name="Job" dataDxfId="67"/>
+    <tableColumn id="2" name="step_name" dataDxfId="66"/>
+    <tableColumn id="3" name="Comando" dataDxfId="65"/>
+    <tableColumn id="4" name="Revisado" dataDxfId="64"/>
+    <tableColumn id="6" name="Alterado" dataDxfId="63"/>
+    <tableColumn id="5" name="Observação" dataDxfId="62"/>
+    <tableColumn id="9" name="SYNC" dataDxfId="61"/>
+    <tableColumn id="8" name="Script Task?" dataDxfId="60"/>
+    <tableColumn id="7" name="Alteração após 18/09" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela17" displayName="Tabela17" ref="A1:M160" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51" totalsRowBorderDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela17" displayName="Tabela17" ref="A1:M160" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55" totalsRowBorderDxfId="54">
   <autoFilter ref="A1:M160">
     <filterColumn colId="6">
       <customFilters>
@@ -13640,26 +13825,26 @@
     <sortCondition ref="G1:G158"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" name="Servidor " dataDxfId="49"/>
-    <tableColumn id="2" name="Database" dataDxfId="48"/>
-    <tableColumn id="3" name="Cubo" dataDxfId="47"/>
-    <tableColumn id="4" name="Processamento Dinâmico" dataDxfId="46"/>
-    <tableColumn id="5" name="D0" dataDxfId="45"/>
-    <tableColumn id="6" name="Modificado" dataDxfId="44"/>
-    <tableColumn id="7" name="Novo Servidor" dataDxfId="43"/>
-    <tableColumn id="10" name="Nome ODC" dataDxfId="42"/>
-    <tableColumn id="9" name="ods 2007" dataDxfId="41"/>
-    <tableColumn id="8" name="odc 2013" dataDxfId="40"/>
-    <tableColumn id="11" name="Diretório do dtsx que executa o cubo" dataDxfId="39"/>
-    <tableColumn id="12" name="Alterado" dataDxfId="38"/>
-    <tableColumn id="13" name="Observação" dataDxfId="37"/>
+    <tableColumn id="1" name="Servidor " dataDxfId="53"/>
+    <tableColumn id="2" name="Database" dataDxfId="52"/>
+    <tableColumn id="3" name="Cubo" dataDxfId="51"/>
+    <tableColumn id="4" name="Processamento Dinâmico" dataDxfId="50"/>
+    <tableColumn id="5" name="D0" dataDxfId="49"/>
+    <tableColumn id="6" name="Modificado" dataDxfId="48"/>
+    <tableColumn id="7" name="Novo Servidor" dataDxfId="47"/>
+    <tableColumn id="10" name="Nome ODC" dataDxfId="46"/>
+    <tableColumn id="9" name="ods 2007" dataDxfId="45"/>
+    <tableColumn id="8" name="odc 2013" dataDxfId="44"/>
+    <tableColumn id="11" name="Diretório do dtsx que executa o cubo" dataDxfId="43"/>
+    <tableColumn id="12" name="Alterado" dataDxfId="42"/>
+    <tableColumn id="13" name="Observação" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela14" displayName="Tabela14" ref="A6:C329" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela14" displayName="Tabela14" ref="A6:C329" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A6:C329">
     <filterColumn colId="1">
       <filters>
@@ -13673,81 +13858,80 @@
     <sortCondition ref="B7:B848"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Job" dataDxfId="34"/>
-    <tableColumn id="3" name="Diretorio" dataDxfId="33"/>
-    <tableColumn id="4" name="Revisado" dataDxfId="32"/>
+    <tableColumn id="1" name="Job" dataDxfId="38"/>
+    <tableColumn id="3" name="Diretorio" dataDxfId="37"/>
+    <tableColumn id="4" name="Revisado" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A6:D837" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A6:D837"/>
-  <sortState ref="A7:D837">
-    <sortCondition ref="A7:A837"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabela11" displayName="Tabela11" ref="A1:D186" totalsRowShown="0">
+  <autoFilter ref="A1:D186"/>
   <tableColumns count="4">
-    <tableColumn id="6" name="Solução" dataDxfId="29"/>
-    <tableColumn id="1" name="Job" dataDxfId="28"/>
-    <tableColumn id="2" name="step_name" dataDxfId="27"/>
-    <tableColumn id="7" name="Dtsx" dataDxfId="26"/>
+    <tableColumn id="1" name="JOB" dataDxfId="3"/>
+    <tableColumn id="2" name="DTSX" dataDxfId="2"/>
+    <tableColumn id="3" name="Conexões" dataDxfId="0"/>
+    <tableColumn id="4" name="Observações" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:E103" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
-  <autoFilter ref="A1:E103"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Cubos" dataDxfId="23"/>
-    <tableColumn id="2" name="Initial Catalog" dataDxfId="22"/>
-    <tableColumn id="3" name="Data Source Antigo" dataDxfId="21"/>
-    <tableColumn id="4" name="Data Source Atual" dataDxfId="20"/>
-    <tableColumn id="5" name="Operacional" dataDxfId="19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A6:D837" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+  <autoFilter ref="A6:D837"/>
+  <sortState ref="A7:D837">
+    <sortCondition ref="A7:A837"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="6" name="Solução" dataDxfId="33"/>
+    <tableColumn id="1" name="Job" dataDxfId="32"/>
+    <tableColumn id="2" name="step_name" dataDxfId="31"/>
+    <tableColumn id="7" name="Dtsx" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela28" displayName="Tabela28" ref="A2:E10" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A2:E10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:E103" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:E103"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Cubos" dataDxfId="16"/>
-    <tableColumn id="2" name="Initial Catalog" dataDxfId="15"/>
-    <tableColumn id="3" name="Data Source Antigo" dataDxfId="14"/>
-    <tableColumn id="4" name="Data Source Atual" dataDxfId="13"/>
-    <tableColumn id="5" name="B2BnaWeb" dataDxfId="12"/>
+    <tableColumn id="1" name="Cubos" dataDxfId="27"/>
+    <tableColumn id="2" name="Initial Catalog" dataDxfId="26"/>
+    <tableColumn id="3" name="Data Source Antigo" dataDxfId="25"/>
+    <tableColumn id="4" name="Data Source Atual" dataDxfId="24"/>
+    <tableColumn id="5" name="Operacional" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabela9" displayName="Tabela9" ref="A14:E17" totalsRowShown="0" tableBorderDxfId="11">
-  <autoFilter ref="A14:E17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela28" displayName="Tabela28" ref="A2:E10" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A2:E10"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Cubos"/>
-    <tableColumn id="2" name="Initial Catalog" dataDxfId="10"/>
-    <tableColumn id="3" name="Data Source Antigo" dataDxfId="9"/>
-    <tableColumn id="4" name="Data Source Atual" dataDxfId="8"/>
-    <tableColumn id="5" name="Leader" dataDxfId="7"/>
+    <tableColumn id="1" name="Cubos" dataDxfId="20"/>
+    <tableColumn id="2" name="Initial Catalog" dataDxfId="19"/>
+    <tableColumn id="3" name="Data Source Antigo" dataDxfId="18"/>
+    <tableColumn id="4" name="Data Source Atual" dataDxfId="17"/>
+    <tableColumn id="5" name="B2BnaWeb" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabela2811" displayName="Tabela2811" ref="A21:E29" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A21:E29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabela9" displayName="Tabela9" ref="A14:E17" totalsRowShown="0" tableBorderDxfId="15">
+  <autoFilter ref="A14:E17"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Cubos" dataDxfId="4"/>
-    <tableColumn id="2" name="Initial Catalog" dataDxfId="3"/>
-    <tableColumn id="3" name="Data Source Antigo" dataDxfId="2"/>
-    <tableColumn id="4" name="Data Source Atual" dataDxfId="1"/>
-    <tableColumn id="5" name="Nike" dataDxfId="0"/>
+    <tableColumn id="1" name="Cubos"/>
+    <tableColumn id="2" name="Initial Catalog" dataDxfId="14"/>
+    <tableColumn id="3" name="Data Source Antigo" dataDxfId="13"/>
+    <tableColumn id="4" name="Data Source Atual" dataDxfId="12"/>
+    <tableColumn id="5" name="Leader" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16143,15 +16327,423 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A1:G158"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="30.5703125" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" style="59" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="59" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="51" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="47"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75">
+      <c r="A1" s="97" t="s">
+        <v>3794</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="47" t="s">
+        <v>3506</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>3511</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>3507</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>3508</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>3794</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="47" t="s">
+        <v>3555</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>3790</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>3792</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>3788</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="60" t="s">
+        <v>3791</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>3790</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>3792</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>3788</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="47" t="s">
+        <v>3582</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>3539</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>3792</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>3788</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="60" t="s">
+        <v>3600</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>3790</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>3792</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>3788</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="47" t="s">
+        <v>3603</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>3540</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>3792</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>3788</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="60" t="s">
+        <v>3611</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>3790</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>3792</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>3788</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="47" t="s">
+        <v>3536</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>3793</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="60" t="s">
+        <v>3663</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>3542</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>3792</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>3788</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75">
+      <c r="A13" s="97" t="s">
+        <v>3795</v>
+      </c>
+      <c r="B13" s="97"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="47" t="s">
+        <v>3506</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>3511</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>3507</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>3508</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="64" t="s">
+        <v>3555</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>3796</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D15" s="59" t="s">
+        <v>3788</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="65" t="s">
+        <v>3600</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="65" t="s">
+        <v>3611</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>3538</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>3799</v>
+      </c>
+      <c r="D17" s="59" t="s">
+        <v>3788</v>
+      </c>
+      <c r="E17" s="51" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="A20" s="97" t="s">
+        <v>3800</v>
+      </c>
+      <c r="B20" s="97"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="47" t="s">
+        <v>3506</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>3511</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>3507</v>
+      </c>
+      <c r="D21" s="59" t="s">
+        <v>3508</v>
+      </c>
+      <c r="E21" s="51" t="s">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="47" t="s">
+        <v>3555</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>3801</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>3792</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>3788</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="60" t="s">
+        <v>3791</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>3801</v>
+      </c>
+      <c r="C23" s="59" t="s">
+        <v>3792</v>
+      </c>
+      <c r="D23" s="59" t="s">
+        <v>3788</v>
+      </c>
+      <c r="E23" s="63" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="47" t="s">
+        <v>3582</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>3541</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>3792</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>3788</v>
+      </c>
+      <c r="E24" s="51" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="60" t="s">
+        <v>3600</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>3801</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>3792</v>
+      </c>
+      <c r="D25" s="59" t="s">
+        <v>3788</v>
+      </c>
+      <c r="E25" s="63" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="47" t="s">
+        <v>3603</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>3540</v>
+      </c>
+      <c r="C26" s="59" t="s">
+        <v>3792</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>3788</v>
+      </c>
+      <c r="E26" s="51" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="60" t="s">
+        <v>3611</v>
+      </c>
+      <c r="B27" s="60" t="s">
+        <v>3801</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>3792</v>
+      </c>
+      <c r="D27" s="59" t="s">
+        <v>3788</v>
+      </c>
+      <c r="E27" s="51" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="47" t="s">
+        <v>3536</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>3543</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>3792</v>
+      </c>
+      <c r="D28" s="59" t="s">
+        <v>3788</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="60" t="s">
+        <v>3663</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>3542</v>
+      </c>
+      <c r="C29" s="62" t="s">
+        <v>3792</v>
+      </c>
+      <c r="D29" s="59" t="s">
+        <v>3788</v>
+      </c>
+      <c r="E29" s="63" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A20:E20"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -16159,9 +16751,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I1484"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="11.25"/>
@@ -53003,6 +53595,2198 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:D186"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B181" sqref="B181"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="51.85546875" style="99" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.28515625" style="99" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="98" customWidth="1"/>
+    <col min="4" max="4" width="29" style="98" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="99" t="s">
+        <v>3900</v>
+      </c>
+      <c r="B1" s="99" t="s">
+        <v>3898</v>
+      </c>
+      <c r="C1" s="98" t="s">
+        <v>3897</v>
+      </c>
+      <c r="D1" s="98" t="s">
+        <v>3901</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="99" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C2" s="98" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="99" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C3" s="98" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="99" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C4" s="98" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="99" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C5" s="98" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="99" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C6" s="98" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="99" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C7" s="98" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="99" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C8" s="98" t="s">
+        <v>3903</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="48">
+      <c r="A9" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="99" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C9" s="98" t="s">
+        <v>3899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="99" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="99" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C10" s="98" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="99" t="s">
+        <v>2183</v>
+      </c>
+      <c r="C11" s="98" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="99" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="99" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C12" s="98" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="99" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C13" s="98" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="99" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="99" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C14" s="98" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="99" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="99" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C15" s="98" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="99" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="99" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C16" s="98" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="99" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="99" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C17" s="98" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="99" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="99" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C18" s="98" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="99" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="99" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C19" s="98" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="99" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="99" t="s">
+        <v>2184</v>
+      </c>
+      <c r="C20" s="98" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="99" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="99" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C21" s="98" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="99" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="99" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C22" s="98" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="99" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="99" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C23" s="98" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="100" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="100" t="s">
+        <v>2185</v>
+      </c>
+      <c r="C24" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D24" s="103" t="s">
+        <v>3902</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="100" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="100" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C25" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D25" s="103"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="100" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="100" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C26" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D26" s="103"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="100" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="100" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C27" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D27" s="103"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="100" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="100" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C28" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D28" s="103"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="100" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="100" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C29" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D29" s="103"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="100" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C30" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D30" s="103"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="100" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C31" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D31" s="103"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="100" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C32" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D32" s="103"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="100" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C33" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D33" s="103"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="100" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="100" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C34" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D34" s="103"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="100" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C35" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D35" s="103"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="100" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C36" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D36" s="103"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="100" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C37" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D37" s="103"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="100" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="100" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C38" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D38" s="103"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="100" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C39" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D39" s="103"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="100" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="100" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C40" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D40" s="103"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="100" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="100" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C41" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D41" s="103"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="100" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="100" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C42" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D42" s="103"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="100" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C43" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D43" s="103"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="100" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="100" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C44" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D44" s="103"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="100" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="100" t="s">
+        <v>2186</v>
+      </c>
+      <c r="C45" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D45" s="103" t="s">
+        <v>3902</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="100" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C46" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D46" s="103"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="100" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="100" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C47" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D47" s="103"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="102" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="102" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C48" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D48" s="104"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="102" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="102" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C49" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D49" s="104"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="102" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="102" t="s">
+        <v>2187</v>
+      </c>
+      <c r="C50" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D50" s="104" t="s">
+        <v>3902</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="102" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="102" t="s">
+        <v>2188</v>
+      </c>
+      <c r="C51" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D51" s="104" t="s">
+        <v>3902</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="102" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="102" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C52" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D52" s="104"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="102" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="102" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C53" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D53" s="104"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="102" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="102" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C54" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D54" s="104"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="102" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C55" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D55" s="104"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="102" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="102" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C56" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D56" s="104"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" s="102" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C57" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D57" s="104"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" s="102" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C58" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D58" s="104"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" s="102" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C59" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D59" s="104"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="102" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" s="102" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C60" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D60" s="104"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="102" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="102" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C61" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D61" s="104"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="102" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" s="102" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C62" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D62" s="104"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="102" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" s="102" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C63" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D63" s="104"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="102" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" s="102" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C64" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D64" s="104"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="102" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" s="102" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C65" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D65" s="104"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" s="102" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C66" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D66" s="104"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" s="102" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C67" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D67" s="104"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="102" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" s="102" t="s">
+        <v>2189</v>
+      </c>
+      <c r="C68" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D68" s="104"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="102" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" s="102" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C69" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D69" s="104"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" s="102" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C70" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D70" s="104"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" s="102" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C71" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D71" s="104"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" s="102" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C72" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D72" s="104"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="102" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C73" s="98" t="s">
+        <v>3903</v>
+      </c>
+      <c r="D73" s="104"/>
+    </row>
+    <row r="74" spans="1:4" ht="24">
+      <c r="A74" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" s="102" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C74" s="98" t="s">
+        <v>3904</v>
+      </c>
+      <c r="D74" s="104"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="102" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C75" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D75" s="104"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="102" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C76" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D76" s="104"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" s="102" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C77" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D77" s="104"/>
+    </row>
+    <row r="78" spans="1:4" ht="36">
+      <c r="A78" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="102" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C78" s="98" t="s">
+        <v>3905</v>
+      </c>
+      <c r="D78" s="104"/>
+    </row>
+    <row r="79" spans="1:4" ht="36">
+      <c r="A79" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="102" t="s">
+        <v>3906</v>
+      </c>
+      <c r="C79" s="98" t="s">
+        <v>3907</v>
+      </c>
+      <c r="D79" s="104"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="102" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="102" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C80" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D80" s="104"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="102" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="102" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C81" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D81" s="104"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="102" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" s="102" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C82" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D82" s="104"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="102" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" s="102" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C83" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D83" s="104"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="102" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="102" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C84" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D84" s="104"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" s="102" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C85" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D85" s="104"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="102" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" s="102" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C86" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D86" s="104"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="102" t="s">
+        <v>84</v>
+      </c>
+      <c r="B87" s="102" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C87" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D87" s="104"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="102" t="s">
+        <v>85</v>
+      </c>
+      <c r="B88" s="102" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C88" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D88" s="104"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="102" t="s">
+        <v>85</v>
+      </c>
+      <c r="B89" s="102" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C89" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D89" s="104"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="102" t="s">
+        <v>86</v>
+      </c>
+      <c r="B90" s="102" t="s">
+        <v>2190</v>
+      </c>
+      <c r="C90" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D90" s="104"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="102" t="s">
+        <v>87</v>
+      </c>
+      <c r="B91" s="102" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C91" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D91" s="104"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="102" t="s">
+        <v>87</v>
+      </c>
+      <c r="B92" s="102" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C92" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D92" s="104"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="102" t="s">
+        <v>88</v>
+      </c>
+      <c r="B93" s="102" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C93" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D93" s="104"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="102" t="s">
+        <v>89</v>
+      </c>
+      <c r="B94" s="102" t="s">
+        <v>3908</v>
+      </c>
+      <c r="C94" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D94" s="104"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="B95" s="102" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C95" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D95" s="104"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="B96" s="102" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C96" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D96" s="104"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="102" t="s">
+        <v>91</v>
+      </c>
+      <c r="B97" s="102" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C97" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D97" s="104"/>
+    </row>
+    <row r="98" spans="1:4" ht="60">
+      <c r="A98" s="102" t="s">
+        <v>92</v>
+      </c>
+      <c r="B98" s="102" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C98" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D98" s="104" t="s">
+        <v>3909</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="102" t="s">
+        <v>93</v>
+      </c>
+      <c r="B99" s="102" t="s">
+        <v>2191</v>
+      </c>
+      <c r="C99" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D99" s="104"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="102" t="s">
+        <v>94</v>
+      </c>
+      <c r="B100" s="102" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C100" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D100" s="104"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="102" t="s">
+        <v>95</v>
+      </c>
+      <c r="B101" s="102" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C101" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D101" s="104"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="102" t="s">
+        <v>95</v>
+      </c>
+      <c r="B102" s="102" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C102" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D102" s="104"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="102" t="s">
+        <v>96</v>
+      </c>
+      <c r="B103" s="102" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C103" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D103" s="104"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="102" t="s">
+        <v>96</v>
+      </c>
+      <c r="B104" s="102" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C104" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D104" s="104"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="B105" s="102" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C105" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D105" s="104"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="B106" s="102" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C106" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D106" s="104"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="B107" s="101" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C107" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D107" s="105"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="102" t="s">
+        <v>98</v>
+      </c>
+      <c r="B108" s="102" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C108" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D108" s="104"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="102" t="s">
+        <v>99</v>
+      </c>
+      <c r="B109" s="102" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C109" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D109" s="104"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="B110" s="102" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C110" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D110" s="104"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="B111" s="102" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C111" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D111" s="104"/>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B112" s="102" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C112" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D112" s="104"/>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B113" s="102" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C113" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D113" s="104"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B114" s="102" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C114" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D114" s="104"/>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="106" t="s">
+        <v>104</v>
+      </c>
+      <c r="B115" s="106" t="s">
+        <v>2192</v>
+      </c>
+      <c r="C115" s="108" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D115" s="107"/>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="102" t="s">
+        <v>104</v>
+      </c>
+      <c r="B116" s="102" t="s">
+        <v>2193</v>
+      </c>
+      <c r="C116" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D116" s="104"/>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="102" t="s">
+        <v>104</v>
+      </c>
+      <c r="B117" s="102" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C117" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D117" s="104"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="102" t="s">
+        <v>104</v>
+      </c>
+      <c r="B118" s="102" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C118" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D118" s="104"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B119" s="102" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C119" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D119" s="104"/>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="102" t="s">
+        <v>106</v>
+      </c>
+      <c r="B120" s="102" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C120" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D120" s="104"/>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="102" t="s">
+        <v>107</v>
+      </c>
+      <c r="B121" s="102" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C121" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D121" s="104"/>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="102" t="s">
+        <v>108</v>
+      </c>
+      <c r="B122" s="102" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C122" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D122" s="104"/>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="102" t="s">
+        <v>109</v>
+      </c>
+      <c r="B123" s="102" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C123" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D123" s="104"/>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="B124" s="102" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C124" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D124" s="104"/>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="102" t="s">
+        <v>111</v>
+      </c>
+      <c r="B125" s="102" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C125" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D125" s="104"/>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="102" t="s">
+        <v>112</v>
+      </c>
+      <c r="B126" s="102" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C126" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D126" s="104"/>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="102" t="s">
+        <v>113</v>
+      </c>
+      <c r="B127" s="102" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C127" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D127" s="104"/>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="102" t="s">
+        <v>3910</v>
+      </c>
+      <c r="B128" s="102" t="s">
+        <v>3911</v>
+      </c>
+      <c r="C128" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D128" s="104"/>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="102" t="s">
+        <v>114</v>
+      </c>
+      <c r="B129" s="102" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C129" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D129" s="104"/>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="102" t="s">
+        <v>114</v>
+      </c>
+      <c r="B130" s="102" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C130" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D130" s="104"/>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="102" t="s">
+        <v>115</v>
+      </c>
+      <c r="B131" s="102" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C131" s="104"/>
+      <c r="D131" s="104" t="s">
+        <v>3915</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="102" t="s">
+        <v>115</v>
+      </c>
+      <c r="B132" s="102" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C132" s="104"/>
+      <c r="D132" s="104" t="s">
+        <v>3915</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="102" t="s">
+        <v>117</v>
+      </c>
+      <c r="B133" s="102" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C133" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D133" s="104"/>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="102" t="s">
+        <v>117</v>
+      </c>
+      <c r="B134" s="102" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C134" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D134" s="104"/>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="102" t="s">
+        <v>117</v>
+      </c>
+      <c r="B135" s="102" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C135" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D135" s="104"/>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="102" t="s">
+        <v>117</v>
+      </c>
+      <c r="B136" s="102" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C136" s="98" t="s">
+        <v>3903</v>
+      </c>
+      <c r="D136" s="104"/>
+    </row>
+    <row r="137" spans="1:4" ht="48">
+      <c r="A137" s="102" t="s">
+        <v>117</v>
+      </c>
+      <c r="B137" s="102" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C137" s="104" t="s">
+        <v>3899</v>
+      </c>
+      <c r="D137" s="104"/>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="102" t="s">
+        <v>119</v>
+      </c>
+      <c r="B138" s="102" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C138" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D138" s="104"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="102" t="s">
+        <v>119</v>
+      </c>
+      <c r="B139" s="102" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C139" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D139" s="104"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="102" t="s">
+        <v>120</v>
+      </c>
+      <c r="B140" s="102" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C140" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D140" s="104"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="102" t="s">
+        <v>3912</v>
+      </c>
+      <c r="B141" s="102" t="s">
+        <v>3913</v>
+      </c>
+      <c r="C141" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D141" s="104"/>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="102" t="s">
+        <v>121</v>
+      </c>
+      <c r="B142" s="102" t="s">
+        <v>2194</v>
+      </c>
+      <c r="C142" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D142" s="104"/>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="100" t="s">
+        <v>122</v>
+      </c>
+      <c r="B143" s="102" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C143" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D143" s="104"/>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="100" t="s">
+        <v>122</v>
+      </c>
+      <c r="B144" s="102" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C144" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D144" s="104"/>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="102" t="s">
+        <v>124</v>
+      </c>
+      <c r="B145" s="102" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C145" s="104" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D145" s="104"/>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="102" t="s">
+        <v>124</v>
+      </c>
+      <c r="B146" s="100" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C146" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D146" s="103"/>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="100" t="s">
+        <v>125</v>
+      </c>
+      <c r="B147" s="100" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C147" s="103"/>
+      <c r="D147" s="103" t="s">
+        <v>3915</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="100" t="s">
+        <v>126</v>
+      </c>
+      <c r="B148" s="100" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C148" s="103"/>
+      <c r="D148" s="103" t="s">
+        <v>3915</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="100" t="s">
+        <v>127</v>
+      </c>
+      <c r="B149" s="100" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C149" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D149" s="103"/>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="100" t="s">
+        <v>129</v>
+      </c>
+      <c r="B150" s="100" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C150" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D150" s="103"/>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="100" t="s">
+        <v>129</v>
+      </c>
+      <c r="B151" s="100" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C151" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D151" s="103"/>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="100" t="s">
+        <v>129</v>
+      </c>
+      <c r="B152" s="100" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C152" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D152" s="103"/>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="100" t="s">
+        <v>129</v>
+      </c>
+      <c r="B153" s="100" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C153" s="98" t="s">
+        <v>3903</v>
+      </c>
+      <c r="D153" s="103"/>
+    </row>
+    <row r="154" spans="1:4" ht="24">
+      <c r="A154" s="100" t="s">
+        <v>129</v>
+      </c>
+      <c r="B154" s="100" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C154" s="104" t="s">
+        <v>3916</v>
+      </c>
+      <c r="D154" s="103"/>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="100" t="s">
+        <v>132</v>
+      </c>
+      <c r="B155" s="100" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C155" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D155" s="103"/>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="100" t="s">
+        <v>132</v>
+      </c>
+      <c r="B156" s="100" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C156" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D156" s="103"/>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="B157" s="100" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C157" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D157" s="103"/>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="100" t="s">
+        <v>134</v>
+      </c>
+      <c r="B158" s="100" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C158" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D158" s="103"/>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="100" t="s">
+        <v>134</v>
+      </c>
+      <c r="B159" s="100" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C159" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D159" s="103"/>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="100" t="s">
+        <v>135</v>
+      </c>
+      <c r="B160" s="100" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C160" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D160" s="103"/>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="100" t="s">
+        <v>136</v>
+      </c>
+      <c r="B161" s="100" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C161" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D161" s="103"/>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="100" t="s">
+        <v>136</v>
+      </c>
+      <c r="B162" s="100" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C162" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D162" s="103"/>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="100" t="s">
+        <v>136</v>
+      </c>
+      <c r="B163" s="100" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C163" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D163" s="103"/>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="100" t="s">
+        <v>136</v>
+      </c>
+      <c r="B164" s="100" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C164" s="98" t="s">
+        <v>3903</v>
+      </c>
+      <c r="D164" s="103"/>
+    </row>
+    <row r="165" spans="1:4" ht="48">
+      <c r="A165" s="100" t="s">
+        <v>136</v>
+      </c>
+      <c r="B165" s="100" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C165" s="104" t="s">
+        <v>3899</v>
+      </c>
+      <c r="D165" s="103"/>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="100" t="s">
+        <v>137</v>
+      </c>
+      <c r="B166" s="100" t="s">
+        <v>2196</v>
+      </c>
+      <c r="C166" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D166" s="103"/>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="100" t="s">
+        <v>137</v>
+      </c>
+      <c r="B167" s="100" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C167" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D167" s="103"/>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="100" t="s">
+        <v>137</v>
+      </c>
+      <c r="B168" s="100" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C168" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D168" s="103"/>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="100" t="s">
+        <v>137</v>
+      </c>
+      <c r="B169" s="100" t="s">
+        <v>2199</v>
+      </c>
+      <c r="C169" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D169" s="103"/>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="100" t="s">
+        <v>137</v>
+      </c>
+      <c r="B170" s="100" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C170" s="103" t="s">
+        <v>3903</v>
+      </c>
+      <c r="D170" s="103"/>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="100" t="s">
+        <v>137</v>
+      </c>
+      <c r="B171" s="100" t="s">
+        <v>3914</v>
+      </c>
+      <c r="C171" s="103" t="s">
+        <v>3903</v>
+      </c>
+      <c r="D171" s="103"/>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="100" t="s">
+        <v>140</v>
+      </c>
+      <c r="B172" s="100" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C172" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D172" s="103"/>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="100" t="s">
+        <v>140</v>
+      </c>
+      <c r="B173" s="100" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C173" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D173" s="103"/>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="100" t="s">
+        <v>140</v>
+      </c>
+      <c r="B174" s="100" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C174" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D174" s="103"/>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="100" t="s">
+        <v>145</v>
+      </c>
+      <c r="B175" s="100" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C175" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D175" s="103"/>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="100" t="s">
+        <v>146</v>
+      </c>
+      <c r="B176" s="100" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C176" s="103" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D176" s="103"/>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="100"/>
+      <c r="B177" s="100"/>
+      <c r="C177" s="103"/>
+      <c r="D177" s="103"/>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="100"/>
+      <c r="B178" s="100"/>
+      <c r="C178" s="103"/>
+      <c r="D178" s="103"/>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="100"/>
+      <c r="B179" s="100"/>
+      <c r="C179" s="103"/>
+      <c r="D179" s="103"/>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="100"/>
+      <c r="B180" s="100"/>
+      <c r="C180" s="103"/>
+      <c r="D180" s="103"/>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="100"/>
+      <c r="B181" s="100"/>
+      <c r="C181" s="103"/>
+      <c r="D181" s="103"/>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="100"/>
+      <c r="B182" s="100"/>
+      <c r="C182" s="103"/>
+      <c r="D182" s="103"/>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="100"/>
+      <c r="B183" s="100"/>
+      <c r="C183" s="103"/>
+      <c r="D183" s="103"/>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="100"/>
+      <c r="B184" s="100"/>
+      <c r="C184" s="103"/>
+      <c r="D184" s="103"/>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="100"/>
+      <c r="B185" s="100"/>
+      <c r="C185" s="103"/>
+      <c r="D185" s="103"/>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="100"/>
+      <c r="B186" s="100"/>
+      <c r="C186" s="103"/>
+      <c r="D186" s="103"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D837"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -64701,7 +67485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E13"/>
   <sheetViews>
@@ -64843,7 +67627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -65293,7 +68077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -66853,426 +69637,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:E29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:G158"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="30.5703125" style="47" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" style="59" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="59" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="51" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="47"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
-      <c r="A1" s="97" t="s">
-        <v>3794</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="47" t="s">
-        <v>3506</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>3511</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>3507</v>
-      </c>
-      <c r="D2" s="59" t="s">
-        <v>3508</v>
-      </c>
-      <c r="E2" s="51" t="s">
-        <v>3794</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="47" t="s">
-        <v>3555</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>3790</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>3792</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>3788</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>2238</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="60" t="s">
-        <v>3791</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>3790</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>3792</v>
-      </c>
-      <c r="D4" s="59" t="s">
-        <v>3788</v>
-      </c>
-      <c r="E4" s="63" t="s">
-        <v>2238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="47" t="s">
-        <v>3582</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>3539</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>3792</v>
-      </c>
-      <c r="D5" s="59" t="s">
-        <v>3788</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>2238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="60" t="s">
-        <v>3600</v>
-      </c>
-      <c r="B6" s="60" t="s">
-        <v>3790</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>3792</v>
-      </c>
-      <c r="D6" s="59" t="s">
-        <v>3788</v>
-      </c>
-      <c r="E6" s="63" t="s">
-        <v>2238</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="47" t="s">
-        <v>3603</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>3540</v>
-      </c>
-      <c r="C7" s="59" t="s">
-        <v>3792</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>3788</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>2238</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="60" t="s">
-        <v>3611</v>
-      </c>
-      <c r="B8" s="60" t="s">
-        <v>3790</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>3792</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>3788</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>2238</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="47" t="s">
-        <v>3536</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>3793</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="60" t="s">
-        <v>3663</v>
-      </c>
-      <c r="B10" s="60" t="s">
-        <v>3542</v>
-      </c>
-      <c r="C10" s="62" t="s">
-        <v>3792</v>
-      </c>
-      <c r="D10" s="59" t="s">
-        <v>3788</v>
-      </c>
-      <c r="E10" s="63" t="s">
-        <v>2238</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75">
-      <c r="A13" s="97" t="s">
-        <v>3795</v>
-      </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="47" t="s">
-        <v>3506</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>3511</v>
-      </c>
-      <c r="C14" s="59" t="s">
-        <v>3507</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>3508</v>
-      </c>
-      <c r="E14" s="51" t="s">
-        <v>3795</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="64" t="s">
-        <v>3555</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>3796</v>
-      </c>
-      <c r="C15" s="59" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D15" s="59" t="s">
-        <v>3788</v>
-      </c>
-      <c r="E15" s="51" t="s">
-        <v>2238</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="65" t="s">
-        <v>3600</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>3798</v>
-      </c>
-      <c r="C16" s="59" t="s">
-        <v>3799</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="65" t="s">
-        <v>3611</v>
-      </c>
-      <c r="B17" s="47" t="s">
-        <v>3538</v>
-      </c>
-      <c r="C17" s="59" t="s">
-        <v>3799</v>
-      </c>
-      <c r="D17" s="59" t="s">
-        <v>3788</v>
-      </c>
-      <c r="E17" s="51" t="s">
-        <v>2238</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75">
-      <c r="A20" s="97" t="s">
-        <v>3800</v>
-      </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="47" t="s">
-        <v>3506</v>
-      </c>
-      <c r="B21" s="47" t="s">
-        <v>3511</v>
-      </c>
-      <c r="C21" s="59" t="s">
-        <v>3507</v>
-      </c>
-      <c r="D21" s="59" t="s">
-        <v>3508</v>
-      </c>
-      <c r="E21" s="51" t="s">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="47" t="s">
-        <v>3555</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>3801</v>
-      </c>
-      <c r="C22" s="59" t="s">
-        <v>3792</v>
-      </c>
-      <c r="D22" s="59" t="s">
-        <v>3788</v>
-      </c>
-      <c r="E22" s="51" t="s">
-        <v>2238</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="60" t="s">
-        <v>3791</v>
-      </c>
-      <c r="B23" s="60" t="s">
-        <v>3801</v>
-      </c>
-      <c r="C23" s="59" t="s">
-        <v>3792</v>
-      </c>
-      <c r="D23" s="59" t="s">
-        <v>3788</v>
-      </c>
-      <c r="E23" s="63" t="s">
-        <v>2238</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="47" t="s">
-        <v>3582</v>
-      </c>
-      <c r="B24" s="47" t="s">
-        <v>3541</v>
-      </c>
-      <c r="C24" s="59" t="s">
-        <v>3792</v>
-      </c>
-      <c r="D24" s="59" t="s">
-        <v>3788</v>
-      </c>
-      <c r="E24" s="51" t="s">
-        <v>2238</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="60" t="s">
-        <v>3600</v>
-      </c>
-      <c r="B25" s="60" t="s">
-        <v>3801</v>
-      </c>
-      <c r="C25" s="59" t="s">
-        <v>3792</v>
-      </c>
-      <c r="D25" s="59" t="s">
-        <v>3788</v>
-      </c>
-      <c r="E25" s="63" t="s">
-        <v>2238</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="47" t="s">
-        <v>3603</v>
-      </c>
-      <c r="B26" s="47" t="s">
-        <v>3540</v>
-      </c>
-      <c r="C26" s="59" t="s">
-        <v>3792</v>
-      </c>
-      <c r="D26" s="59" t="s">
-        <v>3788</v>
-      </c>
-      <c r="E26" s="51" t="s">
-        <v>2238</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="60" t="s">
-        <v>3611</v>
-      </c>
-      <c r="B27" s="60" t="s">
-        <v>3801</v>
-      </c>
-      <c r="C27" s="59" t="s">
-        <v>3792</v>
-      </c>
-      <c r="D27" s="59" t="s">
-        <v>3788</v>
-      </c>
-      <c r="E27" s="51" t="s">
-        <v>2238</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="47" t="s">
-        <v>3536</v>
-      </c>
-      <c r="B28" s="47" t="s">
-        <v>3543</v>
-      </c>
-      <c r="C28" s="59" t="s">
-        <v>3792</v>
-      </c>
-      <c r="D28" s="59" t="s">
-        <v>3788</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="60" t="s">
-        <v>3663</v>
-      </c>
-      <c r="B29" s="60" t="s">
-        <v>3542</v>
-      </c>
-      <c r="C29" s="62" t="s">
-        <v>3792</v>
-      </c>
-      <c r="D29" s="59" t="s">
-        <v>3788</v>
-      </c>
-      <c r="E29" s="63" t="s">
-        <v>2238</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A20:E20"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="3">
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
-  </tableParts>
-</worksheet>
 </file>